--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftp_root\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -985,7 +985,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -1415,12 +1415,12 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1">
+    <row r="2" spans="1:22" ht="15.75" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1520,8 +1520,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="19">
-        <f t="array" ref="K2">INDEX(Sheet2!$H$2:$I$21,MATCH(G2,Sheet2!$I$2:I6,0),1)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="20" t="str">
         <f t="array" ref="L2">INDEX(Sheet2!$B$2:$C$21,MATCH(G2,Sheet2!$C$2:C21,0),1)</f>
@@ -1559,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.4">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="15" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.4">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.4">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="15" t="s">
         <v>50</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4">
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.4">
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="15" t="s">
         <v>62</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="15" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="15" t="s">
         <v>72</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.4">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="15" t="s">
         <v>72</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.4">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
         <v>72</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.4">
+    <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
         <v>88</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.4">
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
         <v>99</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.4">
+    <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
         <v>99</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
         <v>111</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.4">
+    <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
         <v>111</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4">
+    <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
         <v>122</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.4">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
         <v>122</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.4">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
         <v>132</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.4">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
         <v>132</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.4">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="15" t="s">
         <v>143</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.4">
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
         <v>143</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.4">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
         <v>154</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.4">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
         <v>154</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.4">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
         <v>165</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.4">
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
         <v>165</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.4">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
         <v>175</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.4">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
         <v>175</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="14.4">
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
         <v>187</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.4">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
         <v>187</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="14.4">
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
         <v>187</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.4">
+    <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
         <v>203</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.4">
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
         <v>203</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.4">
+    <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
         <v>212</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.4">
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
         <v>212</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.4">
+    <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
         <v>223</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.4">
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
         <v>223</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.4">
+    <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
         <v>234</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.4">
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
         <v>234</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.4">
+    <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
         <v>234</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="14.4">
+    <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
         <v>250</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="14.4">
+    <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
         <v>250</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="14.4">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
         <v>261</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="14.4">
+    <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
         <v>261</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="14.4">
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
         <v>271</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="14.4">
+    <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
         <v>271</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="14.4">
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
         <v>283</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="14.4">
+    <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
         <v>283</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="14.4">
+    <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
         <v>292</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="14.4">
+    <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
         <v>292</v>
       </c>
@@ -5119,11 +5118,11 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="321">
   <si>
     <t>operator</t>
   </si>
@@ -980,6 +980,9 @@
   </si>
   <si>
     <t>PLEASE DO NOT MODIFY ANYTHING IN THIS SHEET</t>
+  </si>
+  <si>
+    <t>SRT</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,6 +1093,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1128,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1192,6 +1207,22 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1414,11 +1445,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
@@ -1637,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
@@ -1676,10 +1721,10 @@
         <v>43</v>
       </c>
       <c r="O4" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="16">
         <v>1</v>
@@ -1694,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>37</v>
@@ -1708,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
@@ -2087,8 +2132,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="19">
-        <f t="array" ref="K10">INDEX(Sheet2!$H$2:$I$21,MATCH(G10,Sheet2!$I$2:I14,0),1)</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L10" s="20" t="str">
         <f t="array" ref="L10">INDEX(Sheet2!$B$2:$C$21,MATCH(G10,Sheet2!$C$2:C29,0),1)</f>
@@ -2559,8 +2603,8 @@
       <c r="B17" s="16">
         <v>9</v>
       </c>
-      <c r="C17" s="16">
-        <v>2</v>
+      <c r="C17" s="25">
+        <v>18</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>4</v>
@@ -2584,8 +2628,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="19">
-        <f t="array" ref="K17">INDEX(Sheet2!$H$2:$I$21,MATCH(G17,Sheet2!$I$2:I21,0),1)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L17" s="20" t="str">
         <f t="array" ref="L17">INDEX(Sheet2!$B$2:$C$21,MATCH(G17,Sheet2!$C$2:C36,0),1)</f>
@@ -2599,10 +2642,10 @@
         <v>27</v>
       </c>
       <c r="O17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="16">
         <v>1</v>
@@ -2617,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>111</v>
@@ -2630,8 +2673,8 @@
       <c r="B18" s="16">
         <v>9</v>
       </c>
-      <c r="C18" s="16">
-        <v>1</v>
+      <c r="C18" s="25">
+        <v>7</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>29</v>
@@ -2688,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>111</v>
@@ -2978,72 +3021,72 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
+      <c r="A23" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="27">
         <v>12</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="27">
         <v>2</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="27">
         <v>12</v>
       </c>
-      <c r="K23" s="19" t="e">
+      <c r="K23" s="29" t="e">
         <f t="array" ref="K23">INDEX(Sheet2!$H$2:$I$21,MATCH(G23,Sheet2!$I$2:I27,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="20" t="e">
+      <c r="L23" s="30" t="e">
         <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C42,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="21" t="e">
+      <c r="M23" s="31" t="e">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F42,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="16">
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>1</v>
-      </c>
-      <c r="R23" s="16">
-        <v>1</v>
-      </c>
-      <c r="S23" s="15" t="s">
+      <c r="O23" s="27">
+        <v>0</v>
+      </c>
+      <c r="P23" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>1</v>
+      </c>
+      <c r="R23" s="27">
+        <v>1</v>
+      </c>
+      <c r="S23" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="T23" s="16">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16">
-        <v>1</v>
-      </c>
-      <c r="V23" s="15" t="s">
+      <c r="T23" s="27">
+        <v>0</v>
+      </c>
+      <c r="U23" s="27">
+        <v>1</v>
+      </c>
+      <c r="V23" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3764,8 +3807,8 @@
       <c r="B34" s="16">
         <v>19</v>
       </c>
-      <c r="C34" s="16">
-        <v>2</v>
+      <c r="C34" s="25">
+        <v>18</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>4</v>
@@ -3804,10 +3847,10 @@
         <v>27</v>
       </c>
       <c r="O34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="16">
         <v>1</v>
@@ -3822,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
         <v>203</v>
@@ -3835,8 +3878,8 @@
       <c r="B35" s="16">
         <v>19</v>
       </c>
-      <c r="C35" s="16">
-        <v>1</v>
+      <c r="C35" s="25">
+        <v>8</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>29</v>
@@ -3863,9 +3906,8 @@
         <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I39,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L35" s="20" t="str">
-        <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C54,0),1)</f>
-        <v>b</v>
+      <c r="L35" s="20" t="s">
+        <v>320</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3893,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
         <v>203</v>
@@ -4828,8 +4870,8 @@
       <c r="B49" s="16">
         <v>26</v>
       </c>
-      <c r="C49" s="16">
-        <v>2</v>
+      <c r="C49" s="25">
+        <v>10</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>4</v>
@@ -4899,8 +4941,8 @@
       <c r="B50" s="16">
         <v>26</v>
       </c>
-      <c r="C50" s="16">
-        <v>1</v>
+      <c r="C50" s="25">
+        <v>9</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>29</v>
@@ -5487,27 +5529,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1445,9 +1445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftp_root\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAS\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F731B75-6D2E-422F-A85D-896E1F39A4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -988,7 +989,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -1442,12 +1443,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3847,10 +3848,10 @@
         <v>27</v>
       </c>
       <c r="O34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="16">
         <v>1</v>
@@ -3865,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="15" t="s">
         <v>203</v>
@@ -3917,10 +3918,10 @@
         <v>35</v>
       </c>
       <c r="O35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="16">
         <v>1</v>
@@ -3935,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="15" t="s">
         <v>203</v>
@@ -5153,7 +5154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAS\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F731B75-6D2E-422F-A85D-896E1F39A4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="323">
   <si>
     <t>operator</t>
   </si>
@@ -581,9 +580,6 @@
     <t>h:\telcobright\vault\resources\cdr\ringTech\tdm</t>
   </si>
   <si>
-    <t>ringTech_10.154.150.38_ZTE</t>
-  </si>
-  <si>
     <t>crossworld</t>
   </si>
   <si>
@@ -599,9 +595,6 @@
     <t>h:\telcobright\vault\resources\cdr\crossworld\ip</t>
   </si>
   <si>
-    <t>crossworld_10.255.200.34_CATALEYA</t>
-  </si>
-  <si>
     <t>10.154.150.34</t>
   </si>
   <si>
@@ -984,12 +977,24 @@
   </si>
   <si>
     <t>SRT</t>
+  </si>
+  <si>
+    <t>vault.ZTE</t>
+  </si>
+  <si>
+    <t>vaultZte</t>
+  </si>
+  <si>
+    <t>Haseen</t>
+  </si>
+  <si>
+    <t>vaultHuwaei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -1443,18 +1448,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
@@ -1580,10 +1586,10 @@
         <v>27</v>
       </c>
       <c r="O2" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="16">
         <v>1</v>
@@ -1651,10 +1657,10 @@
         <v>35</v>
       </c>
       <c r="O3" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="16">
         <v>1</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>21</v>
@@ -1740,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>37</v>
@@ -1805,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1864,10 +1870,10 @@
         <v>27</v>
       </c>
       <c r="O6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="16">
         <v>1</v>
@@ -1935,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="O7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="16">
         <v>1</v>
@@ -1991,8 +1997,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="19">
-        <f t="array" ref="K8">INDEX(Sheet2!$H$2:$I$21,MATCH(G8,Sheet2!$I$2:I12,0),1)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L8" s="20" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
@@ -2077,10 +2082,10 @@
         <v>27</v>
       </c>
       <c r="O9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="16">
         <v>1</v>
@@ -2092,10 +2097,10 @@
         <v>49</v>
       </c>
       <c r="T9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>62</v>
@@ -2147,10 +2152,10 @@
         <v>27</v>
       </c>
       <c r="O10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="16">
         <v>1</v>
@@ -2218,10 +2223,10 @@
         <v>27</v>
       </c>
       <c r="O11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="16">
         <v>1</v>
@@ -2236,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>72</v>
@@ -2289,10 +2294,10 @@
         <v>27</v>
       </c>
       <c r="O12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="16">
         <v>1</v>
@@ -2307,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>72</v>
@@ -2360,10 +2365,10 @@
         <v>27</v>
       </c>
       <c r="O13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="16">
         <v>1</v>
@@ -2431,10 +2436,10 @@
         <v>27</v>
       </c>
       <c r="O14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="16">
         <v>1</v>
@@ -2502,10 +2507,10 @@
         <v>27</v>
       </c>
       <c r="O15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="16">
         <v>1</v>
@@ -2520,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>99</v>
@@ -2573,10 +2578,10 @@
         <v>27</v>
       </c>
       <c r="O16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
         <v>1</v>
@@ -2591,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>99</v>
@@ -2714,10 +2719,10 @@
         <v>27</v>
       </c>
       <c r="O18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
         <v>1</v>
@@ -2732,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>111</v>
@@ -2785,10 +2790,10 @@
         <v>27</v>
       </c>
       <c r="O19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="16">
         <v>1</v>
@@ -2803,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>122</v>
@@ -2856,10 +2861,10 @@
         <v>27</v>
       </c>
       <c r="O20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="16">
         <v>1</v>
@@ -2874,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>122</v>
@@ -2927,10 +2932,10 @@
         <v>27</v>
       </c>
       <c r="O21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="16">
         <v>1</v>
@@ -2945,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
         <v>132</v>
@@ -2998,10 +3003,10 @@
         <v>27</v>
       </c>
       <c r="O22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="16">
         <v>1</v>
@@ -3016,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="15" t="s">
         <v>132</v>
@@ -3066,11 +3071,11 @@
       <c r="N23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="27">
-        <v>0</v>
-      </c>
-      <c r="P23" s="27">
-        <v>0</v>
+      <c r="O23" s="16">
+        <v>1</v>
+      </c>
+      <c r="P23" s="16">
+        <v>1</v>
       </c>
       <c r="Q23" s="27">
         <v>1</v>
@@ -3084,7 +3089,7 @@
       <c r="T23" s="27">
         <v>0</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="16">
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
@@ -3138,10 +3143,10 @@
         <v>27</v>
       </c>
       <c r="O24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="16">
         <v>1</v>
@@ -3156,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
         <v>143</v>
@@ -3209,10 +3214,10 @@
         <v>27</v>
       </c>
       <c r="O25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="16">
         <v>1</v>
@@ -3227,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
         <v>154</v>
@@ -3280,10 +3285,10 @@
         <v>27</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="16">
         <v>1</v>
@@ -3298,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
         <v>154</v>
@@ -3351,10 +3356,10 @@
         <v>27</v>
       </c>
       <c r="O27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="16">
         <v>1</v>
@@ -3369,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
         <v>165</v>
@@ -3422,10 +3427,10 @@
         <v>27</v>
       </c>
       <c r="O28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="16">
         <v>1</v>
@@ -3440,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="15" t="s">
         <v>165</v>
@@ -3493,10 +3498,10 @@
         <v>27</v>
       </c>
       <c r="O29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="16">
         <v>1</v>
@@ -3511,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
         <v>175</v>
@@ -3552,9 +3557,8 @@
         <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I34,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L30" s="20" t="str">
-        <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C49,0),1)</f>
-        <v>ICX</v>
+      <c r="L30" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3576,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3590,7 +3594,7 @@
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3602,26 +3606,25 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
       </c>
       <c r="K31" s="19">
-        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I35,0),1)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L31" s="20" t="str">
         <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C50,0),1)</f>
@@ -3647,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3656,12 +3659,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3673,19 +3676,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3706,10 +3709,10 @@
         <v>27</v>
       </c>
       <c r="O32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="16">
         <v>1</v>
@@ -3718,21 +3721,21 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
       </c>
       <c r="U32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3744,19 +3747,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3777,10 +3780,10 @@
         <v>27</v>
       </c>
       <c r="O33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="16">
         <v>1</v>
@@ -3789,21 +3792,21 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
       </c>
       <c r="U33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3815,19 +3818,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3848,10 +3851,10 @@
         <v>27</v>
       </c>
       <c r="O34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="16">
         <v>1</v>
@@ -3866,15 +3869,15 @@
         <v>0</v>
       </c>
       <c r="U34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3886,19 +3889,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3908,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3918,10 +3921,10 @@
         <v>35</v>
       </c>
       <c r="O35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="16">
         <v>1</v>
@@ -3936,15 +3939,15 @@
         <v>0</v>
       </c>
       <c r="U35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3956,19 +3959,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -3989,10 +3992,10 @@
         <v>27</v>
       </c>
       <c r="O36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="16">
         <v>1</v>
@@ -4001,21 +4004,21 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
       </c>
       <c r="U36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4027,19 +4030,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4060,10 +4063,10 @@
         <v>27</v>
       </c>
       <c r="O37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="16">
         <v>1</v>
@@ -4072,21 +4075,21 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
       </c>
       <c r="U37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4098,19 +4101,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4131,10 +4134,10 @@
         <v>27</v>
       </c>
       <c r="O38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="16">
         <v>1</v>
@@ -4143,21 +4146,21 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
       </c>
       <c r="U38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4169,19 +4172,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4202,10 +4205,10 @@
         <v>27</v>
       </c>
       <c r="O39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="16">
         <v>1</v>
@@ -4214,21 +4217,21 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
       </c>
       <c r="U39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4240,19 +4243,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4273,10 +4276,10 @@
         <v>27</v>
       </c>
       <c r="O40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="16">
         <v>1</v>
@@ -4285,21 +4288,21 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
       </c>
       <c r="U40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4311,19 +4314,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4344,10 +4347,10 @@
         <v>27</v>
       </c>
       <c r="O41" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="16">
         <v>1</v>
@@ -4356,21 +4359,21 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
       </c>
       <c r="U41" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4382,19 +4385,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4415,10 +4418,10 @@
         <v>27</v>
       </c>
       <c r="O42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="16">
         <v>1</v>
@@ -4427,21 +4430,21 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
       </c>
       <c r="U42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4453,19 +4456,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4486,10 +4489,10 @@
         <v>27</v>
       </c>
       <c r="O43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="16">
         <v>1</v>
@@ -4504,15 +4507,15 @@
         <v>0</v>
       </c>
       <c r="U43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4524,19 +4527,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="I44" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4557,10 +4560,10 @@
         <v>27</v>
       </c>
       <c r="O44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="16">
         <v>1</v>
@@ -4569,21 +4572,21 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4595,19 +4598,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4628,10 +4631,10 @@
         <v>27</v>
       </c>
       <c r="O45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="16">
         <v>1</v>
@@ -4640,21 +4643,21 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
       </c>
       <c r="U45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4666,19 +4669,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4699,10 +4702,10 @@
         <v>27</v>
       </c>
       <c r="O46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="16">
         <v>1</v>
@@ -4720,12 +4723,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4737,19 +4740,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="I47" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4763,16 +4766,16 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="16">
         <v>1</v>
@@ -4787,15 +4790,15 @@
         <v>0</v>
       </c>
       <c r="U47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4807,19 +4810,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4837,13 +4840,13 @@
         <v>.dat</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O48" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="16">
         <v>1</v>
@@ -4858,15 +4861,15 @@
         <v>0</v>
       </c>
       <c r="U48" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4878,19 +4881,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4911,10 +4914,10 @@
         <v>27</v>
       </c>
       <c r="O49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="16">
         <v>1</v>
@@ -4929,15 +4932,15 @@
         <v>1</v>
       </c>
       <c r="U49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4949,19 +4952,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>107</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4994,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5003,12 +5006,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5020,19 +5023,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5053,10 +5056,10 @@
         <v>27</v>
       </c>
       <c r="O51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="16">
         <v>1</v>
@@ -5071,15 +5074,15 @@
         <v>0</v>
       </c>
       <c r="U51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5091,19 +5094,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5124,10 +5127,10 @@
         <v>27</v>
       </c>
       <c r="O52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="16">
         <v>1</v>
@@ -5136,25 +5139,26 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
       </c>
       <c r="U52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5171,24 +5175,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5210,14 +5214,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5232,14 +5236,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5254,14 +5258,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5276,14 +5280,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>107</v>
@@ -5298,14 +5302,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5320,36 +5324,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5364,14 +5368,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5389,31 +5393,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>178</v>
@@ -5531,7 +5535,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="325">
   <si>
     <t>operator</t>
   </si>
@@ -919,9 +919,6 @@
     <t>j:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
   </si>
   <si>
-    <t>voiceTel_10.154.150.58_HUWAEI</t>
-  </si>
-  <si>
     <t>PREF</t>
   </si>
   <si>
@@ -988,7 +985,16 @@
     <t>Haseen</t>
   </si>
   <si>
-    <t>vaultHuwaei</t>
+    <t>vault.Huwaei</t>
+  </si>
+  <si>
+    <t>Vault.Huwaei</t>
+  </si>
+  <si>
+    <t>vaultHuawei</t>
+  </si>
+  <si>
+    <t>vault.Genband</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1233,6 +1239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1451,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1657,10 +1666,10 @@
         <v>35</v>
       </c>
       <c r="O3" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="16">
         <v>1</v>
@@ -1669,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1811,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -2011,10 +2020,10 @@
         <v>27</v>
       </c>
       <c r="O8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="16">
         <v>1</v>
@@ -2026,10 +2035,10 @@
         <v>67</v>
       </c>
       <c r="T8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>62</v>
@@ -2082,10 +2091,10 @@
         <v>27</v>
       </c>
       <c r="O9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <v>1</v>
@@ -2094,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="T9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>62</v>
@@ -3558,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3580,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3911,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -4997,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5115,9 +5124,8 @@
         <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L52" s="20" t="str">
-        <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C71,0),1)</f>
-        <v>b</v>
+      <c r="L52" s="35">
+        <v>2</v>
       </c>
       <c r="M52" s="21" t="str">
         <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F71,0),1)</f>
@@ -5127,25 +5135,25 @@
         <v>27</v>
       </c>
       <c r="O52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="16">
         <v>1</v>
       </c>
       <c r="R52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
       </c>
       <c r="U52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
         <v>290</v>
@@ -5162,7 +5170,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5175,24 +5183,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>300</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5214,14 +5222,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5236,14 +5244,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5258,14 +5266,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5280,14 +5288,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>107</v>
@@ -5302,14 +5310,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5331,7 +5339,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>255</v>
@@ -5346,14 +5354,14 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5368,14 +5376,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5410,14 +5418,14 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>178</v>
@@ -5535,7 +5543,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1462,7 +1462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
+      <selection pane="bottomLeft" activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3436,13 +3436,13 @@
         <v>27</v>
       </c>
       <c r="O28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="16">
         <v>1</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="325">
   <si>
     <t>operator</t>
   </si>
@@ -448,9 +448,6 @@
     <t>g:\telcobright\vault\resources\cdr\mnh\tdm</t>
   </si>
   <si>
-    <t>mnh_10.154.150.25_HUWAEI</t>
-  </si>
-  <si>
     <t>btcl</t>
   </si>
   <si>
@@ -995,6 +992,9 @@
   </si>
   <si>
     <t>vault.Genband</t>
+  </si>
+  <si>
+    <t>b,c</t>
   </si>
 </sst>
 </file>
@@ -1235,13 +1235,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1476,6 +1476,7 @@
     <col min="14" max="14" width="8.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1678,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1820,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -2103,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2728,10 +2729,10 @@
         <v>27</v>
       </c>
       <c r="O18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="16">
         <v>1</v>
@@ -2746,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>111</v>
@@ -3000,9 +3001,8 @@
         <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I26,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L22" s="20" t="str">
-        <f t="array" ref="L22">INDEX(Sheet2!$B$2:$C$21,MATCH(G22,Sheet2!$C$2:C41,0),1)</f>
-        <v>b</v>
+      <c r="L22" s="20" t="s">
+        <v>324</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3012,10 +3012,10 @@
         <v>27</v>
       </c>
       <c r="O22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="16">
         <v>1</v>
@@ -3024,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
       </c>
       <c r="U22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
         <v>132</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="27">
         <v>12</v>
@@ -3050,17 +3050,17 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="J23" s="27">
         <v>12</v>
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -3102,12 +3102,12 @@
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="16">
         <v>12</v>
@@ -3119,19 +3119,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3173,12 +3173,12 @@
         <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3190,19 +3190,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3244,12 +3244,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3261,19 +3261,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3315,12 +3315,12 @@
         <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3332,19 +3332,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3386,12 +3386,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3403,19 +3403,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3457,12 +3457,12 @@
         <v>1</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3474,19 +3474,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3528,12 +3528,12 @@
         <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3545,19 +3545,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>107</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3567,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3598,12 +3598,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3615,19 +3615,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3668,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3685,19 +3685,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3739,12 +3739,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3756,19 +3756,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3810,12 +3810,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3827,19 +3827,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3881,12 +3881,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3898,19 +3898,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3951,12 +3951,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3968,19 +3968,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4022,12 +4022,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4039,19 +4039,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4093,12 +4093,12 @@
         <v>1</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4110,19 +4110,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4164,12 +4164,12 @@
         <v>1</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4181,19 +4181,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4235,12 +4235,12 @@
         <v>1</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4252,19 +4252,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4306,12 +4306,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4323,19 +4323,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4377,12 +4377,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4394,19 +4394,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4439,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4448,12 +4448,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4465,19 +4465,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4519,12 +4519,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4536,19 +4536,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4590,12 +4590,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4607,19 +4607,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4661,12 +4661,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4678,19 +4678,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4732,12 +4732,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4749,19 +4749,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="G47" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
@@ -4802,12 +4802,12 @@
         <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4819,19 +4819,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4849,7 +4849,7 @@
         <v>.dat</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O48" s="16">
         <v>1</v>
@@ -4873,12 +4873,12 @@
         <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4890,19 +4890,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4944,12 +4944,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4961,19 +4961,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>107</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5015,12 +5015,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5032,19 +5032,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>292</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5086,12 +5086,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5103,19 +5103,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5124,7 +5124,7 @@
         <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L52" s="35">
+      <c r="L52" s="33">
         <v>2</v>
       </c>
       <c r="M52" s="21" t="str">
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5183,24 +5183,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>299</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>300</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5222,14 +5222,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5244,14 +5244,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5266,14 +5266,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5288,14 +5288,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>107</v>
@@ -5310,14 +5310,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5332,36 +5332,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5376,14 +5376,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5401,41 +5401,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5542,27 +5542,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="C25" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>111</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="323">
   <si>
     <t>operator</t>
   </si>
@@ -334,9 +334,6 @@
     <t>f:\telcobright\vault\resources\cdr\imamNetwork\ip</t>
   </si>
   <si>
-    <t>imamNetwork_10.255.200.22_CATALEYA</t>
-  </si>
-  <si>
     <t>10.154.150.22</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>f:\telcobright\vault\resources\cdr\imamNetwork\tdm</t>
   </si>
   <si>
-    <t>imamNetwork_10.154.150.22_ZTE</t>
-  </si>
-  <si>
     <t>jibonDhara</t>
   </si>
   <si>
@@ -712,9 +706,6 @@
     <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
   </si>
   <si>
-    <t>softex_10.154.150.52_HUWAEI</t>
-  </si>
-  <si>
     <t>teleExchange</t>
   </si>
   <si>
@@ -995,6 +986,9 @@
   </si>
   <si>
     <t>b,c</t>
+  </si>
+  <si>
+    <t>DHK</t>
   </si>
 </sst>
 </file>
@@ -1460,15 +1454,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -1679,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1821,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -2104,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2529,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2555,19 +2551,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="J16" s="16">
         <v>8</v>
@@ -2576,9 +2572,8 @@
         <f t="array" ref="K16">INDEX(Sheet2!$H$2:$I$21,MATCH(G16,Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L16" s="20" t="str">
-        <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C35,0),1)</f>
-        <v>ICX</v>
+      <c r="L16" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2588,10 +2583,10 @@
         <v>27</v>
       </c>
       <c r="O16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <v>1</v>
@@ -2600,13 +2595,13 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
       </c>
       <c r="U16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>99</v>
@@ -2614,7 +2609,7 @@
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="16">
         <v>9</v>
@@ -2626,19 +2621,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J17" s="16">
         <v>9</v>
@@ -2670,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
@@ -2679,12 +2674,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="16">
         <v>9</v>
@@ -2696,19 +2691,19 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="J18" s="16">
         <v>9</v>
@@ -2741,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2750,12 +2745,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="16">
         <v>10</v>
@@ -2767,19 +2762,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J19" s="16">
         <v>10</v>
@@ -2812,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2821,12 +2816,12 @@
         <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="16">
         <v>10</v>
@@ -2838,19 +2833,19 @@
         <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="J20" s="16">
         <v>10</v>
@@ -2883,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2892,12 +2887,12 @@
         <v>1</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="16">
         <v>11</v>
@@ -2909,19 +2904,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J21" s="16">
         <v>11</v>
@@ -2954,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -2963,12 +2958,12 @@
         <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="16">
         <v>11</v>
@@ -2980,19 +2975,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J22" s="16">
         <v>11</v>
@@ -3002,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3024,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3033,12 +3028,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="27">
         <v>12</v>
@@ -3050,17 +3045,17 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J23" s="27">
         <v>12</v>
@@ -3093,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -3102,12 +3097,12 @@
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="16">
         <v>12</v>
@@ -3119,19 +3114,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3164,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3173,12 +3168,12 @@
         <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3190,19 +3185,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3235,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3244,12 +3239,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3261,19 +3256,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3306,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3315,12 +3310,12 @@
         <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3332,19 +3327,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3386,12 +3381,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3403,19 +3398,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3448,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3457,12 +3452,12 @@
         <v>1</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3474,19 +3469,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3519,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3528,12 +3523,12 @@
         <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3545,19 +3540,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3567,7 +3562,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3589,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3598,12 +3593,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3615,19 +3610,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3668,12 +3663,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3685,19 +3680,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3730,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3739,12 +3734,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3756,19 +3751,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3801,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3810,12 +3805,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3827,19 +3822,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3881,12 +3876,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3898,19 +3893,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3920,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3951,12 +3946,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3968,19 +3963,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4013,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4022,12 +4017,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4039,19 +4034,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4084,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4093,12 +4088,12 @@
         <v>1</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4110,19 +4105,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4155,21 +4150,21 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
       </c>
       <c r="U38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4181,19 +4176,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4214,10 +4209,10 @@
         <v>27</v>
       </c>
       <c r="O39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="16">
         <v>1</v>
@@ -4226,21 +4221,21 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
       </c>
       <c r="U39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4252,19 +4247,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4297,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4306,12 +4301,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4323,19 +4318,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4368,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4377,12 +4372,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4394,19 +4389,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4439,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4448,12 +4443,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4465,19 +4460,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4510,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4519,12 +4514,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4536,19 +4531,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4581,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4590,12 +4585,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4607,19 +4602,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4652,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4661,12 +4656,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4678,19 +4673,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4732,12 +4727,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4749,19 +4744,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4775,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
@@ -4802,12 +4797,12 @@
         <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4819,19 +4814,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4849,7 +4844,7 @@
         <v>.dat</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O48" s="16">
         <v>1</v>
@@ -4873,12 +4868,12 @@
         <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4890,19 +4885,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4944,12 +4939,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4961,19 +4956,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -5006,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5015,12 +5010,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5032,19 +5027,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5086,12 +5081,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5103,19 +5098,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5147,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5156,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5170,7 +5165,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5183,24 +5178,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5222,14 +5217,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5244,14 +5239,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5266,14 +5261,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5288,36 +5283,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5332,36 +5327,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5376,14 +5371,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5401,41 +5396,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5543,7 +5538,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1456,7 +1456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1454,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3321,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>4</v>
@@ -3392,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>29</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="323">
   <si>
     <t>operator</t>
   </si>
@@ -535,9 +535,6 @@
     <t>h:\telcobright\vault\resources\cdr\purple\tdm</t>
   </si>
   <si>
-    <t>purple_10.154.150.37_HUWAEI</t>
-  </si>
-  <si>
     <t>ringTech</t>
   </si>
   <si>
@@ -989,6 +986,9 @@
   </si>
   <si>
     <t>DHK</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2993,11 +2993,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="19">
-        <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I26,0),1)</f>
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3019,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3419,9 +3418,8 @@
         <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L28" s="20" t="str">
-        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C47,0),1)</f>
-        <v>b</v>
+      <c r="L28" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3437,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="16">
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
       </c>
       <c r="U28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
         <v>162</v>
@@ -3457,7 +3455,7 @@
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3469,19 +3467,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3514,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3523,12 +3521,12 @@
         <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3540,19 +3538,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3562,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3584,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3593,12 +3591,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3610,19 +3608,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3663,12 +3661,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3680,19 +3678,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3725,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3734,12 +3732,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3751,19 +3749,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3796,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3805,12 +3803,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3822,19 +3820,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3876,12 +3874,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3893,19 +3891,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3915,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3946,12 +3944,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3963,19 +3961,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4008,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4017,12 +4015,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4034,19 +4032,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4079,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4088,12 +4086,12 @@
         <v>1</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4105,19 +4103,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4150,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4159,12 +4157,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4176,19 +4174,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4221,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4230,12 +4228,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4247,19 +4245,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4292,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4301,12 +4299,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4318,19 +4316,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4363,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4372,12 +4370,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4389,19 +4387,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4434,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4443,12 +4441,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4460,19 +4458,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4514,12 +4512,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4531,19 +4529,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4576,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4585,12 +4583,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4602,19 +4600,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4647,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4656,12 +4654,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4673,19 +4671,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4727,12 +4725,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4744,19 +4742,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="G47" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4770,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
@@ -4797,12 +4795,12 @@
         <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4814,19 +4812,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4844,7 +4842,7 @@
         <v>.dat</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O48" s="16">
         <v>1</v>
@@ -4868,12 +4866,12 @@
         <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4885,19 +4883,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4939,12 +4937,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4956,19 +4954,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -5001,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5010,12 +5008,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5027,19 +5025,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5081,12 +5079,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5098,19 +5096,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>292</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5142,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5151,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5178,24 +5176,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5217,14 +5215,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5239,14 +5237,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5261,14 +5259,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5283,14 +5281,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>106</v>
@@ -5305,14 +5303,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5327,36 +5325,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5371,14 +5369,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5396,41 +5394,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5538,7 +5536,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1456,7 +1456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -820,36 +820,21 @@
     <t>10.255.200.56</t>
   </si>
   <si>
-    <t>telePlusNetwork_ip</t>
-  </si>
-  <si>
     <t>WTL</t>
   </si>
   <si>
     <t>z5&lt;JN+Hy&lt;ME;CdN+</t>
   </si>
   <si>
-    <t>j:\telcobright\vault\resources\cdr\telePlusNetwork\ip</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
     <t>10.154.150.56</t>
   </si>
   <si>
-    <t>telePlusNetwork_tdm</t>
-  </si>
-  <si>
     <t>^E9cB9@r1lL7</t>
   </si>
   <si>
-    <t>j:\telcobright\vault\resources\cdr\telePlusNetwork\tdm</t>
-  </si>
-  <si>
-    <t>this.zteCAS.Name + "," + this.zteSummitFtp.Name</t>
-  </si>
-  <si>
     <t>summit</t>
   </si>
   <si>
@@ -989,6 +974,21 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>telePlusNewyork</t>
+  </si>
+  <si>
+    <t>telePlusNewyork_ip</t>
+  </si>
+  <si>
+    <t>telePlusNewyork_tdm</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\ip</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\tdm</t>
   </si>
 </sst>
 </file>
@@ -1454,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2996,7 +2996,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4745,16 +4745,16 @@
         <v>265</v>
       </c>
       <c r="F47" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="I47" s="15" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4768,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4812,19 +4812,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4833,22 +4833,21 @@
         <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I52,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L48" s="20" t="str">
-        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C67,0),1)</f>
-        <v>b</v>
+      <c r="L48" s="20">
+        <v>2</v>
       </c>
       <c r="M48" s="21" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F67,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="O48" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="16">
         <v>1</v>
@@ -4857,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
       </c>
       <c r="U48" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
         <v>264</v>
@@ -4871,7 +4870,7 @@
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4883,19 +4882,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4937,12 +4936,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4954,19 +4953,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4999,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5008,12 +5007,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5025,19 +5024,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5079,12 +5078,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5096,19 +5095,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5140,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5149,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5176,24 +5175,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5215,14 +5214,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5237,14 +5236,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5259,14 +5258,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5281,14 +5280,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>106</v>
@@ -5303,14 +5302,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5325,14 +5324,14 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>250</v>
@@ -5347,14 +5346,14 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5369,14 +5368,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5394,31 +5393,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>174</v>
@@ -5536,7 +5535,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="322">
   <si>
     <t>operator</t>
   </si>
@@ -505,9 +505,6 @@
     <t>g:\telcobright\vault\resources\cdr\paradise\tdm</t>
   </si>
   <si>
-    <t>paradise_10.154.150.36_HUWAEI</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
     <t>i:\telcobright\vault\resources\cdr\sheba\tdm</t>
   </si>
   <si>
-    <t>sheba_10.154.150.51_HUWAEI</t>
-  </si>
-  <si>
     <t>softex</t>
   </si>
   <si>
@@ -989,6 +983,9 @@
   </si>
   <si>
     <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\tdm</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1454,9 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1675,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1817,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -2100,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2573,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2996,7 +2993,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3018,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3276,9 +3273,8 @@
         <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L26" s="20" t="str">
-        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C45,0),1)</f>
-        <v>b</v>
+      <c r="L26" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3288,10 +3284,10 @@
         <v>27</v>
       </c>
       <c r="O26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="16">
         <v>1</v>
@@ -3300,13 +3296,13 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
       </c>
       <c r="U26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
         <v>151</v>
@@ -3314,7 +3310,7 @@
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3326,19 +3322,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3380,12 +3376,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3397,19 +3393,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3419,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3441,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3450,12 +3446,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3467,19 +3463,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3512,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3521,12 +3517,12 @@
         <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3538,19 +3534,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3560,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3582,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3591,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3608,19 +3604,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3661,12 +3657,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3678,19 +3674,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3723,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3732,12 +3728,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3749,19 +3745,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3794,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3803,12 +3799,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3820,19 +3816,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3874,12 +3870,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3891,19 +3887,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3913,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3944,12 +3940,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3961,19 +3957,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4006,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4015,12 +4011,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4032,19 +4028,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4053,9 +4049,8 @@
         <f t="array" ref="K37">INDEX(Sheet2!$H$2:$I$21,MATCH(G37,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L37" s="20" t="str">
-        <f t="array" ref="L37">INDEX(Sheet2!$B$2:$C$21,MATCH(G37,Sheet2!$C$2:C56,0),1)</f>
-        <v>b</v>
+      <c r="L37" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4065,10 +4060,10 @@
         <v>27</v>
       </c>
       <c r="O37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="16">
         <v>1</v>
@@ -4077,21 +4072,21 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
       </c>
       <c r="U37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4103,19 +4098,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4148,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4157,12 +4152,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4174,19 +4169,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4219,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4228,12 +4223,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4245,19 +4240,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4290,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4299,12 +4294,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4316,19 +4311,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4361,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4370,12 +4365,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4387,19 +4382,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4432,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4441,12 +4436,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4458,19 +4453,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4512,12 +4507,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4529,19 +4524,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="I44" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4574,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4583,12 +4578,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4600,19 +4595,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4645,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4654,12 +4649,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4671,19 +4666,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4725,12 +4720,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4742,19 +4737,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4768,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
@@ -4795,12 +4790,12 @@
         <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4812,19 +4807,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4856,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4865,12 +4860,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4882,19 +4877,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4936,12 +4931,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4953,19 +4948,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4998,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5007,12 +5002,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5024,19 +5019,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5078,12 +5073,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5095,19 +5090,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5139,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5148,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5175,24 +5170,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5214,14 +5209,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5236,14 +5231,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5258,14 +5253,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5280,14 +5275,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>106</v>
@@ -5302,14 +5297,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5324,36 +5319,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5368,14 +5363,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5393,41 +5388,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5535,7 +5530,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1451,9 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1451,9 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1451,9 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="323">
   <si>
     <t>operator</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>BGDK</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
+      <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1929,25 +1932,20 @@
         <v>3</v>
       </c>
       <c r="K7" s="19">
-        <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I11,0),1)</f>
-        <v>31</v>
-      </c>
-      <c r="L7" s="20" t="str">
-        <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C26,0),1)</f>
-        <v>VCDR</v>
-      </c>
-      <c r="M7" s="21" t="str">
-        <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F26,0),1)</f>
-        <v>.gz</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="16">
         <v>1</v>
@@ -1959,7 +1957,7 @@
         <v>61</v>
       </c>
       <c r="T7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="16">
         <v>0</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1454,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1957,7 +1957,7 @@
         <v>61</v>
       </c>
       <c r="T7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="16">
         <v>0</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="324">
   <si>
     <t>operator</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>BGDK</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1454,9 +1457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4048,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="323">
   <si>
     <t>operator</t>
   </si>
@@ -211,9 +211,6 @@
     <t>bantel</t>
   </si>
   <si>
-    <t>10.255.200.14</t>
-  </si>
-  <si>
     <t>banTel_ip</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
   </si>
   <si>
-    <t>Vault.GenbandDhk</t>
-  </si>
-  <si>
     <t>10.154.150.9</t>
   </si>
   <si>
@@ -992,6 +986,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>GAZI</t>
   </si>
 </sst>
 </file>
@@ -1457,9 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1651,8 +1648,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="19">
-        <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L3" s="20" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
@@ -1678,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1820,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1938,7 +1934,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -1982,20 +1978,20 @@
       <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="J8" s="16">
         <v>4</v>
@@ -2015,10 +2011,10 @@
         <v>27</v>
       </c>
       <c r="O8" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="16">
         <v>1</v>
@@ -2027,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T8" s="16">
         <v>1</v>
       </c>
       <c r="U8" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>62</v>
@@ -2053,19 +2049,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="J9" s="16">
         <v>4</v>
@@ -2098,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2112,7 +2108,7 @@
     </row>
     <row r="10" spans="1:22" ht="15">
       <c r="A10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="16">
         <v>6</v>
@@ -2124,19 +2120,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="J10" s="16">
         <v>6</v>
@@ -2168,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T10" s="16">
         <v>0</v>
@@ -2177,12 +2173,12 @@
         <v>0</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15">
       <c r="A11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="16">
         <v>6</v>
@@ -2194,19 +2190,19 @@
         <v>29</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="J11" s="16">
         <v>6</v>
@@ -2215,22 +2211,18 @@
         <f t="array" ref="K11">INDEX(Sheet2!$H$2:$I$21,MATCH(G11,Sheet2!$I$2:I15,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L11" s="20" t="str">
-        <f t="array" ref="L11">INDEX(Sheet2!$B$2:$C$21,MATCH(G11,Sheet2!$C$2:C30,0),1)</f>
-        <v>VCDR</v>
-      </c>
-      <c r="M11" s="21" t="str">
-        <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F30,0),1)</f>
-        <v>.gz</v>
-      </c>
+      <c r="L11" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="M11" s="21"/>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="16">
         <v>1</v>
@@ -2239,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="T11" s="16">
         <v>0</v>
@@ -2248,12 +2240,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="16">
         <v>6</v>
@@ -2265,19 +2257,19 @@
         <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="J12" s="16">
         <v>6</v>
@@ -2310,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2319,12 +2311,12 @@
         <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="16">
         <v>7</v>
@@ -2336,19 +2328,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13" s="16">
         <v>7</v>
@@ -2381,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T13" s="16">
         <v>0</v>
@@ -2390,12 +2382,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="16">
         <v>7</v>
@@ -2407,19 +2399,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J14" s="16">
         <v>7</v>
@@ -2452,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2461,12 +2453,12 @@
         <v>0</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="16">
         <v>8</v>
@@ -2478,19 +2470,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J15" s="16">
         <v>8</v>
@@ -2523,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2532,12 +2524,12 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -2549,19 +2541,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="J16" s="16">
         <v>8</v>
@@ -2571,7 +2563,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2593,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2602,12 +2594,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="16">
         <v>9</v>
@@ -2619,19 +2611,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J17" s="16">
         <v>9</v>
@@ -2663,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
@@ -2672,12 +2664,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="16">
         <v>9</v>
@@ -2689,19 +2681,19 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="J18" s="16">
         <v>9</v>
@@ -2734,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2743,12 +2735,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="16">
         <v>10</v>
@@ -2760,19 +2752,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J19" s="16">
         <v>10</v>
@@ -2805,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2814,12 +2806,12 @@
         <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="16">
         <v>10</v>
@@ -2831,19 +2823,19 @@
         <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="J20" s="16">
         <v>10</v>
@@ -2876,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2885,12 +2877,12 @@
         <v>1</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="16">
         <v>11</v>
@@ -2902,19 +2894,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J21" s="16">
         <v>11</v>
@@ -2947,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -2956,12 +2948,12 @@
         <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="16">
         <v>11</v>
@@ -2973,19 +2965,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J22" s="16">
         <v>11</v>
@@ -2994,7 +2986,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3016,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3025,12 +3017,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" s="27">
         <v>12</v>
@@ -3042,17 +3034,17 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J23" s="27">
         <v>12</v>
@@ -3085,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -3094,12 +3086,12 @@
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="16">
         <v>12</v>
@@ -3111,19 +3103,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3156,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3165,12 +3157,12 @@
         <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3182,19 +3174,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3227,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3236,12 +3228,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3253,19 +3245,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3275,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3297,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3306,12 +3298,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3323,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3368,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
@@ -3377,12 +3369,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3394,19 +3386,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3416,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3438,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3447,12 +3439,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3464,19 +3456,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3509,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3518,12 +3510,12 @@
         <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3535,19 +3527,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3557,7 +3549,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3579,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3588,12 +3580,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3605,19 +3597,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3658,12 +3650,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3675,19 +3667,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3720,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3729,12 +3721,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3746,19 +3738,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3791,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3800,12 +3792,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3817,19 +3809,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3871,12 +3863,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3888,19 +3880,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3910,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3941,12 +3933,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3958,19 +3950,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4003,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4012,12 +4004,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4029,19 +4021,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4051,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4073,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4082,12 +4074,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4099,19 +4091,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4144,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4153,12 +4145,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4170,19 +4162,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4215,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4224,12 +4216,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4241,19 +4233,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4286,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4295,12 +4287,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4312,19 +4304,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4357,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4366,12 +4358,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4383,19 +4375,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4428,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4437,12 +4429,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4454,19 +4446,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4499,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4508,12 +4500,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4525,19 +4517,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="I44" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4570,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4579,12 +4571,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4596,19 +4588,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4641,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4650,12 +4642,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4667,19 +4659,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4721,12 +4713,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4738,19 +4730,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4764,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
@@ -4791,12 +4783,12 @@
         <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4808,19 +4800,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4852,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4861,12 +4853,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4878,19 +4870,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4932,12 +4924,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4949,19 +4941,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4994,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5003,12 +4995,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5020,19 +5012,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5074,12 +5066,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5091,19 +5083,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5135,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5144,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5171,24 +5163,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5210,14 +5202,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5232,14 +5224,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5254,14 +5246,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5276,36 +5268,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5320,36 +5312,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5364,24 +5356,24 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
@@ -5389,41 +5381,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5531,7 +5523,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="324">
   <si>
     <t>operator</t>
   </si>
@@ -211,6 +211,9 @@
     <t>bantel</t>
   </si>
   <si>
+    <t>10.255.200.14</t>
+  </si>
+  <si>
     <t>banTel_ip</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
   </si>
   <si>
+    <t>Vault.GenbandDhk</t>
+  </si>
+  <si>
     <t>10.154.150.9</t>
   </si>
   <si>
@@ -985,10 +991,7 @@
     <t>BGDK</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>GAZI</t>
+    <t>vault.WTL</t>
   </si>
 </sst>
 </file>
@@ -1454,9 +1457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1648,7 +1651,8 @@
         <v>1</v>
       </c>
       <c r="K3" s="19">
-        <v>49</v>
+        <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
+        <v>31</v>
       </c>
       <c r="L3" s="20" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
@@ -1674,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1816,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1934,7 +1938,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -1978,20 +1982,20 @@
       <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
-        <v>0</v>
+      <c r="E8" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" s="16">
         <v>4</v>
@@ -2011,10 +2015,10 @@
         <v>27</v>
       </c>
       <c r="O8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="16">
         <v>1</v>
@@ -2023,13 +2027,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T8" s="16">
         <v>1</v>
       </c>
       <c r="U8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>62</v>
@@ -2049,19 +2053,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="16">
         <v>4</v>
@@ -2094,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2108,7 +2112,7 @@
     </row>
     <row r="10" spans="1:22" ht="15">
       <c r="A10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="16">
         <v>6</v>
@@ -2120,19 +2124,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" s="16">
         <v>6</v>
@@ -2164,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T10" s="16">
         <v>0</v>
@@ -2173,12 +2177,12 @@
         <v>0</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15">
       <c r="A11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="16">
         <v>6</v>
@@ -2190,19 +2194,19 @@
         <v>29</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="16">
         <v>6</v>
@@ -2211,18 +2215,22 @@
         <f t="array" ref="K11">INDEX(Sheet2!$H$2:$I$21,MATCH(G11,Sheet2!$I$2:I15,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="M11" s="21"/>
+      <c r="L11" s="20" t="str">
+        <f t="array" ref="L11">INDEX(Sheet2!$B$2:$C$21,MATCH(G11,Sheet2!$C$2:C30,0),1)</f>
+        <v>VCDR</v>
+      </c>
+      <c r="M11" s="21" t="str">
+        <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F30,0),1)</f>
+        <v>.gz</v>
+      </c>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="16">
         <v>1</v>
@@ -2231,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="T11" s="16">
         <v>0</v>
@@ -2240,12 +2248,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="16">
         <v>6</v>
@@ -2257,19 +2265,19 @@
         <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J12" s="16">
         <v>6</v>
@@ -2302,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2311,12 +2319,12 @@
         <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B13" s="16">
         <v>7</v>
@@ -2328,19 +2336,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J13" s="16">
         <v>7</v>
@@ -2373,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T13" s="16">
         <v>0</v>
@@ -2382,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="16">
         <v>7</v>
@@ -2399,19 +2407,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J14" s="16">
         <v>7</v>
@@ -2444,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2453,12 +2461,12 @@
         <v>0</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="16">
         <v>8</v>
@@ -2470,19 +2478,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J15" s="16">
         <v>8</v>
@@ -2515,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2524,12 +2532,12 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -2541,19 +2549,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J16" s="16">
         <v>8</v>
@@ -2563,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2585,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2594,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B17" s="16">
         <v>9</v>
@@ -2611,19 +2619,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J17" s="16">
         <v>9</v>
@@ -2655,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
@@ -2664,12 +2672,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" s="16">
         <v>9</v>
@@ -2681,19 +2689,19 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J18" s="16">
         <v>9</v>
@@ -2726,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2735,12 +2743,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="16">
         <v>10</v>
@@ -2752,19 +2760,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J19" s="16">
         <v>10</v>
@@ -2797,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2806,12 +2814,12 @@
         <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B20" s="16">
         <v>10</v>
@@ -2823,19 +2831,19 @@
         <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J20" s="16">
         <v>10</v>
@@ -2868,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2877,12 +2885,12 @@
         <v>1</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" s="16">
         <v>11</v>
@@ -2894,19 +2902,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J21" s="16">
         <v>11</v>
@@ -2939,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -2948,12 +2956,12 @@
         <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B22" s="16">
         <v>11</v>
@@ -2965,19 +2973,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J22" s="16">
         <v>11</v>
@@ -2986,7 +2994,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3008,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3017,12 +3025,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B23" s="27">
         <v>12</v>
@@ -3034,17 +3042,17 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J23" s="27">
         <v>12</v>
@@ -3077,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -3086,12 +3094,12 @@
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B24" s="16">
         <v>12</v>
@@ -3103,19 +3111,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3148,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3157,12 +3165,12 @@
         <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3174,19 +3182,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3219,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3228,12 +3236,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3245,19 +3253,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3267,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3289,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3298,12 +3306,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3315,19 +3323,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3360,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
@@ -3369,12 +3377,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3386,19 +3394,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3408,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3430,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3439,12 +3447,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3456,19 +3464,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3501,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3510,12 +3518,12 @@
         <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3527,19 +3535,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3549,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3571,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3580,12 +3588,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3597,19 +3605,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3650,12 +3658,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3667,19 +3675,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3712,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3721,12 +3729,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3738,19 +3746,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3783,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3792,12 +3800,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3809,19 +3817,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3863,12 +3871,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3880,19 +3888,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3902,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3933,12 +3941,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3950,19 +3958,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -3995,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4004,12 +4012,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4021,19 +4029,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4043,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4065,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4074,12 +4082,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4091,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4136,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4145,12 +4153,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4162,19 +4170,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4207,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4216,12 +4224,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4233,19 +4241,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4278,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4287,12 +4295,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4304,19 +4312,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4349,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4358,12 +4366,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4375,19 +4383,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4420,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4429,12 +4437,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4446,19 +4454,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4491,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4500,12 +4508,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4517,19 +4525,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4562,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4571,12 +4579,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4588,19 +4596,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4633,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4642,12 +4650,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4659,19 +4667,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4713,12 +4721,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4730,42 +4738,38 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
       </c>
       <c r="K47" s="19">
-        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I51,0),1)</f>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L47" s="20">
-        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C66,0),1)</f>
         <v>2</v>
       </c>
-      <c r="M47" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="M47" s="21"/>
       <c r="N47" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="16">
         <v>1</v>
@@ -4774,21 +4778,21 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
       </c>
       <c r="U47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4800,19 +4804,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4844,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4853,12 +4857,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4870,19 +4874,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4924,12 +4928,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4941,19 +4945,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4986,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -4995,12 +4999,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5012,19 +5016,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5066,12 +5070,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5083,19 +5087,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5127,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5163,24 +5167,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>288</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5202,14 +5206,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5224,14 +5228,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5246,14 +5250,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5268,36 +5272,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5312,36 +5316,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5356,24 +5360,24 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
@@ -5381,41 +5385,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5523,7 +5527,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="325">
   <si>
     <t>operator</t>
   </si>
@@ -550,9 +550,6 @@
     <t>h:\telcobright\vault\resources\cdr\ringTech\ip</t>
   </si>
   <si>
-    <t>ringTech_10.255.200.38_GNEW</t>
-  </si>
-  <si>
     <t>10.154.150.38</t>
   </si>
   <si>
@@ -992,6 +989,12 @@
   </si>
   <si>
     <t>vault.WTL</t>
+  </si>
+  <si>
+    <t>vault.GNEW</t>
+  </si>
+  <si>
+    <t>.cdr</t>
   </si>
 </sst>
 </file>
@@ -1458,8 +1461,8 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S47" sqref="S47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1678,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1820,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1938,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -2098,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2571,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2994,7 +2997,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3275,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3297,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3416,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3438,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3482,25 +3485,22 @@
         <v>17</v>
       </c>
       <c r="K29" s="19">
-        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I33,0),1)</f>
-        <v>39</v>
-      </c>
-      <c r="L29" s="20" t="str">
-        <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C48,0),1)</f>
-        <v>CDR</v>
-      </c>
-      <c r="M29" s="21" t="str">
-        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F48,0),1)</f>
-        <v>.csv</v>
+        <v>56</v>
+      </c>
+      <c r="L29" s="20">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="16">
         <v>1</v>
@@ -3509,13 +3509,13 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
       </c>
       <c r="U29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
         <v>170</v>
@@ -3535,19 +3535,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3557,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3567,10 +3567,10 @@
         <v>27</v>
       </c>
       <c r="O30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="16">
         <v>1</v>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3605,19 +3605,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3658,12 +3658,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3675,19 +3675,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3729,12 +3729,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3746,19 +3746,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3800,12 +3800,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3817,19 +3817,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3871,12 +3871,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3888,19 +3888,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3941,12 +3941,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3958,19 +3958,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4012,12 +4012,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4029,19 +4029,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4082,12 +4082,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4153,12 +4153,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4170,19 +4170,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4224,12 +4224,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4241,19 +4241,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4295,12 +4295,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4312,19 +4312,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4366,12 +4366,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4383,19 +4383,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4437,12 +4437,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4454,19 +4454,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4508,12 +4508,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4525,19 +4525,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4579,12 +4579,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4596,19 +4596,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4650,12 +4650,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4667,19 +4667,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4721,12 +4721,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4738,19 +4738,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="I47" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4787,12 +4787,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4804,19 +4804,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4857,12 +4857,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4874,19 +4874,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4928,12 +4928,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4945,19 +4945,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -4999,12 +4999,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5016,19 +5016,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>282</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5070,12 +5070,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5087,19 +5087,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5167,24 +5167,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5206,14 +5206,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5250,14 +5250,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5272,14 +5272,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>106</v>
@@ -5294,14 +5294,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5316,36 +5316,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5360,14 +5360,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>84</v>
@@ -5385,31 +5385,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>173</v>
@@ -5527,7 +5527,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="325">
   <si>
     <t>operator</t>
   </si>
@@ -265,9 +265,6 @@
     <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
   </si>
   <si>
-    <t>Vault.GenbandDhk</t>
-  </si>
-  <si>
     <t>10.154.150.9</t>
   </si>
   <si>
@@ -995,6 +992,9 @@
   </si>
   <si>
     <t>.cdr</t>
+  </si>
+  <si>
+    <t>GAZI</t>
   </si>
 </sst>
 </file>
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2215,25 +2215,20 @@
         <v>6</v>
       </c>
       <c r="K11" s="19">
-        <f t="array" ref="K11">INDEX(Sheet2!$H$2:$I$21,MATCH(G11,Sheet2!$I$2:I15,0),1)</f>
-        <v>31</v>
-      </c>
-      <c r="L11" s="20" t="str">
-        <f t="array" ref="L11">INDEX(Sheet2!$B$2:$C$21,MATCH(G11,Sheet2!$C$2:C30,0),1)</f>
-        <v>VCDR</v>
-      </c>
-      <c r="M11" s="21" t="str">
-        <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F30,0),1)</f>
-        <v>.gz</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="M11" s="21"/>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="16">
         <v>1</v>
@@ -2242,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="T11" s="16">
         <v>0</v>
@@ -2268,19 +2263,19 @@
         <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="J12" s="16">
         <v>6</v>
@@ -2313,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2327,7 +2322,7 @@
     </row>
     <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="16">
         <v>7</v>
@@ -2339,19 +2334,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="J13" s="16">
         <v>7</v>
@@ -2384,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T13" s="16">
         <v>0</v>
@@ -2393,12 +2388,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="16">
         <v>7</v>
@@ -2410,19 +2405,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="J14" s="16">
         <v>7</v>
@@ -2455,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2464,12 +2459,12 @@
         <v>0</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="16">
         <v>8</v>
@@ -2481,19 +2476,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J15" s="16">
         <v>8</v>
@@ -2526,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2535,12 +2530,12 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -2552,19 +2547,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="J16" s="16">
         <v>8</v>
@@ -2574,7 +2569,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2596,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2605,12 +2600,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="16">
         <v>9</v>
@@ -2622,19 +2617,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="J17" s="16">
         <v>9</v>
@@ -2666,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
@@ -2675,12 +2670,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="16">
         <v>9</v>
@@ -2692,19 +2687,19 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="J18" s="16">
         <v>9</v>
@@ -2737,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2746,12 +2741,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="16">
         <v>10</v>
@@ -2763,19 +2758,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="J19" s="16">
         <v>10</v>
@@ -2808,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2817,12 +2812,12 @@
         <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="16">
         <v>10</v>
@@ -2834,19 +2829,19 @@
         <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="J20" s="16">
         <v>10</v>
@@ -2879,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2888,12 +2883,12 @@
         <v>1</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="16">
         <v>11</v>
@@ -2905,19 +2900,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="J21" s="16">
         <v>11</v>
@@ -2950,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -2959,12 +2954,12 @@
         <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="16">
         <v>11</v>
@@ -2976,19 +2971,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="J22" s="16">
         <v>11</v>
@@ -2997,7 +2992,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3019,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3028,12 +3023,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="27">
         <v>12</v>
@@ -3045,17 +3040,17 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>143</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>144</v>
       </c>
       <c r="J23" s="27">
         <v>12</v>
@@ -3088,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -3097,12 +3092,12 @@
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="16">
         <v>12</v>
@@ -3114,19 +3109,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3159,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3168,12 +3163,12 @@
         <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3185,19 +3180,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3230,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3239,12 +3234,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3256,19 +3251,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3278,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3300,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3309,12 +3304,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3326,19 +3321,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3380,12 +3375,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3397,19 +3392,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3419,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3441,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3450,12 +3445,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3467,19 +3462,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3491,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
@@ -3509,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3518,12 +3513,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3535,19 +3530,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3557,7 +3552,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3579,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3588,12 +3583,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3605,19 +3600,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3658,12 +3653,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3675,19 +3670,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3720,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3729,12 +3724,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3746,19 +3741,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3791,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3800,12 +3795,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3817,19 +3812,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3871,12 +3866,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3888,19 +3883,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3910,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3941,12 +3936,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3958,19 +3953,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -4003,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4012,12 +4007,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4029,19 +4024,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4051,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4073,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4082,12 +4077,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4099,19 +4094,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4144,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4153,12 +4148,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4170,19 +4165,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4215,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4224,12 +4219,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4241,19 +4236,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4286,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4295,12 +4290,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4312,19 +4307,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4357,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4366,12 +4361,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4383,19 +4378,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="G42" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4428,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4437,12 +4432,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4454,19 +4449,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4499,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4508,12 +4503,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4525,19 +4520,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4570,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4579,12 +4574,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4596,19 +4591,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4641,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4650,12 +4645,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4667,19 +4662,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4721,12 +4716,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4738,19 +4733,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="I47" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4778,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4787,12 +4782,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4804,19 +4799,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4848,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4857,12 +4852,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4874,19 +4869,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4928,12 +4923,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4945,19 +4940,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="G50" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4990,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -4999,12 +4994,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5016,19 +5011,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5070,12 +5065,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5087,19 +5082,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5131,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5140,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5167,24 +5162,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>286</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>287</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5206,14 +5201,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5228,14 +5223,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5250,14 +5245,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5272,36 +5267,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5316,36 +5311,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5360,24 +5355,24 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
@@ -5385,41 +5380,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5527,7 +5522,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="325">
   <si>
     <t>operator</t>
   </si>
@@ -280,9 +280,6 @@
     <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm1</t>
   </si>
   <si>
-    <t>Vault.TelcobridgeDhk</t>
-  </si>
-  <si>
     <t>getco</t>
   </si>
   <si>
@@ -995,6 +992,9 @@
   </si>
   <si>
     <t>GAZI</t>
+  </si>
+  <si>
+    <t>GNL</t>
   </si>
 </sst>
 </file>
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2218,17 +2218,17 @@
         <v>70</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="16">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>72</v>
@@ -2281,12 +2281,10 @@
         <v>6</v>
       </c>
       <c r="K12" s="19">
-        <f t="array" ref="K12">INDEX(Sheet2!$H$2:$I$21,MATCH(G12,Sheet2!$I$2:I16,0),1)</f>
-        <v>37</v>
-      </c>
-      <c r="L12" s="20" t="str">
-        <f t="array" ref="L12">INDEX(Sheet2!$B$2:$C$21,MATCH(G12,Sheet2!$C$2:C31,0),1)</f>
-        <v>cdr</v>
+        <v>57</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>324</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F31,0),1)</f>
@@ -2296,10 +2294,10 @@
         <v>27</v>
       </c>
       <c r="O12" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="16">
         <v>1</v>
@@ -2308,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="16">
         <v>7</v>
@@ -2334,19 +2332,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="J13" s="16">
         <v>7</v>
@@ -2379,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T13" s="16">
         <v>0</v>
@@ -2388,12 +2386,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="16">
         <v>7</v>
@@ -2405,19 +2403,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="J14" s="16">
         <v>7</v>
@@ -2450,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2459,12 +2457,12 @@
         <v>0</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="16">
         <v>8</v>
@@ -2476,19 +2474,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="J15" s="16">
         <v>8</v>
@@ -2521,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2530,12 +2528,12 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -2547,19 +2545,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="J16" s="16">
         <v>8</v>
@@ -2569,7 +2567,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2591,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2600,12 +2598,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="16">
         <v>9</v>
@@ -2617,19 +2615,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="J17" s="16">
         <v>9</v>
@@ -2661,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
@@ -2670,12 +2668,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="16">
         <v>9</v>
@@ -2687,19 +2685,19 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="J18" s="16">
         <v>9</v>
@@ -2732,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2741,12 +2739,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="16">
         <v>10</v>
@@ -2758,19 +2756,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="J19" s="16">
         <v>10</v>
@@ -2803,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2812,12 +2810,12 @@
         <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="16">
         <v>10</v>
@@ -2829,19 +2827,19 @@
         <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="J20" s="16">
         <v>10</v>
@@ -2874,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2883,12 +2881,12 @@
         <v>1</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="16">
         <v>11</v>
@@ -2900,19 +2898,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="J21" s="16">
         <v>11</v>
@@ -2945,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -2954,12 +2952,12 @@
         <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="16">
         <v>11</v>
@@ -2971,19 +2969,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="J22" s="16">
         <v>11</v>
@@ -2992,7 +2990,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3014,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3023,12 +3021,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="27">
         <v>12</v>
@@ -3040,17 +3038,17 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>141</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="J23" s="27">
         <v>12</v>
@@ -3083,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -3092,12 +3090,12 @@
         <v>1</v>
       </c>
       <c r="V23" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15">
       <c r="A24" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="16">
         <v>12</v>
@@ -3109,19 +3107,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3154,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3163,12 +3161,12 @@
         <v>1</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3180,19 +3178,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3225,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3234,12 +3232,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3251,19 +3249,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3273,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3295,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3304,12 +3302,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3321,19 +3319,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3375,12 +3373,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3392,19 +3390,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3414,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3436,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3445,12 +3443,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3462,19 +3460,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3486,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
@@ -3504,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3513,12 +3511,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3530,19 +3528,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3552,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3574,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3583,12 +3581,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3600,19 +3598,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3653,12 +3651,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3670,19 +3668,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3715,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3724,12 +3722,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3741,19 +3739,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3786,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3795,12 +3793,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3812,19 +3810,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3866,12 +3864,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3883,19 +3881,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3905,7 +3903,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3936,12 +3934,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3953,19 +3951,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -3998,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4007,12 +4005,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4024,19 +4022,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4046,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4068,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4077,12 +4075,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4094,19 +4092,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4139,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4148,12 +4146,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4165,19 +4163,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4210,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4219,12 +4217,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4236,19 +4234,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4281,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4290,12 +4288,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4307,19 +4305,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4352,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4361,12 +4359,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4378,19 +4376,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4423,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4432,12 +4430,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4449,19 +4447,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4494,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4503,12 +4501,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4520,19 +4518,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4565,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4574,12 +4572,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4591,19 +4589,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4636,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4645,12 +4643,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4662,19 +4660,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4716,12 +4714,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4733,19 +4731,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="I47" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4773,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4782,12 +4780,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4799,19 +4797,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4843,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4852,12 +4850,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4869,19 +4867,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4923,12 +4921,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4940,19 +4938,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="G50" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4985,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -4994,12 +4992,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5011,19 +5009,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5065,12 +5063,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5082,19 +5080,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>282</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5126,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5135,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5162,24 +5160,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5201,14 +5199,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5223,14 +5221,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5245,14 +5243,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5267,36 +5265,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5311,36 +5309,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5355,14 +5353,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>83</v>
@@ -5380,41 +5378,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5522,7 +5520,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="326">
   <si>
     <t>operator</t>
   </si>
@@ -457,18 +457,12 @@
     <t>x.x.x.x</t>
   </si>
   <si>
-    <t>btcl_tdm</t>
-  </si>
-  <si>
     <t>&amp;AH3G@284kOx</t>
   </si>
   <si>
     <t>g:\telcobright\vault\resources\cdr\btcl\tdm</t>
   </si>
   <si>
-    <t>btcl_x.x.x.x_HUWAEI</t>
-  </si>
-  <si>
     <t>paradise</t>
   </si>
   <si>
@@ -995,6 +989,15 @@
   </si>
   <si>
     <t>GNL</t>
+  </si>
+  <si>
+    <t>btcl_Mohakhali</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Vault.Mohakhali</t>
   </si>
 </sst>
 </file>
@@ -1460,9 +1463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1681,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1823,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1941,7 +1944,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -2101,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2218,7 +2221,7 @@
         <v>70</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="15" t="s">
@@ -2284,7 +2287,7 @@
         <v>57</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F31,0),1)</f>
@@ -2306,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2567,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2990,7 +2993,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3012,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3110,16 +3113,16 @@
         <v>144</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
@@ -3128,9 +3131,8 @@
         <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I28,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L24" s="20" t="str">
-        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C43,0),1)</f>
-        <v>b</v>
+      <c r="L24" s="20" t="s">
+        <v>324</v>
       </c>
       <c r="M24" s="21" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F43,0),1)</f>
@@ -3140,10 +3142,10 @@
         <v>27</v>
       </c>
       <c r="O24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="16">
         <v>1</v>
@@ -3152,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
       </c>
       <c r="U24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="15" t="s">
         <v>138</v>
@@ -3166,7 +3168,7 @@
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3178,19 +3180,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3223,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3232,12 +3234,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3249,19 +3251,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3271,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3293,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3302,12 +3304,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3319,19 +3321,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3373,12 +3375,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3390,19 +3392,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3412,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3434,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3443,12 +3445,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3460,19 +3462,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
@@ -3502,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3511,12 +3513,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3528,19 +3530,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3550,7 +3552,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3572,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3581,12 +3583,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3598,19 +3600,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3651,12 +3653,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3668,19 +3670,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3713,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3722,12 +3724,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3739,19 +3741,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3784,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3793,12 +3795,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3810,19 +3812,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3864,12 +3866,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3881,19 +3883,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3903,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3934,12 +3936,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3951,19 +3953,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -3996,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4005,12 +4007,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4022,19 +4024,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4044,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4066,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4075,12 +4077,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4092,19 +4094,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4137,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4146,12 +4148,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4163,19 +4165,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4208,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4217,12 +4219,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4234,19 +4236,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4279,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4288,12 +4290,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4305,19 +4307,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4350,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4359,12 +4361,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4376,19 +4378,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4421,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4430,12 +4432,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4447,19 +4449,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4501,12 +4503,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4518,19 +4520,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="I44" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4563,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4572,12 +4574,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4589,19 +4591,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4634,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4643,12 +4645,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4660,19 +4662,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4714,12 +4716,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4731,19 +4733,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>316</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4771,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4780,12 +4782,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4797,19 +4799,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4841,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4850,12 +4852,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4867,19 +4869,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4921,12 +4923,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4938,19 +4940,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4983,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -4992,12 +4994,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5009,19 +5011,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5063,12 +5065,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5080,19 +5082,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5124,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5133,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5160,24 +5162,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5199,14 +5201,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5221,14 +5223,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5243,14 +5245,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5265,14 +5267,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>104</v>
@@ -5287,14 +5289,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5309,36 +5311,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5353,14 +5355,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>83</v>
@@ -5378,41 +5380,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5520,7 +5522,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -454,15 +454,9 @@
     <t>btcl_10.255.200.26_</t>
   </si>
   <si>
-    <t>x.x.x.x</t>
-  </si>
-  <si>
     <t>&amp;AH3G@284kOx</t>
   </si>
   <si>
-    <t>g:\telcobright\vault\resources\cdr\btcl\tdm</t>
-  </si>
-  <si>
     <t>paradise</t>
   </si>
   <si>
@@ -998,13 +992,19 @@
   </si>
   <si>
     <t>Vault.Mohakhali</t>
+  </si>
+  <si>
+    <t>10.154.150.26</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\btcl\tdm\Mohakhali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1077,6 +1077,18 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1158,7 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1241,6 +1253,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1463,9 +1477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1684,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1826,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1944,7 +1958,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -2104,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2221,7 +2235,7 @@
         <v>70</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="15" t="s">
@@ -2287,7 +2301,7 @@
         <v>57</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F31,0),1)</f>
@@ -2309,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2570,7 +2584,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -2993,7 +3007,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3015,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3109,30 +3123,29 @@
       <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>144</v>
+      <c r="E24" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>325</v>
       </c>
       <c r="J24" s="16">
         <v>12</v>
       </c>
       <c r="K24" s="19">
-        <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I28,0),1)</f>
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M24" s="21" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F43,0),1)</f>
@@ -3154,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3168,7 +3181,7 @@
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="16">
         <v>15</v>
@@ -3180,19 +3193,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J25" s="16">
         <v>15</v>
@@ -3225,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3234,12 +3247,12 @@
         <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="16">
         <v>15</v>
@@ -3251,19 +3264,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
@@ -3273,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M26" s="21" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
@@ -3295,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3304,12 +3317,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="16">
         <v>16</v>
@@ -3321,19 +3334,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J27" s="16">
         <v>16</v>
@@ -3375,12 +3388,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="16">
         <v>16</v>
@@ -3392,19 +3405,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
@@ -3414,7 +3427,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
@@ -3436,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3445,12 +3458,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -3462,19 +3475,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="J29" s="16">
         <v>17</v>
@@ -3486,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
@@ -3504,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3513,12 +3526,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -3530,19 +3543,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
@@ -3552,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M30" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
@@ -3574,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3583,12 +3596,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="16">
         <v>18</v>
@@ -3600,19 +3613,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J31" s="16">
         <v>18</v>
@@ -3653,12 +3666,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" s="16">
         <v>18</v>
@@ -3670,19 +3683,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
@@ -3715,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3724,12 +3737,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="16">
         <v>18</v>
@@ -3741,19 +3754,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
@@ -3786,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3795,12 +3808,12 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B34" s="16">
         <v>19</v>
@@ -3812,19 +3825,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J34" s="16">
         <v>19</v>
@@ -3866,12 +3879,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B35" s="16">
         <v>19</v>
@@ -3883,19 +3896,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
@@ -3905,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
@@ -3936,12 +3949,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B36" s="16">
         <v>20</v>
@@ -3953,19 +3966,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J36" s="16">
         <v>20</v>
@@ -3998,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4007,12 +4020,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" s="16">
         <v>20</v>
@@ -4024,19 +4037,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
@@ -4046,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
@@ -4068,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4077,12 +4090,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B38" s="16">
         <v>21</v>
@@ -4094,19 +4107,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J38" s="16">
         <v>21</v>
@@ -4139,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4148,12 +4161,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B39" s="16">
         <v>21</v>
@@ -4165,19 +4178,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
@@ -4210,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4219,12 +4232,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B40" s="16">
         <v>22</v>
@@ -4236,19 +4249,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J40" s="16">
         <v>22</v>
@@ -4281,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4290,12 +4303,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B41" s="16">
         <v>22</v>
@@ -4307,19 +4320,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
@@ -4352,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4361,12 +4374,12 @@
         <v>1</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B42" s="16">
         <v>22</v>
@@ -4378,19 +4391,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
@@ -4423,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4432,12 +4445,12 @@
         <v>1</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B43" s="16">
         <v>23</v>
@@ -4449,19 +4462,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J43" s="16">
         <v>23</v>
@@ -4503,12 +4516,12 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B44" s="16">
         <v>23</v>
@@ -4520,19 +4533,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="I44" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
@@ -4565,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4574,12 +4587,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B45" s="16">
         <v>24</v>
@@ -4591,19 +4604,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J45" s="16">
         <v>24</v>
@@ -4636,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T45" s="16">
         <v>1</v>
@@ -4645,12 +4658,12 @@
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B46" s="16">
         <v>24</v>
@@ -4662,19 +4675,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
@@ -4716,12 +4729,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B47" s="16">
         <v>25</v>
@@ -4733,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>314</v>
       </c>
       <c r="J47" s="16">
         <v>25</v>
@@ -4773,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4782,12 +4795,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4799,19 +4812,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4843,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4852,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B49" s="16">
         <v>26</v>
@@ -4869,19 +4882,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J49" s="16">
         <v>26</v>
@@ -4923,12 +4936,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4940,19 +4953,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -4985,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -4994,12 +5007,12 @@
         <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B51" s="16">
         <v>27</v>
@@ -5011,19 +5024,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J51" s="16">
         <v>27</v>
@@ -5065,12 +5078,12 @@
         <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5082,19 +5095,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5126,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5135,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5162,24 +5175,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5201,14 +5214,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5223,14 +5236,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5245,14 +5258,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5267,14 +5280,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>104</v>
@@ -5289,14 +5302,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5311,36 +5324,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5355,14 +5368,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>83</v>
@@ -5380,41 +5393,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5521,27 +5534,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="C25" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="331">
   <si>
     <t>operator</t>
   </si>
@@ -998,6 +998,21 @@
   </si>
   <si>
     <t>g:\telcobright\vault\resources\cdr\btcl\tdm\Mohakhali</t>
+  </si>
+  <si>
+    <t>btcl_SheraBangla</t>
+  </si>
+  <si>
+    <t>asdfasadf</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\btcl\tdm\SBN</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vault.SBN</t>
   </si>
 </sst>
 </file>
@@ -1475,11 +1490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1489,6 +1504,7 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
@@ -3049,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>4</v>
@@ -3110,48 +3126,46 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
+      <c r="A24" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="27">
         <v>12</v>
       </c>
-      <c r="C24" s="16">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="27">
+        <v>2</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>324</v>
-      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="15" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>144</v>
+      <c r="H24" s="26" t="s">
+        <v>327</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="J24" s="16">
+        <v>328</v>
+      </c>
+      <c r="J24" s="27">
         <v>12</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="29">
         <v>68</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>322</v>
+      <c r="L24" s="30" t="s">
+        <v>329</v>
       </c>
       <c r="M24" s="21" t="str">
-        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F43,0),1)</f>
+        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="26" t="s">
         <v>27</v>
       </c>
       <c r="O24" s="16">
@@ -3160,76 +3174,74 @@
       <c r="P24" s="16">
         <v>0</v>
       </c>
-      <c r="Q24" s="16">
-        <v>1</v>
-      </c>
-      <c r="R24" s="16">
+      <c r="Q24" s="27">
+        <v>1</v>
+      </c>
+      <c r="R24" s="27">
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="T24" s="16">
+        <v>330</v>
+      </c>
+      <c r="T24" s="27">
         <v>0</v>
       </c>
       <c r="U24" s="16">
         <v>0</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B25" s="16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>146</v>
+        <v>29</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>325</v>
       </c>
       <c r="J25" s="16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K25" s="19">
-        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I29,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L25" s="20" t="str">
-        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C44,0),1)</f>
-        <v>esdr</v>
+        <v>68</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F44,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F43,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="16">
         <v>1</v>
@@ -3238,16 +3250,16 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
       </c>
       <c r="U25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
@@ -3258,48 +3270,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J26" s="16">
         <v>15</v>
       </c>
       <c r="K26" s="19">
-        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I30,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>314</v>
+        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I29,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L26" s="20" t="str">
+        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C44,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F45,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F44,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="16">
         <v>1</v>
@@ -3308,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
       </c>
       <c r="U26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
         <v>145</v>
@@ -3322,55 +3335,54 @@
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B27" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="16">
+        <v>15</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="16">
-        <v>16</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I31,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L27" s="20" t="str">
-        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C46,0),1)</f>
-        <v>esdr</v>
+      <c r="L27" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="M27" s="21" t="str">
-        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F46,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F45,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="16">
         <v>1</v>
@@ -3379,16 +3391,16 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
       </c>
       <c r="U27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
@@ -3399,48 +3411,49 @@
         <v>16</v>
       </c>
       <c r="C28" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J28" s="16">
         <v>16</v>
       </c>
       <c r="K28" s="19">
-        <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I32,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>308</v>
+        <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I31,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="20" t="str">
+        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C46,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M28" s="21" t="str">
-        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F47,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F46,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="16">
         <v>1</v>
@@ -3449,13 +3462,13 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
       </c>
       <c r="U28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="15" t="s">
         <v>155</v>
@@ -3463,43 +3476,45 @@
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B29" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="16">
         <v>2</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J29" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="19">
-        <v>56</v>
-      </c>
-      <c r="L29" s="20">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>318</v>
+        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I32,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="M29" s="21" t="str">
+        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F47,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
@@ -3517,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3526,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
@@ -3537,48 +3552,46 @@
         <v>17</v>
       </c>
       <c r="C30" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J30" s="16">
         <v>17</v>
       </c>
       <c r="K30" s="19">
-        <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I34,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="M30" s="21" t="str">
-        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F49,0),1)</f>
-        <v>.DAT</v>
+        <v>56</v>
+      </c>
+      <c r="L30" s="20">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="16">
         <v>1</v>
@@ -3587,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3601,54 +3614,54 @@
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B31" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J31" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="19">
-        <v>40</v>
-      </c>
-      <c r="L31" s="20" t="str">
-        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C50,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I34,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="M31" s="21" t="str">
-        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F50,0),1)</f>
-        <v>.txt</v>
+        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F49,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O31" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="16">
         <v>1</v>
@@ -3657,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3666,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
@@ -3677,49 +3690,48 @@
         <v>18</v>
       </c>
       <c r="C32" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J32" s="16">
         <v>18</v>
       </c>
       <c r="K32" s="19">
-        <f t="array" ref="K32">INDEX(Sheet2!$H$2:$I$21,MATCH(G32,Sheet2!$I$2:I36,0),1)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L32" s="20" t="str">
-        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C51,0),1)</f>
-        <v>VCDR</v>
+        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C50,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F51,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F50,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O32" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="16">
         <v>1</v>
@@ -3728,13 +3740,13 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
       </c>
       <c r="U32" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="15" t="s">
         <v>174</v>
@@ -3748,40 +3760,40 @@
         <v>18</v>
       </c>
       <c r="C33" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J33" s="16">
         <v>18</v>
       </c>
       <c r="K33" s="19">
-        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I37,0),1)</f>
-        <v>37</v>
+        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I36,0),1)</f>
+        <v>31</v>
       </c>
       <c r="L33" s="20" t="str">
-        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C52,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C51,0),1)</f>
+        <v>VCDR</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F52,0),1)</f>
-        <v>.log</v>
+        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F51,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>27</v>
@@ -3799,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3813,46 +3825,46 @@
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B34" s="16">
-        <v>19</v>
-      </c>
-      <c r="C34" s="25">
         <v>18</v>
       </c>
+      <c r="C34" s="16">
+        <v>2</v>
+      </c>
       <c r="D34" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J34" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="19">
-        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I38,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I37,0),1)</f>
+        <v>37</v>
       </c>
       <c r="L34" s="20" t="str">
-        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C53,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C52,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M34" s="21" t="str">
-        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F53,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F52,0),1)</f>
+        <v>.log</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>27</v>
@@ -3870,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="T34" s="16">
         <v>0</v>
@@ -3879,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
@@ -3890,48 +3902,49 @@
         <v>19</v>
       </c>
       <c r="C35" s="25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J35" s="16">
         <v>19</v>
       </c>
       <c r="K35" s="19">
-        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I39,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>298</v>
+        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I38,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L35" s="20" t="str">
+        <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C53,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M35" s="21" t="str">
-        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F54,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F53,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="16">
         <v>1</v>
@@ -3940,13 +3953,13 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
       </c>
       <c r="U35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="15" t="s">
         <v>189</v>
@@ -3954,55 +3967,54 @@
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B36" s="16">
-        <v>20</v>
-      </c>
-      <c r="C36" s="16">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="25">
+        <v>8</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J36" s="16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K36" s="19">
-        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I40,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L36" s="20" t="str">
-        <f t="array" ref="L36">INDEX(Sheet2!$B$2:$C$21,MATCH(G36,Sheet2!$C$2:C55,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I39,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F55,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F54,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="16">
         <v>1</v>
@@ -4011,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
       </c>
       <c r="U36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
@@ -4031,48 +4043,49 @@
         <v>20</v>
       </c>
       <c r="C37" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J37" s="16">
         <v>20</v>
       </c>
       <c r="K37" s="19">
-        <f t="array" ref="K37">INDEX(Sheet2!$H$2:$I$21,MATCH(G37,Sheet2!$I$2:I41,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>290</v>
+        <f t="array" ref="K37">INDEX(Sheet2!$H$2:$I$21,MATCH(G37,Sheet2!$I$2:I40,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L37" s="20" t="str">
+        <f t="array" ref="L37">INDEX(Sheet2!$B$2:$C$21,MATCH(G37,Sheet2!$C$2:C55,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M37" s="21" t="str">
-        <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F56,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F55,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="16">
         <v>1</v>
@@ -4081,13 +4094,13 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
       </c>
       <c r="U37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="15" t="s">
         <v>198</v>
@@ -4095,55 +4108,54 @@
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B38" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J38" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="19">
-        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I42,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L38" s="20" t="str">
-        <f t="array" ref="L38">INDEX(Sheet2!$B$2:$C$21,MATCH(G38,Sheet2!$C$2:C57,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I41,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="M38" s="21" t="str">
-        <f t="array" ref="M38">INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F57,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M38">INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F56,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="16">
         <v>1</v>
@@ -4152,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4161,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
@@ -4172,49 +4184,49 @@
         <v>21</v>
       </c>
       <c r="C39" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J39" s="16">
         <v>21</v>
       </c>
       <c r="K39" s="19">
-        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I43,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I42,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L39" s="20" t="str">
-        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C58,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C57,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F58,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F57,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="16">
         <v>1</v>
@@ -4223,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4237,55 +4249,55 @@
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B40" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="16">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="16">
+        <v>21</v>
+      </c>
+      <c r="K40" s="19">
+        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="J40" s="16">
-        <v>22</v>
-      </c>
-      <c r="K40" s="19">
-        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I44,0),1)</f>
-        <v>25</v>
-      </c>
       <c r="L40" s="20" t="str">
-        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C59,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C58,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M40" s="21" t="str">
-        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F59,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F58,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="16">
         <v>1</v>
@@ -4294,16 +4306,16 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
       </c>
       <c r="U40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
@@ -4314,40 +4326,40 @@
         <v>22</v>
       </c>
       <c r="C41" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J41" s="16">
         <v>22</v>
       </c>
       <c r="K41" s="19">
-        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I45,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I44,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L41" s="20" t="str">
-        <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C60,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C59,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M41" s="21" t="str">
-        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F60,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F59,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>27</v>
@@ -4365,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4385,42 +4397,42 @@
         <v>22</v>
       </c>
       <c r="C42" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J42" s="16">
         <v>22</v>
       </c>
       <c r="K42" s="19">
-        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I46,0),1)</f>
-        <v>37</v>
+        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I45,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L42" s="20" t="str">
-        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C61,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C60,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F61,0),1)</f>
-        <v>.log</v>
-      </c>
-      <c r="N42" s="18" t="s">
+        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F60,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N42" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O42" s="16">
@@ -4436,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4450,48 +4462,48 @@
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B43" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="16">
         <v>2</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J43" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43" s="19">
-        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I47,0),1)</f>
-        <v>28</v>
+        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I46,0),1)</f>
+        <v>37</v>
       </c>
       <c r="L43" s="20" t="str">
-        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C62,0),1)</f>
+        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C61,0),1)</f>
         <v>cdr</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F62,0),1)</f>
-        <v>.csv</v>
-      </c>
-      <c r="N43" s="15" t="s">
+        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F61,0),1)</f>
+        <v>.log</v>
+      </c>
+      <c r="N43" s="18" t="s">
         <v>27</v>
       </c>
       <c r="O43" s="16">
@@ -4507,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4516,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
@@ -4527,40 +4539,40 @@
         <v>23</v>
       </c>
       <c r="C44" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J44" s="16">
         <v>23</v>
       </c>
       <c r="K44" s="19">
-        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I48,0),1)</f>
-        <v>36</v>
+        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I47,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L44" s="20" t="str">
-        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C63,0),1)</f>
-        <v>CF</v>
+        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C62,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M44" s="21" t="str">
-        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F63,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F62,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>27</v>
@@ -4578,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
@@ -4592,46 +4604,46 @@
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B45" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J45" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" s="19">
-        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
+        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I48,0),1)</f>
+        <v>36</v>
       </c>
       <c r="L45" s="20" t="str">
-        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
+        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C63,0),1)</f>
+        <v>CF</v>
       </c>
       <c r="M45" s="21" t="str">
-        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F63,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N45" s="15" t="s">
         <v>27</v>
@@ -4649,16 +4661,16 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="T45" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="16">
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
@@ -4669,40 +4681,40 @@
         <v>24</v>
       </c>
       <c r="C46" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J46" s="16">
         <v>24</v>
       </c>
       <c r="K46" s="19">
-        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I50,0),1)</f>
-        <v>36</v>
+        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I49,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L46" s="20" t="str">
-        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C65,0),1)</f>
-        <v>CF</v>
+        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C64,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M46" s="21" t="str">
-        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F65,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F64,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>27</v>
@@ -4720,10 +4732,10 @@
         <v>1</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="T46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="16">
         <v>1</v>
@@ -4734,50 +4746,55 @@
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B47" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="J47" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K47" s="19">
-        <v>55</v>
-      </c>
-      <c r="L47" s="20">
-        <v>2</v>
-      </c>
-      <c r="M47" s="21"/>
+        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I50,0),1)</f>
+        <v>36</v>
+      </c>
+      <c r="L47" s="20" t="str">
+        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C65,0),1)</f>
+        <v>CF</v>
+      </c>
+      <c r="M47" s="21" t="str">
+        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F65,0),1)</f>
+        <v>.DAT</v>
+      </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="16">
         <v>1</v>
@@ -4786,16 +4803,16 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
       </c>
       <c r="U47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
@@ -4806,40 +4823,36 @@
         <v>25</v>
       </c>
       <c r="C48" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
       </c>
       <c r="K48" s="19">
-        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I52,0),1)</f>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="L48" s="20">
         <v>2</v>
       </c>
-      <c r="M48" s="21" t="str">
-        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F67,0),1)</f>
-        <v>.dat</v>
-      </c>
+      <c r="M48" s="21"/>
       <c r="N48" s="15" t="s">
         <v>27</v>
       </c>
@@ -4856,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4870,55 +4883,54 @@
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="B49" s="16">
-        <v>26</v>
-      </c>
-      <c r="C49" s="25">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="J49" s="16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K49" s="19">
-        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I53,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L49" s="20" t="str">
-        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C68,0),1)</f>
-        <v>sdr</v>
+        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I52,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L49" s="20">
+        <v>2</v>
       </c>
       <c r="M49" s="21" t="str">
-        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F68,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F67,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N49" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="16">
         <v>1</v>
@@ -4927,16 +4939,16 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>43</v>
+        <v>302</v>
       </c>
       <c r="T49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
@@ -4947,49 +4959,49 @@
         <v>26</v>
       </c>
       <c r="C50" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
       </c>
       <c r="K50" s="19">
-        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I54,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I53,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L50" s="20" t="str">
-        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C69,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C68,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M50" s="21" t="str">
-        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F69,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F68,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="16">
         <v>1</v>
@@ -4998,13 +5010,13 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="T50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="15" t="s">
         <v>262</v>
@@ -5012,55 +5024,55 @@
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B51" s="16">
-        <v>27</v>
-      </c>
-      <c r="C51" s="16">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C51" s="25">
+        <v>9</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J51" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51" s="19">
-        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I55,0),1)</f>
-        <v>28</v>
+        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I54,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L51" s="20" t="str">
-        <f t="array" ref="L51">INDEX(Sheet2!$B$2:$C$21,MATCH(G51,Sheet2!$C$2:C70,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L51">INDEX(Sheet2!$B$2:$C$21,MATCH(G51,Sheet2!$C$2:C69,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M51" s="21" t="str">
-        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F70,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F69,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N51" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O51" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="16">
         <v>1</v>
@@ -5069,16 +5081,16 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
       </c>
       <c r="U51" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
@@ -5089,65 +5101,136 @@
         <v>27</v>
       </c>
       <c r="C52" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
       </c>
       <c r="K52" s="19">
-        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I56,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L52" s="33">
-        <v>2</v>
+        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I55,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L52" s="20" t="str">
+        <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C70,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M52" s="21" t="str">
-        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F71,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F70,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="16">
         <v>1</v>
       </c>
       <c r="R52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" s="16">
+        <v>0</v>
+      </c>
+      <c r="U52" s="16">
+        <v>1</v>
+      </c>
+      <c r="V52" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15">
+      <c r="A53" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="16">
+        <v>27</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="J53" s="16">
+        <v>27</v>
+      </c>
+      <c r="K53" s="19">
+        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I56,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L53" s="33">
+        <v>2</v>
+      </c>
+      <c r="M53" s="21" t="str">
+        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F71,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="16">
+        <v>0</v>
+      </c>
+      <c r="P53" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>1</v>
+      </c>
+      <c r="R53" s="16">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="T52" s="16">
-        <v>0</v>
-      </c>
-      <c r="U52" s="16">
-        <v>0</v>
-      </c>
-      <c r="V52" s="15" t="s">
+      <c r="T53" s="16">
+        <v>0</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15" t="s">
         <v>271</v>
       </c>
     </row>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1492,9 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3020,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="19">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>306</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sftproot\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="332">
   <si>
     <t>operator</t>
   </si>
@@ -784,9 +784,6 @@
     <t>b07G7uf$Rt24</t>
   </si>
   <si>
-    <t>j:\telcobright\vault\resources\cdr\mothertelecom\tdm</t>
-  </si>
-  <si>
     <t>telePlusNetwork</t>
   </si>
   <si>
@@ -1013,6 +1010,12 @@
   </si>
   <si>
     <t>Vault.SBN</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\mothertelecom\tdm</t>
+  </si>
+  <si>
+    <t>vault.Nokia</t>
   </si>
 </sst>
 </file>
@@ -1492,9 +1495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1714,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1856,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1974,7 +1977,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="15" t="s">
@@ -2134,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2251,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="15" t="s">
@@ -2317,7 +2320,7 @@
         <v>57</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F31,0),1)</f>
@@ -2600,7 +2603,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
@@ -3023,7 +3026,7 @@
         <v>68</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M22" s="21" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
@@ -3045,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3141,16 +3144,16 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="35" t="s">
         <v>327</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>328</v>
       </c>
       <c r="J24" s="27">
         <v>12</v>
@@ -3159,7 +3162,7 @@
         <v>68</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M24" s="21" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F42,0),1)</f>
@@ -3181,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T24" s="27">
         <v>0</v>
@@ -3207,10 +3210,10 @@
         <v>29</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>46</v>
@@ -3219,7 +3222,7 @@
         <v>144</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J25" s="16">
         <v>12</v>
@@ -3228,7 +3231,7 @@
         <v>68</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M25" s="21" t="str">
         <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F43,0),1)</f>
@@ -3250,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3369,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M27" s="21" t="str">
         <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F45,0),1)</f>
@@ -3391,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
@@ -3510,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M29" s="21" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F47,0),1)</f>
@@ -3532,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3582,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>27</v>
@@ -3600,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3648,7 +3651,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M31" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F49,0),1)</f>
@@ -3670,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -4001,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M36" s="21" t="str">
         <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F54,0),1)</f>
@@ -4142,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M38" s="21" t="str">
         <f t="array" ref="M38">INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F56,0),1)</f>
@@ -4164,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4306,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4770,18 +4773,16 @@
         <v>253</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="J47" s="16">
         <v>24</v>
       </c>
       <c r="K47" s="19">
-        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I50,0),1)</f>
-        <v>36</v>
-      </c>
-      <c r="L47" s="20" t="str">
-        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C65,0),1)</f>
-        <v>CF</v>
+        <v>74</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="M47" s="21" t="str">
         <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F65,0),1)</f>
@@ -4791,10 +4792,10 @@
         <v>27</v>
       </c>
       <c r="O47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="16">
         <v>1</v>
@@ -4803,13 +4804,13 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
       </c>
       <c r="U47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
         <v>245</v>
@@ -4817,7 +4818,7 @@
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" s="16">
         <v>25</v>
@@ -4829,19 +4830,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G48" s="17" t="s">
+      <c r="H48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>258</v>
-      </c>
       <c r="I48" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J48" s="16">
         <v>25</v>
@@ -4869,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4878,12 +4879,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B49" s="16">
         <v>25</v>
@@ -4895,19 +4896,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J49" s="16">
         <v>25</v>
@@ -4939,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -4948,12 +4949,12 @@
         <v>0</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B50" s="16">
         <v>26</v>
@@ -4965,19 +4966,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="J50" s="16">
         <v>26</v>
@@ -5019,12 +5020,12 @@
         <v>1</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="16">
         <v>26</v>
@@ -5036,19 +5037,19 @@
         <v>29</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="J51" s="16">
         <v>26</v>
@@ -5081,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5090,12 +5091,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5107,19 +5108,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5161,12 +5162,12 @@
         <v>1</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5178,19 +5179,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5222,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
@@ -5231,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5258,24 +5259,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>280</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>281</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5297,14 +5298,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5319,14 +5320,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5341,14 +5342,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5363,14 +5364,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>104</v>
@@ -5385,14 +5386,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5407,14 +5408,14 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>241</v>
@@ -5429,14 +5430,14 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5451,14 +5452,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>83</v>
@@ -5476,31 +5477,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>167</v>
@@ -5618,7 +5619,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -190,9 +190,6 @@
     <t>d:\telcobright\vault\resources\cdr\bangla\ip</t>
   </si>
   <si>
-    <t>banglaicx_10.255.200.13_CATALEYA</t>
-  </si>
-  <si>
     <t>10.154.150.13</t>
   </si>
   <si>
@@ -1016,6 +1013,9 @@
   </si>
   <si>
     <t>vault.Nokia</t>
+  </si>
+  <si>
+    <t>Vault.Cataleya</t>
   </si>
 </sst>
 </file>
@@ -1496,8 +1496,8 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1731,55 +1731,54 @@
     </row>
     <row r="4" spans="1:22" ht="15">
       <c r="A4" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B4" s="16">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
         <v>2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J4" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="19">
-        <f t="array" ref="K4">INDEX(Sheet2!$H$2:$I$21,MATCH(G4,Sheet2!$I$2:I8,0),1)</f>
+        <v>690</v>
+      </c>
+      <c r="L4" s="20" t="str">
+        <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C25,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M4" s="21" t="str">
+        <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F25,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="20" t="str">
-        <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C23,0),1)</f>
-        <v>sdr</v>
-      </c>
-      <c r="M4" s="21" t="str">
-        <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F23,0),1)</f>
-        <v>.gz</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="O4" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16">
         <v>1</v>
@@ -1788,61 +1787,56 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="T4" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16">
         <v>0</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
       <c r="A5" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B5" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J5" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="19">
-        <f t="array" ref="K5">INDEX(Sheet2!$H$2:$I$21,MATCH(G5,Sheet2!$I$2:I9,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L5" s="20" t="str">
-        <f t="array" ref="L5">INDEX(Sheet2!$B$2:$C$21,MATCH(G5,Sheet2!$C$2:C24,0),1)</f>
-        <v>b</v>
-      </c>
-      <c r="M5" s="21" t="str">
-        <f t="array" ref="M5">INDEX(Sheet2!$E$2:$F$21,MATCH(G5,Sheet2!$F$2:F24,0),1)</f>
-        <v>.dat</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
         <v>27</v>
       </c>
@@ -1859,63 +1853,63 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>303</v>
+        <v>60</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
       </c>
       <c r="U5" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15">
       <c r="A6" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B6" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J6" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="19">
-        <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I10,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I8,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L6" s="20" t="str">
-        <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C25,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C23,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M6" s="21" t="str">
-        <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F25,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F23,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O6" s="16">
         <v>1</v>
@@ -1930,56 +1924,61 @@
         <v>1</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="T6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="16">
         <v>0</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J7" s="16">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I9,0),1)</f>
         <v>3</v>
       </c>
-      <c r="K7" s="19">
-        <v>49</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="M7" s="21"/>
+      <c r="L7" s="20" t="str">
+        <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C24,0),1)</f>
+        <v>b</v>
+      </c>
+      <c r="M7" s="21" t="str">
+        <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F24,0),1)</f>
+        <v>.dat</v>
+      </c>
       <c r="N7" s="15" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2005,12 +2004,12 @@
         <v>0</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15">
       <c r="A8" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="16">
         <v>4</v>
@@ -2022,19 +2021,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="J8" s="16">
         <v>4</v>
@@ -2066,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T8" s="16">
         <v>1</v>
@@ -2075,12 +2074,12 @@
         <v>1</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15">
       <c r="A9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="16">
         <v>4</v>
@@ -2092,19 +2091,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="J9" s="16">
         <v>4</v>
@@ -2137,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2146,52 +2145,51 @@
         <v>0</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="A10" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="27">
+        <v>12</v>
+      </c>
+      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="16">
-        <v>6</v>
-      </c>
-      <c r="K10" s="19">
-        <v>32</v>
-      </c>
-      <c r="L10" s="20" t="str">
-        <f t="array" ref="L10">INDEX(Sheet2!$B$2:$C$21,MATCH(G10,Sheet2!$C$2:C29,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M10" s="21" t="str">
-        <f t="array" ref="M10">INDEX(Sheet2!$E$2:$F$21,MATCH(G10,Sheet2!$F$2:F29,0),1)</f>
-        <v>.txt</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="E10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="27">
+        <v>12</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f t="array" ref="K10">INDEX(Sheet2!$H$2:$I$21,MATCH(G10,Sheet2!$I$2:I27,0),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="30" t="e">
+        <f t="array" ref="L10">INDEX(Sheet2!$B$2:$C$21,MATCH(G10,Sheet2!$C$2:C42,0),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="31" t="e">
+        <f t="array" ref="M10">INDEX(Sheet2!$E$2:$F$21,MATCH(G10,Sheet2!$F$2:F42,0),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="16">
@@ -2200,131 +2198,132 @@
       <c r="P10" s="16">
         <v>1</v>
       </c>
-      <c r="Q10" s="16">
-        <v>1</v>
-      </c>
-      <c r="R10" s="16">
-        <v>1</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T10" s="16">
+      <c r="Q10" s="27">
+        <v>1</v>
+      </c>
+      <c r="R10" s="27">
+        <v>1</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="27">
         <v>0</v>
       </c>
       <c r="U10" s="16">
-        <v>0</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15">
-      <c r="A11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="16">
-        <v>6</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="27">
+        <v>12</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="16">
-        <v>6</v>
-      </c>
-      <c r="K11" s="19">
-        <v>70</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="27">
+        <v>12</v>
+      </c>
+      <c r="K11" s="29">
+        <v>68</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="M11" s="21" t="str">
+        <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N11" s="26" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>1</v>
-      </c>
-      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
+      <c r="R11" s="27">
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="T11" s="16">
+        <v>328</v>
+      </c>
+      <c r="T11" s="27">
         <v>0</v>
       </c>
       <c r="U11" s="16">
-        <v>1</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B12" s="16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C12" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>81</v>
+      <c r="E12" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>85</v>
+        <v>143</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="J12" s="16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K12" s="19">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M12" s="21" t="str">
-        <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F31,0),1)</f>
-        <v>.log</v>
+        <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>27</v>
@@ -2342,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2351,60 +2350,59 @@
         <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B13" s="16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="J13" s="16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K13" s="19">
-        <f t="array" ref="K13">INDEX(Sheet2!$H$2:$I$21,MATCH(G13,Sheet2!$I$2:I17,0),1)</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L13" s="20" t="str">
-        <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C32,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M13" s="21" t="str">
-        <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F32,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="16">
         <v>1</v>
@@ -2413,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="T13" s="16">
         <v>0</v>
@@ -2422,15 +2420,15 @@
         <v>0</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B14" s="16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -2439,34 +2437,34 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="J14" s="16">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K14" s="19">
-        <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I18,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I36,0),1)</f>
+        <v>31</v>
       </c>
       <c r="L14" s="20" t="str">
-        <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C33,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C51,0),1)</f>
+        <v>VCDR</v>
       </c>
       <c r="M14" s="21" t="str">
-        <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F33,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F51,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>27</v>
@@ -2484,60 +2482,60 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
       </c>
       <c r="U14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B15" s="16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16">
         <v>2</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="J15" s="16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K15" s="19">
-        <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I19,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I37,0),1)</f>
+        <v>37</v>
       </c>
       <c r="L15" s="20" t="str">
-        <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C34,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C52,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M15" s="21" t="str">
-        <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F34,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F52,0),1)</f>
+        <v>.log</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>27</v>
@@ -2555,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2564,59 +2562,59 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B16" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="J16" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K16" s="19">
-        <f t="array" ref="K16">INDEX(Sheet2!$H$2:$I$21,MATCH(G16,Sheet2!$I$2:I20,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>306</v>
+        <v>32</v>
+      </c>
+      <c r="L16" s="20" t="str">
+        <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C29,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M16" s="21" t="str">
-        <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F35,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F29,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
         <v>1</v>
@@ -2625,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2634,51 +2632,47 @@
         <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B17" s="16">
-        <v>9</v>
-      </c>
-      <c r="C17" s="25">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="J17" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K17" s="19">
-        <v>30</v>
-      </c>
-      <c r="L17" s="20" t="str">
-        <f t="array" ref="L17">INDEX(Sheet2!$B$2:$C$21,MATCH(G17,Sheet2!$C$2:C36,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M17" s="21" t="str">
-        <f t="array" ref="M17">INDEX(Sheet2!$E$2:$F$21,MATCH(G17,Sheet2!$F$2:F36,0),1)</f>
-        <v>.txt</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
         <v>27</v>
       </c>
@@ -2695,60 +2689,58 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
       </c>
       <c r="U17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15">
       <c r="A18" s="15" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B18" s="16">
-        <v>9</v>
-      </c>
-      <c r="C18" s="25">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="J18" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18" s="19">
-        <f t="array" ref="K18">INDEX(Sheet2!$H$2:$I$21,MATCH(G18,Sheet2!$I$2:I22,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L18" s="20" t="str">
-        <f t="array" ref="L18">INDEX(Sheet2!$B$2:$C$21,MATCH(G18,Sheet2!$C$2:C37,0),1)</f>
-        <v>ICX</v>
+        <v>57</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="M18" s="21" t="str">
-        <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F37,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F31,0),1)</f>
+        <v>.log</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>27</v>
@@ -2766,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2775,15 +2767,15 @@
         <v>0</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B19" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
@@ -2792,34 +2784,34 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="J19" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K19" s="19">
-        <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I23,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I17,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L19" s="20" t="str">
-        <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C38,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C32,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M19" s="21" t="str">
-        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F38,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F32,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>27</v>
@@ -2837,24 +2829,24 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
       </c>
       <c r="U19" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B20" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
@@ -2863,34 +2855,34 @@
         <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="J20" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K20" s="19">
-        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I24,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I18,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L20" s="20" t="str">
-        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C39,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C33,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M20" s="21" t="str">
-        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F39,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F33,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>27</v>
@@ -2908,24 +2900,24 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
       </c>
       <c r="U20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B21" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16">
         <v>2</v>
@@ -2934,33 +2926,33 @@
         <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="J21" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K21" s="19">
-        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I25,0),1)</f>
+        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
       <c r="L21" s="20" t="str">
-        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C40,0),1)</f>
+        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F40,0),1)</f>
+        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
       <c r="N21" s="15" t="s">
@@ -2979,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -2988,15 +2980,15 @@
         <v>1</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B22" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
@@ -3005,32 +2997,33 @@
         <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="J22" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K22" s="19">
-        <v>68</v>
+        <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I20,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>305</v>
       </c>
       <c r="M22" s="21" t="str">
-        <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F41,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F35,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>27</v>
@@ -3048,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3057,51 +3050,52 @@
         <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
-      <c r="A23" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="27">
-        <v>12</v>
-      </c>
-      <c r="C23" s="27">
-        <v>3</v>
-      </c>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="16">
+        <v>9</v>
+      </c>
+      <c r="C23" s="25">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" s="27">
-        <v>12</v>
-      </c>
-      <c r="K23" s="29" t="e">
-        <f t="array" ref="K23">INDEX(Sheet2!$H$2:$I$21,MATCH(G23,Sheet2!$I$2:I27,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" s="30" t="e">
-        <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C42,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="31" t="e">
-        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F42,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="26" t="s">
+      <c r="E23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="16">
+        <v>9</v>
+      </c>
+      <c r="K23" s="19">
+        <v>30</v>
+      </c>
+      <c r="L23" s="20" t="str">
+        <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C36,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M23" s="21" t="str">
+        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F36,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O23" s="16">
@@ -3110,65 +3104,69 @@
       <c r="P23" s="16">
         <v>1</v>
       </c>
-      <c r="Q23" s="27">
-        <v>1</v>
-      </c>
-      <c r="R23" s="27">
-        <v>1</v>
-      </c>
-      <c r="S23" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="T23" s="27">
+      <c r="Q23" s="16">
+        <v>1</v>
+      </c>
+      <c r="R23" s="16">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T23" s="16">
         <v>0</v>
       </c>
       <c r="U23" s="16">
-        <v>1</v>
-      </c>
-      <c r="V23" s="26" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
-      <c r="A24" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="27">
-        <v>12</v>
-      </c>
-      <c r="C24" s="27">
-        <v>2</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="A24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="16">
+        <v>9</v>
+      </c>
+      <c r="C24" s="25">
+        <v>7</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="F24" s="15" t="s">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="J24" s="27">
-        <v>12</v>
-      </c>
-      <c r="K24" s="29">
-        <v>68</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>328</v>
+        <v>103</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="16">
+        <v>9</v>
+      </c>
+      <c r="K24" s="19">
+        <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I22,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L24" s="20" t="str">
+        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C37,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M24" s="21" t="str">
-        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F42,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N24" s="26" t="s">
+        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F37,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O24" s="16">
@@ -3177,74 +3175,76 @@
       <c r="P24" s="16">
         <v>0</v>
       </c>
-      <c r="Q24" s="27">
-        <v>1</v>
-      </c>
-      <c r="R24" s="27">
+      <c r="Q24" s="16">
+        <v>1</v>
+      </c>
+      <c r="R24" s="16">
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="T24" s="27">
+        <v>116</v>
+      </c>
+      <c r="T24" s="16">
         <v>0</v>
       </c>
       <c r="U24" s="16">
         <v>0</v>
       </c>
-      <c r="V24" s="26" t="s">
-        <v>138</v>
+      <c r="V24" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B25" s="16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>323</v>
+        <v>4</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>324</v>
+        <v>120</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="J25" s="16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K25" s="19">
-        <v>68</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>321</v>
+        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I23,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L25" s="20" t="str">
+        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C38,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F43,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F38,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="16">
         <v>1</v>
@@ -3253,60 +3253,60 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
       </c>
       <c r="U25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B26" s="16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="J26" s="16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K26" s="19">
-        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I29,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I24,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L26" s="20" t="str">
-        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C44,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C39,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F44,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F39,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>27</v>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3333,59 +3333,60 @@
         <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B27" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="J27" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K27" s="19">
-        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I30,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>313</v>
+        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I25,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L27" s="20" t="str">
+        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C40,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M27" s="21" t="str">
-        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F45,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F40,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="16">
         <v>1</v>
@@ -3394,69 +3395,67 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
       </c>
       <c r="U27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B28" s="16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J28" s="16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K28" s="19">
-        <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I31,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L28" s="20" t="str">
-        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C46,0),1)</f>
-        <v>esdr</v>
+        <v>68</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="M28" s="21" t="str">
-        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F46,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="16">
         <v>1</v>
@@ -3465,68 +3464,69 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
       </c>
       <c r="U28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="B29" s="16">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C29" s="16">
         <v>2</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="J29" s="16">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K29" s="19">
-        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I32,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>307</v>
+        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I49,0),1)</f>
+        <v>27</v>
+      </c>
+      <c r="L29" s="20" t="str">
+        <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C64,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M29" s="21" t="str">
-        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F47,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F64,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="16">
         <v>1</v>
@@ -3535,57 +3535,58 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="T29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="B30" s="16">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="J30" s="16">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K30" s="19">
-        <v>56</v>
-      </c>
-      <c r="L30" s="20">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>317</v>
+        <v>74</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="M30" s="21" t="str">
+        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>27</v>
@@ -3603,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="T30" s="16">
         <v>0</v>
@@ -3612,50 +3613,51 @@
         <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="B31" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="J31" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K31" s="19">
-        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I34,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>300</v>
+        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I47,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L31" s="20" t="str">
+        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C62,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M31" s="21" t="str">
-        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F49,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F62,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>27</v>
@@ -3673,68 +3675,69 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
       </c>
       <c r="U31" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B32" s="16">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="J32" s="16">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K32" s="19">
-        <v>40</v>
+        <f t="array" ref="K32">INDEX(Sheet2!$H$2:$I$21,MATCH(G32,Sheet2!$I$2:I48,0),1)</f>
+        <v>36</v>
       </c>
       <c r="L32" s="20" t="str">
-        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C50,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C63,0),1)</f>
+        <v>CF</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F50,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="16">
         <v>1</v>
@@ -3743,60 +3746,60 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
       </c>
       <c r="U32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B33" s="16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="J33" s="16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K33" s="19">
-        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I36,0),1)</f>
-        <v>31</v>
+        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I29,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L33" s="20" t="str">
-        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C51,0),1)</f>
-        <v>VCDR</v>
+        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C44,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F51,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F44,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>27</v>
@@ -3814,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3823,60 +3826,59 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B34" s="16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="J34" s="16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K34" s="19">
-        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I37,0),1)</f>
-        <v>37</v>
-      </c>
-      <c r="L34" s="20" t="str">
-        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C52,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I30,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>312</v>
       </c>
       <c r="M34" s="21" t="str">
-        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F52,0),1)</f>
-        <v>.log</v>
+        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="16">
         <v>1</v>
@@ -3885,59 +3887,59 @@
         <v>1</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="T34" s="16">
         <v>0</v>
       </c>
       <c r="U34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B35" s="16">
-        <v>19</v>
-      </c>
-      <c r="C35" s="25">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C35" s="16">
+        <v>3</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="J35" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K35" s="19">
-        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I38,0),1)</f>
+        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I31,0),1)</f>
         <v>25</v>
       </c>
       <c r="L35" s="20" t="str">
-        <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C53,0),1)</f>
+        <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
       <c r="M35" s="21" t="str">
-        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F53,0),1)</f>
+        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
       <c r="N35" s="15" t="s">
@@ -3956,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -3965,53 +3967,53 @@
         <v>1</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B36" s="16">
-        <v>19</v>
-      </c>
-      <c r="C36" s="25">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="16">
+        <v>2</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J36" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K36" s="19">
-        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I39,0),1)</f>
+        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F54,0),1)</f>
+        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O36" s="16">
         <v>0</v>
@@ -4026,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4035,15 +4037,15 @@
         <v>0</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B37" s="16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
@@ -4052,43 +4054,40 @@
         <v>4</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="J37" s="16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K37" s="19">
-        <f t="array" ref="K37">INDEX(Sheet2!$H$2:$I$21,MATCH(G37,Sheet2!$I$2:I40,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L37" s="20" t="str">
-        <f t="array" ref="L37">INDEX(Sheet2!$B$2:$C$21,MATCH(G37,Sheet2!$C$2:C55,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M37" s="21" t="str">
-        <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F55,0),1)</f>
-        <v>.csv</v>
+        <v>56</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>316</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="16">
         <v>1</v>
@@ -4097,24 +4096,24 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
       </c>
       <c r="U37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B38" s="16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C38" s="16">
         <v>1</v>
@@ -4123,42 +4122,42 @@
         <v>29</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="J38" s="16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K38" s="19">
-        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I41,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I34,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M38" s="21" t="str">
-        <f t="array" ref="M38">INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F56,0),1)</f>
-        <v>.dat</v>
+        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="16">
         <v>1</v>
@@ -4167,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4176,15 +4175,15 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B39" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="16">
         <v>2</v>
@@ -4193,34 +4192,34 @@
         <v>4</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J39" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="19">
-        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I42,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I40,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L39" s="20" t="str">
-        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C57,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C55,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F57,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F55,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>27</v>
@@ -4238,24 +4237,24 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
       </c>
       <c r="U39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B40" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="16">
         <v>1</v>
@@ -4264,33 +4263,32 @@
         <v>29</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J40" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" s="19">
-        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I43,0),1)</f>
+        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L40" s="20" t="str">
-        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C58,0),1)</f>
-        <v>b</v>
+      <c r="L40" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="M40" s="21" t="str">
-        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F58,0),1)</f>
+        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N40" s="15" t="s">
@@ -4309,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4318,50 +4316,50 @@
         <v>0</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B41" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J41" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" s="19">
-        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I44,0),1)</f>
+        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I42,0),1)</f>
         <v>25</v>
       </c>
       <c r="L41" s="20" t="str">
-        <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C59,0),1)</f>
+        <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
       <c r="M41" s="21" t="str">
-        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F59,0),1)</f>
+        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
       <c r="N41" s="15" t="s">
@@ -4380,24 +4378,24 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
       </c>
       <c r="U41" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B42" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="16">
         <v>1</v>
@@ -4406,43 +4404,43 @@
         <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J42" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" s="19">
-        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I45,0),1)</f>
+        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
       <c r="L42" s="20" t="str">
-        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C60,0),1)</f>
+        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F60,0),1)</f>
+        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="16">
         <v>1</v>
@@ -4451,62 +4449,62 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
       </c>
       <c r="U42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B43" s="16">
-        <v>22</v>
-      </c>
-      <c r="C43" s="16">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C43" s="25">
+        <v>18</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="J43" s="16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K43" s="19">
-        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I46,0),1)</f>
-        <v>37</v>
+        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I38,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L43" s="20" t="str">
-        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C61,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C53,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F61,0),1)</f>
-        <v>.log</v>
-      </c>
-      <c r="N43" s="18" t="s">
+        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F53,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N43" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O43" s="16">
@@ -4522,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4531,60 +4529,59 @@
         <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="B44" s="16">
-        <v>23</v>
-      </c>
-      <c r="C44" s="16">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C44" s="25">
+        <v>8</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J44" s="16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K44" s="19">
-        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I47,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L44" s="20" t="str">
-        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C62,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I39,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="M44" s="21" t="str">
-        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F62,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O44" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="16">
         <v>1</v>
@@ -4593,60 +4590,60 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B45" s="16">
-        <v>23</v>
-      </c>
-      <c r="C45" s="16">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C45" s="25">
+        <v>10</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="J45" s="16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K45" s="19">
-        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I48,0),1)</f>
-        <v>36</v>
+        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I53,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L45" s="20" t="str">
-        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C63,0),1)</f>
-        <v>CF</v>
+        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C68,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M45" s="21" t="str">
-        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F63,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F68,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N45" s="15" t="s">
         <v>27</v>
@@ -4664,69 +4661,69 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="T45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="16">
         <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B46" s="16">
-        <v>24</v>
-      </c>
-      <c r="C46" s="16">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C46" s="25">
+        <v>9</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="J46" s="16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K46" s="19">
-        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
+        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I54,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L46" s="20" t="str">
-        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
+        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C69,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M46" s="21" t="str">
-        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F69,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="16">
         <v>1</v>
@@ -4735,67 +4732,69 @@
         <v>1</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="T46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B47" s="16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="J47" s="16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K47" s="19">
-        <v>74</v>
-      </c>
-      <c r="L47" s="20" t="s">
-        <v>328</v>
+        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I44,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L47" s="20" t="str">
+        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C59,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M47" s="21" t="str">
-        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F65,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F59,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="16">
         <v>1</v>
@@ -4804,64 +4803,69 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
       </c>
       <c r="U47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="B48" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="J48" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K48" s="19">
-        <v>55</v>
-      </c>
-      <c r="L48" s="20">
-        <v>2</v>
-      </c>
-      <c r="M48" s="21"/>
+        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I45,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L48" s="20" t="str">
+        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C60,0),1)</f>
+        <v>b</v>
+      </c>
+      <c r="M48" s="21" t="str">
+        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F60,0),1)</f>
+        <v>.dat</v>
+      </c>
       <c r="N48" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O48" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="16">
         <v>1</v>
@@ -4870,68 +4874,69 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
       </c>
       <c r="U48" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="B49" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="J49" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K49" s="19">
-        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I52,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L49" s="20">
-        <v>2</v>
+        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I46,0),1)</f>
+        <v>37</v>
+      </c>
+      <c r="L49" s="20" t="str">
+        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C61,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M49" s="21" t="str">
-        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F67,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N49" s="15" t="s">
+        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F61,0),1)</f>
+        <v>.log</v>
+      </c>
+      <c r="N49" s="18" t="s">
         <v>27</v>
       </c>
       <c r="O49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="16">
         <v>1</v>
@@ -4940,69 +4945,64 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
       </c>
       <c r="U49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="B50" s="16">
-        <v>26</v>
-      </c>
-      <c r="C50" s="25">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C50" s="16">
+        <v>2</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="J50" s="16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K50" s="19">
-        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I53,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L50" s="20" t="str">
-        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C68,0),1)</f>
-        <v>sdr</v>
-      </c>
-      <c r="M50" s="21" t="str">
-        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F68,0),1)</f>
-        <v>.gz</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L50" s="20">
+        <v>2</v>
+      </c>
+      <c r="M50" s="21"/>
       <c r="N50" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="16">
         <v>1</v>
@@ -5011,60 +5011,59 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="T50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="B51" s="16">
-        <v>26</v>
-      </c>
-      <c r="C51" s="25">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C51" s="16">
+        <v>1</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="J51" s="16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K51" s="19">
-        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I54,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L51" s="20" t="str">
-        <f t="array" ref="L51">INDEX(Sheet2!$B$2:$C$21,MATCH(G51,Sheet2!$C$2:C69,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I52,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L51" s="20">
+        <v>2</v>
       </c>
       <c r="M51" s="21" t="str">
-        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F69,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F67,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N51" s="15" t="s">
         <v>27</v>
@@ -5082,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5091,12 +5090,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B52" s="16">
         <v>27</v>
@@ -5108,19 +5107,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H52" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5162,12 +5161,12 @@
         <v>1</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5179,19 +5178,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5223,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
@@ -5232,10 +5231,13 @@
         <v>0</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:V53">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5259,24 +5261,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>280</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5298,14 +5300,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5320,14 +5322,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5342,14 +5344,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5364,36 +5366,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5408,36 +5410,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5452,24 +5454,24 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
@@ -5477,41 +5479,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5619,7 +5621,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="339">
   <si>
     <t>operator</t>
   </si>
@@ -265,18 +265,12 @@
     <t>10.154.150.9</t>
   </si>
   <si>
-    <t>gaziNetworks_tdm1</t>
-  </si>
-  <si>
     <t>TELCOBRIDGE</t>
   </si>
   <si>
     <t>RitUtipi9Ras25je</t>
   </si>
   <si>
-    <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm1</t>
-  </si>
-  <si>
     <t>getco</t>
   </si>
   <si>
@@ -1016,13 +1010,40 @@
   </si>
   <si>
     <t>Vault.Cataleya</t>
+  </si>
+  <si>
+    <t>Vault.cataleya</t>
+  </si>
+  <si>
+    <t>10.154.150.15</t>
+  </si>
+  <si>
+    <t>gaziNetworks_Bogra</t>
+  </si>
+  <si>
+    <t>gaziNetworks_Khulna</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\Khulna</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\Bogra</t>
+  </si>
+  <si>
+    <t>jqAMaTHZvniOH3D</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeBogra</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeKhulna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1109,6 +1130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1188,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1273,10 +1300,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1493,20 +1522,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -1717,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1787,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T4" s="16">
         <v>0</v>
@@ -1834,7 +1864,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
@@ -1995,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2136,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T9" s="16">
         <v>0</v>
@@ -2150,7 +2180,7 @@
     </row>
     <row r="10" spans="1:22" ht="15">
       <c r="A10" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="27">
         <v>12</v>
@@ -2162,17 +2192,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -2205,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T10" s="27">
         <v>0</v>
@@ -2214,12 +2244,12 @@
         <v>1</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15">
       <c r="A11" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="27">
         <v>12</v>
@@ -2232,16 +2262,16 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -2250,7 +2280,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2272,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -2281,12 +2311,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="16">
         <v>12</v>
@@ -2298,19 +2328,19 @@
         <v>29</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J12" s="16">
         <v>12</v>
@@ -2319,7 +2349,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2341,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2350,12 +2380,12 @@
         <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15">
       <c r="A13" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="16">
         <v>18</v>
@@ -2367,19 +2397,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J13" s="16">
         <v>18</v>
@@ -2420,12 +2450,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B14" s="16">
         <v>18</v>
@@ -2437,19 +2467,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J14" s="16">
         <v>18</v>
@@ -2482,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2491,12 +2521,12 @@
         <v>1</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="16">
         <v>18</v>
@@ -2508,19 +2538,19 @@
         <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="J15" s="16">
         <v>18</v>
@@ -2553,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2562,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
@@ -2611,10 +2641,10 @@
         <v>27</v>
       </c>
       <c r="O16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <v>1</v>
@@ -2623,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2670,7 +2700,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
@@ -2701,33 +2731,27 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15">
-      <c r="A18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="16">
-        <v>6</v>
-      </c>
-      <c r="C18" s="16">
-        <v>2</v>
-      </c>
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="H18" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="I18" s="15" t="s">
-        <v>84</v>
+        <v>335</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -2736,20 +2760,20 @@
         <v>57</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M18" s="21" t="str">
-        <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F31,0),1)</f>
+        <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
         <v>1</v>
@@ -2758,13 +2782,13 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>232</v>
+        <v>337</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
       </c>
       <c r="U18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>71</v>
@@ -2772,46 +2796,44 @@
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B19" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>87</v>
+        <v>331</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>333</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="J19" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="19">
-        <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I17,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L19" s="20" t="str">
-        <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C32,0),1)</f>
-        <v>cdr</v>
+        <v>57</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>316</v>
       </c>
       <c r="M19" s="21" t="str">
-        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F32,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
+        <v>.log</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>27</v>
@@ -2829,60 +2851,60 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
       </c>
       <c r="U19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="16">
         <v>7</v>
       </c>
       <c r="C20" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J20" s="16">
         <v>7</v>
       </c>
       <c r="K20" s="19">
-        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I18,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I17,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L20" s="20" t="str">
-        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C33,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C32,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M20" s="21" t="str">
-        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F33,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F32,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>27</v>
@@ -2900,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2909,51 +2931,51 @@
         <v>0</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B21" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J21" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" s="19">
-        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I19,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I18,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L21" s="20" t="str">
-        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C34,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C33,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F34,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F33,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N21" s="15" t="s">
         <v>27</v>
@@ -2971,68 +2993,69 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
       </c>
       <c r="U21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="16">
         <v>8</v>
       </c>
       <c r="C22" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J22" s="16">
         <v>8</v>
       </c>
       <c r="K22" s="19">
-        <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I20,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>305</v>
+        <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I19,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L22" s="20" t="str">
+        <f t="array" ref="L22">INDEX(Sheet2!$B$2:$C$21,MATCH(G22,Sheet2!$C$2:C34,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M22" s="21" t="str">
-        <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F35,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F34,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="16">
         <v>1</v>
@@ -3041,68 +3064,68 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
       </c>
       <c r="U22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B23" s="16">
-        <v>9</v>
-      </c>
-      <c r="C23" s="25">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J23" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" s="19">
-        <v>30</v>
-      </c>
-      <c r="L23" s="20" t="str">
-        <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C36,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K23">INDEX(Sheet2!$H$2:$I$21,MATCH(G23,Sheet2!$I$2:I20,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="M23" s="21" t="str">
-        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F36,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F35,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="16">
         <v>1</v>
@@ -3111,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T23" s="16">
         <v>0</v>
@@ -3120,60 +3143,59 @@
         <v>0</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A24" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="16">
         <v>9</v>
       </c>
       <c r="C24" s="25">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J24" s="16">
         <v>9</v>
       </c>
       <c r="K24" s="19">
-        <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I22,0),1)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L24" s="20" t="str">
-        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C37,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C36,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M24" s="21" t="str">
-        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F37,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F36,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="16">
         <v>1</v>
@@ -3182,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3191,60 +3213,60 @@
         <v>0</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A25" s="15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B25" s="16">
-        <v>10</v>
-      </c>
-      <c r="C25" s="16">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="25">
+        <v>7</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J25" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K25" s="19">
-        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I23,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I22,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L25" s="20" t="str">
-        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C38,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C37,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F38,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F37,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="16">
         <v>1</v>
@@ -3253,60 +3275,60 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
       </c>
       <c r="U25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="16">
         <v>10</v>
       </c>
       <c r="C26" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="I26" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J26" s="16">
         <v>10</v>
       </c>
       <c r="K26" s="19">
-        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I24,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I23,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L26" s="20" t="str">
-        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C39,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C38,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F39,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F38,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>27</v>
@@ -3324,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3333,51 +3355,51 @@
         <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B27" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J27" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K27" s="19">
-        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I25,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I24,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L27" s="20" t="str">
-        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C40,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C39,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M27" s="21" t="str">
-        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F40,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F39,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>27</v>
@@ -3395,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
@@ -3404,58 +3426,60 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="16">
         <v>11</v>
       </c>
       <c r="C28" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J28" s="16">
         <v>11</v>
       </c>
       <c r="K28" s="19">
-        <v>68</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>304</v>
+        <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I25,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="20" t="str">
+        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M28" s="21" t="str">
-        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="16">
         <v>1</v>
@@ -3464,69 +3488,67 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
       </c>
       <c r="U28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="B29" s="16">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C29" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="J29" s="16">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K29" s="19">
-        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L29" s="20" t="str">
-        <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
+        <v>68</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="M29" s="21" t="str">
-        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="16">
         <v>1</v>
@@ -3535,67 +3557,69 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="T29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30" s="16">
         <v>24</v>
       </c>
       <c r="C30" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
       </c>
       <c r="K30" s="19">
-        <v>74</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>327</v>
+        <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I49,0),1)</f>
+        <v>27</v>
+      </c>
+      <c r="L30" s="20" t="str">
+        <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C64,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M30" s="21" t="str">
-        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F64,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="16">
         <v>1</v>
@@ -3604,69 +3628,67 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="T30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B31" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="G31" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="J31" s="16">
         <v>24</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J31" s="16">
-        <v>23</v>
-      </c>
       <c r="K31" s="19">
-        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I47,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L31" s="20" t="str">
-        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C62,0),1)</f>
-        <v>cdr</v>
+        <v>74</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>325</v>
       </c>
       <c r="M31" s="21" t="str">
-        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F62,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O31" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="16">
         <v>1</v>
@@ -3675,60 +3697,60 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
       </c>
       <c r="U31" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B32" s="16">
         <v>23</v>
       </c>
       <c r="C32" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J32" s="16">
         <v>23</v>
       </c>
       <c r="K32" s="19">
-        <f t="array" ref="K32">INDEX(Sheet2!$H$2:$I$21,MATCH(G32,Sheet2!$I$2:I48,0),1)</f>
-        <v>36</v>
+        <f t="array" ref="K32">INDEX(Sheet2!$H$2:$I$21,MATCH(G32,Sheet2!$I$2:I47,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L32" s="20" t="str">
-        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C63,0),1)</f>
-        <v>CF</v>
+        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>27</v>
@@ -3746,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3755,51 +3777,51 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="B33" s="16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C33" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="J33" s="16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K33" s="19">
-        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I29,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I48,0),1)</f>
+        <v>36</v>
       </c>
       <c r="L33" s="20" t="str">
-        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C44,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C63,0),1)</f>
+        <v>CF</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F44,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>27</v>
@@ -3817,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3826,59 +3848,60 @@
         <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="16">
         <v>15</v>
       </c>
       <c r="C34" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J34" s="16">
         <v>15</v>
       </c>
       <c r="K34" s="19">
-        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I30,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>312</v>
+        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I29,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L34" s="20" t="str">
+        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C44,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M34" s="21" t="str">
-        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F44,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="16">
         <v>1</v>
@@ -3887,69 +3910,68 @@
         <v>1</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="T34" s="16">
         <v>0</v>
       </c>
       <c r="U34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B35" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" s="16">
+        <v>15</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="J35" s="16">
-        <v>16</v>
-      </c>
-      <c r="K35" s="19">
-        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I31,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L35" s="20" t="str">
-        <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C46,0),1)</f>
-        <v>esdr</v>
+      <c r="L35" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="M35" s="21" t="str">
-        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F46,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N35" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="16">
         <v>1</v>
@@ -3958,68 +3980,69 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
       </c>
       <c r="U35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" s="16">
         <v>16</v>
       </c>
       <c r="C36" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J36" s="16">
         <v>16</v>
       </c>
       <c r="K36" s="19">
-        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I32,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>306</v>
+        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I31,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L36" s="20" t="str">
+        <f t="array" ref="L36">INDEX(Sheet2!$B$2:$C$21,MATCH(G36,Sheet2!$C$2:C46,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F47,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F46,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="16">
         <v>1</v>
@@ -4028,57 +4051,59 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
       </c>
       <c r="U36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B37" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J37" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="19">
-        <v>56</v>
-      </c>
-      <c r="L37" s="20">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>316</v>
+        <f t="array" ref="K37">INDEX(Sheet2!$H$2:$I$21,MATCH(G37,Sheet2!$I$2:I32,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" s="21" t="str">
+        <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F47,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>27</v>
@@ -4096,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4105,59 +4130,57 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
       </c>
       <c r="C38" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J38" s="16">
         <v>17</v>
       </c>
       <c r="K38" s="19">
-        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I34,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="M38" s="21" t="str">
-        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
-        <v>.DAT</v>
+        <v>56</v>
+      </c>
+      <c r="L38" s="20">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="16">
         <v>1</v>
@@ -4166,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4175,51 +4198,50 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B39" s="16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="J39" s="16">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K39" s="19">
-        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I40,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L39" s="20" t="str">
-        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C55,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I34,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F55,0),1)</f>
-        <v>.csv</v>
+        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>27</v>
@@ -4237,68 +4259,69 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
       </c>
       <c r="U39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B40" s="16">
         <v>20</v>
       </c>
       <c r="C40" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J40" s="16">
         <v>20</v>
       </c>
       <c r="K40" s="19">
-        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I41,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>288</v>
+        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I40,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L40" s="20" t="str">
+        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C55,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M40" s="21" t="str">
-        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F55,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="16">
         <v>1</v>
@@ -4307,69 +4330,68 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
       </c>
       <c r="U40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B41" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J41" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="19">
-        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I42,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L41" s="20" t="str">
-        <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C57,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I41,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="M41" s="21" t="str">
-        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F57,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O41" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="16">
         <v>1</v>
@@ -4378,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4387,60 +4409,60 @@
         <v>0</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B42" s="16">
         <v>21</v>
       </c>
       <c r="C42" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J42" s="16">
         <v>21</v>
       </c>
       <c r="K42" s="19">
-        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I43,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I42,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L42" s="20" t="str">
-        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C58,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C57,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F58,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F57,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="16">
         <v>1</v>
@@ -4449,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4458,60 +4480,60 @@
         <v>0</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="B43" s="16">
-        <v>19</v>
-      </c>
-      <c r="C43" s="25">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J43" s="16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K43" s="19">
-        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I38,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I43,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L43" s="20" t="str">
-        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C53,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C58,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F53,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F58,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O43" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="16">
         <v>1</v>
@@ -4520,68 +4542,69 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
       </c>
       <c r="U43" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B44" s="16">
         <v>19</v>
       </c>
       <c r="C44" s="25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J44" s="16">
         <v>19</v>
       </c>
       <c r="K44" s="19">
-        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I39,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>296</v>
+        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I38,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L44" s="20" t="str">
+        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C53,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M44" s="21" t="str">
-        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F53,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="16">
         <v>1</v>
@@ -4590,69 +4613,68 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="B45" s="16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C45" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="J45" s="16">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K45" s="19">
-        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I53,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L45" s="20" t="str">
-        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C68,0),1)</f>
-        <v>sdr</v>
+        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I39,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="M45" s="21" t="str">
-        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F68,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O45" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="16">
         <v>1</v>
@@ -4661,69 +4683,69 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="T45" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B46" s="16">
         <v>26</v>
       </c>
       <c r="C46" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
       </c>
       <c r="K46" s="19">
-        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I54,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I53,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L46" s="20" t="str">
-        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C69,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C68,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M46" s="21" t="str">
-        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F69,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F68,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="16">
         <v>1</v>
@@ -4732,69 +4754,69 @@
         <v>1</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="T46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="B47" s="16">
-        <v>22</v>
-      </c>
-      <c r="C47" s="16">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C47" s="25">
+        <v>9</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="J47" s="16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K47" s="19">
-        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I44,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I54,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L47" s="20" t="str">
-        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C59,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C69,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M47" s="21" t="str">
-        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F59,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F69,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N47" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="16">
         <v>1</v>
@@ -4803,60 +4825,60 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
       </c>
       <c r="U47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B48" s="16">
         <v>22</v>
       </c>
       <c r="C48" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J48" s="16">
         <v>22</v>
       </c>
       <c r="K48" s="19">
-        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I45,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I44,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L48" s="20" t="str">
-        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C60,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M48" s="21" t="str">
-        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F60,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>27</v>
@@ -4874,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T48" s="16">
         <v>0</v>
@@ -4883,53 +4905,53 @@
         <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B49" s="16">
         <v>22</v>
       </c>
       <c r="C49" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J49" s="16">
         <v>22</v>
       </c>
       <c r="K49" s="19">
-        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I46,0),1)</f>
-        <v>37</v>
+        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I45,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L49" s="20" t="str">
-        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C61,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C60,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M49" s="21" t="str">
-        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F61,0),1)</f>
-        <v>.log</v>
-      </c>
-      <c r="N49" s="18" t="s">
+        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F60,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N49" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O49" s="16">
@@ -4945,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -4954,55 +4976,60 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="B50" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="16">
         <v>2</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="J50" s="16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K50" s="19">
-        <v>55</v>
-      </c>
-      <c r="L50" s="20">
-        <v>2</v>
-      </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="15" t="s">
+        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I46,0),1)</f>
+        <v>37</v>
+      </c>
+      <c r="L50" s="20" t="str">
+        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C61,0),1)</f>
+        <v>cdr</v>
+      </c>
+      <c r="M50" s="21" t="str">
+        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F61,0),1)</f>
+        <v>.log</v>
+      </c>
+      <c r="N50" s="18" t="s">
         <v>27</v>
       </c>
       <c r="O50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="16">
         <v>1</v>
@@ -5011,60 +5038,56 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
       </c>
       <c r="U50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B51" s="16">
         <v>25</v>
       </c>
       <c r="C51" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
       </c>
       <c r="K51" s="19">
-        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I52,0),1)</f>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="L51" s="20">
         <v>2</v>
       </c>
-      <c r="M51" s="21" t="str">
-        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F67,0),1)</f>
-        <v>.dat</v>
-      </c>
+      <c r="M51" s="21"/>
       <c r="N51" s="15" t="s">
         <v>27</v>
       </c>
@@ -5081,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5090,60 +5113,59 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="B52" s="16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" s="16">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="J52" s="16">
+        <v>25</v>
+      </c>
+      <c r="K52" s="19">
+        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I52,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L52" s="20">
         <v>2</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="J52" s="16">
-        <v>27</v>
-      </c>
-      <c r="K52" s="19">
-        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I55,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L52" s="20" t="str">
-        <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C70,0),1)</f>
-        <v>cdr</v>
-      </c>
       <c r="M52" s="21" t="str">
-        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F70,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F67,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="16">
         <v>1</v>
@@ -5152,86 +5174,157 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
       </c>
       <c r="U52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
       </c>
       <c r="C53" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
       </c>
       <c r="K53" s="19">
-        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I56,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L53" s="33">
-        <v>2</v>
+        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I55,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L53" s="20" t="str">
+        <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M53" s="21" t="str">
-        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F71,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F70,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N53" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="16">
         <v>1</v>
       </c>
       <c r="R53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
       </c>
       <c r="U53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15">
+      <c r="A54" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="16">
+        <v>27</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J54" s="16">
+        <v>27</v>
+      </c>
+      <c r="K54" s="19">
+        <f t="array" ref="K54">INDEX(Sheet2!$H$2:$I$21,MATCH(G54,Sheet2!$I$2:I56,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L54" s="33">
+        <v>2</v>
+      </c>
+      <c r="M54" s="21" t="str">
+        <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F71,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" s="16">
+        <v>0</v>
+      </c>
+      <c r="P54" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>1</v>
+      </c>
+      <c r="R54" s="16">
+        <v>0</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="T54" s="16">
+        <v>0</v>
+      </c>
+      <c r="U54" s="16">
+        <v>0</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5261,24 +5354,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5300,14 +5393,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5322,14 +5415,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5344,14 +5437,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5366,36 +5459,36 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5410,36 +5503,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5454,24 +5547,24 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
@@ -5479,41 +5572,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5620,27 +5713,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="C25" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1043,7 +1043,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1136,8 +1136,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,6 +1186,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1211,11 +1223,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1301,14 +1314,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1524,9 +1546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2037,73 +2059,73 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:22" s="40" customFormat="1" ht="14.25">
+      <c r="A8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="41">
         <v>4</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="41">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="41">
         <v>4</v>
       </c>
-      <c r="K8" s="19">
-        <v>30</v>
-      </c>
-      <c r="L8" s="20" t="str">
+      <c r="K8" s="41">
+        <v>71</v>
+      </c>
+      <c r="L8" s="42" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="21" t="str">
+      <c r="M8" s="43" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="16">
-        <v>1</v>
-      </c>
-      <c r="P8" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>1</v>
-      </c>
-      <c r="R8" s="16">
-        <v>1</v>
-      </c>
-      <c r="S8" s="15" t="s">
+      <c r="O8" s="41">
+        <v>0</v>
+      </c>
+      <c r="P8" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>1</v>
+      </c>
+      <c r="R8" s="41">
+        <v>1</v>
+      </c>
+      <c r="S8" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="16">
-        <v>1</v>
-      </c>
-      <c r="U8" s="16">
-        <v>1</v>
-      </c>
-      <c r="V8" s="15" t="s">
+      <c r="T8" s="41">
+        <v>0</v>
+      </c>
+      <c r="U8" s="41">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2169,10 +2191,10 @@
         <v>299</v>
       </c>
       <c r="T9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>61</v>
@@ -2741,13 +2763,13 @@
       <c r="E18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="37" t="s">
         <v>332</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="37" t="s">
         <v>82</v>
       </c>
       <c r="I18" s="15" t="s">
@@ -2810,13 +2832,13 @@
       <c r="E19" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="37" t="s">
         <v>333</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="37" t="s">
         <v>336</v>
       </c>
       <c r="I19" s="35" t="s">
@@ -5713,27 +5735,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="339">
   <si>
     <t>operator</t>
   </si>
@@ -745,9 +745,6 @@
     <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\tdm</t>
   </si>
   <si>
-    <t>Vault.NokiaDhk</t>
-  </si>
-  <si>
     <t>mothertelecom</t>
   </si>
   <si>
@@ -1037,6 +1034,9 @@
   </si>
   <si>
     <t>Vault.TelcobridgeKhulna</t>
+  </si>
+  <si>
+    <t>Vault.Nokia</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1315,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,6 +1323,10 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1547,8 +1547,8 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T4" s="16">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2059,73 +2059,73 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="40" customFormat="1" ht="14.25">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
+      <c r="A8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>2</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <v>4</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="39">
         <v>71</v>
       </c>
-      <c r="L8" s="42" t="str">
+      <c r="L8" s="40" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="43" t="str">
+      <c r="M8" s="41" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="41">
-        <v>0</v>
-      </c>
-      <c r="P8" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="41">
-        <v>1</v>
-      </c>
-      <c r="R8" s="41">
-        <v>1</v>
-      </c>
-      <c r="S8" s="40" t="s">
+      <c r="O8" s="39">
+        <v>0</v>
+      </c>
+      <c r="P8" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>1</v>
+      </c>
+      <c r="R8" s="39">
+        <v>1</v>
+      </c>
+      <c r="S8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="41">
-        <v>0</v>
-      </c>
-      <c r="U8" s="41">
-        <v>0</v>
-      </c>
-      <c r="V8" s="40" t="s">
+      <c r="T8" s="39">
+        <v>0</v>
+      </c>
+      <c r="U8" s="39">
+        <v>0</v>
+      </c>
+      <c r="V8" s="38" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2284,16 +2284,16 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>323</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>324</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -2302,7 +2302,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>46</v>
@@ -2362,7 +2362,7 @@
         <v>141</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J12" s="16">
         <v>12</v>
@@ -2371,7 +2371,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
@@ -2764,7 +2764,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>81</v>
@@ -2773,7 +2773,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -2782,7 +2782,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M18" s="21" t="str">
         <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2830,19 +2830,19 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J19" s="16">
         <v>6</v>
@@ -2851,7 +2851,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M19" s="21" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M23" s="21" t="str">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F35,0),1)</f>
@@ -3557,7 +3557,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M29" s="21" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="16">
         <v>24</v>
@@ -3605,19 +3605,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T30" s="16">
         <v>1</v>
@@ -3659,12 +3659,12 @@
         <v>1</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="16">
         <v>24</v>
@@ -3676,19 +3676,19 @@
         <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>238</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J31" s="16">
         <v>24</v>
@@ -3697,7 +3697,7 @@
         <v>74</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M31" s="21" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
@@ -3834,12 +3834,10 @@
         <v>23</v>
       </c>
       <c r="K33" s="19">
-        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I48,0),1)</f>
-        <v>36</v>
-      </c>
-      <c r="L33" s="20" t="str">
-        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C63,0),1)</f>
-        <v>CF</v>
+        <v>74</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>324</v>
       </c>
       <c r="M33" s="21" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
@@ -3849,10 +3847,10 @@
         <v>27</v>
       </c>
       <c r="O33" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="16">
         <v>1</v>
@@ -3861,13 +3859,13 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
       </c>
       <c r="U33" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="15" t="s">
         <v>231</v>
@@ -3980,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -4002,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4121,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F47,0),1)</f>
@@ -4143,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4193,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
@@ -4211,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4259,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M39" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -4281,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4400,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M41" s="21" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -4422,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4564,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4683,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M45" s="21" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -4719,7 +4717,7 @@
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="16">
         <v>26</v>
@@ -4731,19 +4729,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
@@ -4785,12 +4783,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="16">
         <v>26</v>
@@ -4802,19 +4800,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>101</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="J47" s="16">
         <v>26</v>
@@ -4847,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4856,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
@@ -5074,7 +5072,7 @@
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" s="16">
         <v>25</v>
@@ -5086,19 +5084,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>254</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
@@ -5126,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5135,12 +5133,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" s="16">
         <v>25</v>
@@ -5152,19 +5150,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J52" s="16">
         <v>25</v>
@@ -5196,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5205,12 +5203,12 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5222,19 +5220,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5276,12 +5274,12 @@
         <v>1</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15">
       <c r="A54" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="16">
         <v>27</v>
@@ -5293,19 +5291,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="J54" s="16">
         <v>27</v>
@@ -5337,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T54" s="16">
         <v>0</v>
@@ -5346,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5376,24 +5374,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5415,14 +5413,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5437,14 +5435,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5459,14 +5457,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5481,14 +5479,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>101</v>
@@ -5503,14 +5501,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5525,14 +5523,14 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>238</v>
@@ -5547,14 +5545,14 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5569,14 +5567,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>81</v>
@@ -5594,31 +5592,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>164</v>
@@ -5735,27 +5733,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="C25" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="338">
   <si>
     <t>operator</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
-  </si>
-  <si>
-    <t>teleExchange_10.255.200.53_CATALEYA</t>
   </si>
   <si>
     <t>10.154.150.53</t>
@@ -1546,33 +1543,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1">
+    <row r="2" spans="1:22" ht="15" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1710,7 +1707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22" ht="14.4">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1781,7 +1778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" ht="14.4">
       <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
@@ -1839,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T4" s="16">
         <v>0</v>
@@ -1851,7 +1848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22" ht="14.4">
       <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
@@ -1886,7 +1883,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
@@ -1917,7 +1914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22" ht="14.4">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +1985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15">
+    <row r="7" spans="1:22" ht="14.4">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2047,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2059,7 +2056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="13.8">
       <c r="A8" s="38" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15">
+    <row r="9" spans="1:22" ht="14.4">
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2200,7 +2197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22" ht="14.4">
       <c r="A10" s="26" t="s">
         <v>135</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15">
+    <row r="11" spans="1:22" ht="14.4">
       <c r="A11" s="26" t="s">
         <v>135</v>
       </c>
@@ -2284,16 +2281,16 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>322</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>323</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -2302,7 +2299,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2324,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -2336,7 +2333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15">
+    <row r="12" spans="1:22" ht="14.4">
       <c r="A12" s="15" t="s">
         <v>135</v>
       </c>
@@ -2350,10 +2347,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>46</v>
@@ -2362,7 +2359,7 @@
         <v>141</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J12" s="16">
         <v>12</v>
@@ -2371,7 +2368,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2393,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2405,7 +2402,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15">
+    <row r="13" spans="1:22" ht="14.4">
       <c r="A13" s="15" t="s">
         <v>171</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15">
+    <row r="14" spans="1:22" ht="14.4">
       <c r="A14" s="15" t="s">
         <v>171</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15">
+    <row r="15" spans="1:22" ht="14.4">
       <c r="A15" s="15" t="s">
         <v>171</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15">
+    <row r="16" spans="1:22" ht="14.4">
       <c r="A16" s="15" t="s">
         <v>71</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2687,7 +2684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22" ht="14.4">
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
@@ -2753,7 +2750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.4">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2764,7 +2761,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>81</v>
@@ -2773,7 +2770,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -2782,7 +2779,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M18" s="21" t="str">
         <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
@@ -2804,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2816,7 +2813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22" ht="14.4">
       <c r="A19" s="15" t="s">
         <v>71</v>
       </c>
@@ -2830,19 +2827,19 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J19" s="16">
         <v>6</v>
@@ -2851,7 +2848,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M19" s="21" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
@@ -2873,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2885,7 +2882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22" ht="14.4">
       <c r="A20" s="15" t="s">
         <v>83</v>
       </c>
@@ -2956,7 +2953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15">
+    <row r="21" spans="1:22" ht="14.4">
       <c r="A21" s="15" t="s">
         <v>83</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15">
+    <row r="22" spans="1:22" ht="14.4">
       <c r="A22" s="15" t="s">
         <v>94</v>
       </c>
@@ -3098,7 +3095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15">
+    <row r="23" spans="1:22" ht="14.4">
       <c r="A23" s="15" t="s">
         <v>94</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M23" s="21" t="str">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F35,0),1)</f>
@@ -3168,7 +3165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="14.4">
       <c r="A24" s="15" t="s">
         <v>104</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
+    <row r="25" spans="1:22" s="32" customFormat="1" ht="14.4">
       <c r="A25" s="15" t="s">
         <v>104</v>
       </c>
@@ -3309,7 +3306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15">
+    <row r="26" spans="1:22" ht="14.4">
       <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
@@ -3380,7 +3377,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15">
+    <row r="27" spans="1:22" ht="14.4">
       <c r="A27" s="15" t="s">
         <v>115</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15">
+    <row r="28" spans="1:22" ht="14.4">
       <c r="A28" s="15" t="s">
         <v>125</v>
       </c>
@@ -3522,7 +3519,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22" ht="14.4">
       <c r="A29" s="15" t="s">
         <v>125</v>
       </c>
@@ -3557,7 +3554,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M29" s="21" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3591,9 +3588,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22" ht="14.4">
       <c r="A30" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="16">
         <v>24</v>
@@ -3605,19 +3602,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -3650,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T30" s="16">
         <v>1</v>
@@ -3659,12 +3656,12 @@
         <v>1</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="14.4">
       <c r="A31" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="16">
         <v>24</v>
@@ -3676,19 +3673,19 @@
         <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="G31" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J31" s="16">
         <v>24</v>
@@ -3697,7 +3694,7 @@
         <v>74</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M31" s="21" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
@@ -3719,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3728,12 +3725,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="14.4">
       <c r="A32" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" s="16">
         <v>23</v>
@@ -3745,19 +3742,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="J32" s="16">
         <v>23</v>
@@ -3799,12 +3796,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="14.4">
       <c r="A33" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="16">
         <v>23</v>
@@ -3816,19 +3813,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="J33" s="16">
         <v>23</v>
@@ -3837,7 +3834,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M33" s="21" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
@@ -3859,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3868,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.4">
       <c r="A34" s="15" t="s">
         <v>142</v>
       </c>
@@ -3942,7 +3939,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15">
+    <row r="35" spans="1:22" ht="14.4">
       <c r="A35" s="15" t="s">
         <v>142</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -4000,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4012,7 +4009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15">
+    <row r="36" spans="1:22" ht="14.4">
       <c r="A36" s="15" t="s">
         <v>152</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15">
+    <row r="37" spans="1:22" ht="14.4">
       <c r="A37" s="15" t="s">
         <v>152</v>
       </c>
@@ -4119,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F47,0),1)</f>
@@ -4141,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4153,7 +4150,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15">
+    <row r="38" spans="1:22" ht="14.4">
       <c r="A38" s="15" t="s">
         <v>161</v>
       </c>
@@ -4191,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
@@ -4209,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4221,7 +4218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15">
+    <row r="39" spans="1:22" ht="14.4">
       <c r="A39" s="15" t="s">
         <v>161</v>
       </c>
@@ -4257,7 +4254,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M39" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -4279,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4291,7 +4288,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15">
+    <row r="40" spans="1:22" ht="14.4">
       <c r="A40" s="15" t="s">
         <v>195</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15">
+    <row r="41" spans="1:22" ht="14.4">
       <c r="A41" s="15" t="s">
         <v>195</v>
       </c>
@@ -4398,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M41" s="21" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -4420,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4432,7 +4429,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15">
+    <row r="42" spans="1:22" ht="14.4">
       <c r="A42" s="15" t="s">
         <v>205</v>
       </c>
@@ -4503,7 +4500,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15">
+    <row r="43" spans="1:22" ht="14.4">
       <c r="A43" s="15" t="s">
         <v>205</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4574,7 +4571,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15">
+    <row r="44" spans="1:22" ht="14.4">
       <c r="A44" s="15" t="s">
         <v>186</v>
       </c>
@@ -4645,7 +4642,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15">
+    <row r="45" spans="1:22" ht="14.4">
       <c r="A45" s="15" t="s">
         <v>186</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M45" s="21" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -4715,9 +4712,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15">
+    <row r="46" spans="1:22" ht="14.4">
       <c r="A46" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="16">
         <v>26</v>
@@ -4729,19 +4726,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
@@ -4783,12 +4780,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.4">
       <c r="A47" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="16">
         <v>26</v>
@@ -4800,19 +4797,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>101</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="J47" s="16">
         <v>26</v>
@@ -4845,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4854,81 +4851,80 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15">
-      <c r="A48" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="38" customFormat="1" ht="13.8">
+      <c r="A48" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="39">
         <v>22</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="39">
         <v>3</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="39">
         <v>22</v>
       </c>
-      <c r="K48" s="19">
-        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I44,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L48" s="20" t="str">
+      <c r="K48" s="39">
+        <v>72</v>
+      </c>
+      <c r="L48" s="40" t="str">
         <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M48" s="21" t="str">
+      <c r="M48" s="41" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="N48" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O48" s="16">
-        <v>1</v>
-      </c>
-      <c r="P48" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>1</v>
-      </c>
-      <c r="R48" s="16">
-        <v>1</v>
-      </c>
-      <c r="S48" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="T48" s="16">
-        <v>0</v>
-      </c>
-      <c r="U48" s="16">
-        <v>1</v>
-      </c>
-      <c r="V48" s="15" t="s">
+      <c r="O48" s="39">
+        <v>0</v>
+      </c>
+      <c r="P48" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="39">
+        <v>1</v>
+      </c>
+      <c r="R48" s="39">
+        <v>1</v>
+      </c>
+      <c r="S48" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="T48" s="39">
+        <v>0</v>
+      </c>
+      <c r="U48" s="39">
+        <v>0</v>
+      </c>
+      <c r="V48" s="38" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15">
+    <row r="49" spans="1:22" ht="14.4">
       <c r="A49" s="15" t="s">
         <v>215</v>
       </c>
@@ -4942,19 +4938,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="J49" s="16">
         <v>22</v>
@@ -4987,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -4999,7 +4995,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15">
+    <row r="50" spans="1:22" ht="14.4">
       <c r="A50" s="15" t="s">
         <v>215</v>
       </c>
@@ -5013,19 +5009,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>81</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="J50" s="16">
         <v>22</v>
@@ -5058,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5070,9 +5066,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15">
+    <row r="51" spans="1:22" ht="14.4">
       <c r="A51" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" s="16">
         <v>25</v>
@@ -5084,19 +5080,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
@@ -5124,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5133,12 +5129,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="14.4">
       <c r="A52" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B52" s="16">
         <v>25</v>
@@ -5150,19 +5146,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J52" s="16">
         <v>25</v>
@@ -5194,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5203,12 +5199,12 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="14.4">
       <c r="A53" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5220,19 +5216,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5274,12 +5270,12 @@
         <v>1</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="14.4">
       <c r="A54" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B54" s="16">
         <v>27</v>
@@ -5291,19 +5287,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="J54" s="16">
         <v>27</v>
@@ -5335,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T54" s="16">
         <v>0</v>
@@ -5344,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5364,34 +5360,34 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>275</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>276</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5413,14 +5409,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5435,14 +5431,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5457,14 +5453,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -5479,14 +5475,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>101</v>
@@ -5501,14 +5497,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5523,36 +5519,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5567,14 +5563,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>81</v>
@@ -5592,31 +5588,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>164</v>
@@ -5734,7 +5730,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="339">
   <si>
     <t>operator</t>
   </si>
@@ -1034,13 +1034,16 @@
   </si>
   <si>
     <t>Vault.Nokia</t>
+  </si>
+  <si>
+    <t>vault.Cataleya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1140,8 +1143,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,8 +1197,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1219,13 +1233,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1324,11 +1354,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1543,33 +1587,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1">
+    <row r="2" spans="1:22" ht="15.75" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.4">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
@@ -1848,7 +1892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.4">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
@@ -1914,7 +1958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.4">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -1985,7 +2029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4">
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2056,7 +2100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="13.8">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A8" s="38" t="s">
         <v>61</v>
       </c>
@@ -2126,7 +2170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
@@ -2197,7 +2241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="26" t="s">
         <v>135</v>
       </c>
@@ -2266,7 +2310,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.4">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="26" t="s">
         <v>135</v>
       </c>
@@ -2333,7 +2377,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.4">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
         <v>135</v>
       </c>
@@ -2402,77 +2446,77 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.4">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:22" s="50" customFormat="1" ht="15">
+      <c r="A13" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="45">
         <v>18</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="45">
         <v>3</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="45">
         <v>18</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="47">
         <v>40</v>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" s="48" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="21" t="str">
+      <c r="M13" s="49" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>1</v>
-      </c>
-      <c r="R13" s="16">
-        <v>1</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="16">
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
-        <v>0</v>
-      </c>
-      <c r="V13" s="15" t="s">
+      <c r="O13" s="45">
+        <v>0</v>
+      </c>
+      <c r="P13" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="45">
+        <v>1</v>
+      </c>
+      <c r="R13" s="45">
+        <v>1</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="T13" s="45">
+        <v>0</v>
+      </c>
+      <c r="U13" s="45">
+        <v>0</v>
+      </c>
+      <c r="V13" s="44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
         <v>171</v>
       </c>
@@ -2543,7 +2587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.4">
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
         <v>171</v>
       </c>
@@ -2614,7 +2658,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.4">
+    <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
         <v>71</v>
       </c>
@@ -2684,7 +2728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
@@ -2750,7 +2794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.4">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2813,7 +2857,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4">
+    <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
         <v>71</v>
       </c>
@@ -2882,7 +2926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.4">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
         <v>83</v>
       </c>
@@ -2953,7 +2997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.4">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
         <v>83</v>
       </c>
@@ -3024,7 +3068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.4">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
         <v>94</v>
       </c>
@@ -3095,7 +3139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.4">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="15" t="s">
         <v>94</v>
       </c>
@@ -3165,7 +3209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="14.4">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A24" s="15" t="s">
         <v>104</v>
       </c>
@@ -3235,7 +3279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="32" customFormat="1" ht="14.4">
+    <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A25" s="15" t="s">
         <v>104</v>
       </c>
@@ -3306,7 +3350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.4">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
         <v>115</v>
       </c>
@@ -3377,7 +3421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.4">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
         <v>115</v>
       </c>
@@ -3448,7 +3492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.4">
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
         <v>125</v>
       </c>
@@ -3519,7 +3563,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.4">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
         <v>125</v>
       </c>
@@ -3588,7 +3632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.4">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
         <v>240</v>
       </c>
@@ -3659,7 +3703,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="14.4">
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
         <v>240</v>
       </c>
@@ -3728,7 +3772,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.4">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
         <v>230</v>
       </c>
@@ -3799,7 +3843,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="14.4">
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
         <v>230</v>
       </c>
@@ -3868,7 +3912,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.4">
+    <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
         <v>142</v>
       </c>
@@ -3939,7 +3983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.4">
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
         <v>142</v>
       </c>
@@ -4009,7 +4053,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.4">
+    <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
         <v>152</v>
       </c>
@@ -4080,7 +4124,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.4">
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
         <v>152</v>
       </c>
@@ -4150,7 +4194,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.4">
+    <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
         <v>161</v>
       </c>
@@ -4218,7 +4262,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.4">
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
         <v>161</v>
       </c>
@@ -4288,7 +4332,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.4">
+    <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
         <v>195</v>
       </c>
@@ -4359,7 +4403,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.4">
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
         <v>195</v>
       </c>
@@ -4429,7 +4473,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.4">
+    <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
         <v>205</v>
       </c>
@@ -4500,7 +4544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="14.4">
+    <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
         <v>205</v>
       </c>
@@ -4571,7 +4615,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="14.4">
+    <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
         <v>186</v>
       </c>
@@ -4642,7 +4686,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="14.4">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
         <v>186</v>
       </c>
@@ -4712,7 +4756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="14.4">
+    <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
         <v>256</v>
       </c>
@@ -4783,7 +4827,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="14.4">
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
         <v>256</v>
       </c>
@@ -4854,7 +4898,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="38" customFormat="1" ht="13.8">
+    <row r="48" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A48" s="38" t="s">
         <v>215</v>
       </c>
@@ -4924,7 +4968,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="14.4">
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
         <v>215</v>
       </c>
@@ -4995,7 +5039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="14.4">
+    <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
         <v>215</v>
       </c>
@@ -5066,7 +5110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="14.4">
+    <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
         <v>303</v>
       </c>
@@ -5132,7 +5176,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="14.4">
+    <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
         <v>303</v>
       </c>
@@ -5202,7 +5246,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="14.4">
+    <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
         <v>265</v>
       </c>
@@ -5273,7 +5317,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="14.4">
+    <row r="54" spans="1:22" ht="15">
       <c r="A54" s="15" t="s">
         <v>265</v>
       </c>
@@ -5360,11 +5404,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,9 +169,6 @@
     <t>c:\telcobright\vault\resources\cdr\banglaTelecom\tdm</t>
   </si>
   <si>
-    <t>this.vaultPrimary.Name</t>
-  </si>
-  <si>
     <t>banglaicx</t>
   </si>
   <si>
@@ -829,9 +826,6 @@
     <t>t$"Zqe=7=;qjc9mS</t>
   </si>
   <si>
-    <t>j:\telcobright\vault\resources\cdr\voiceTel\ip</t>
-  </si>
-  <si>
     <t>10.154.150.58</t>
   </si>
   <si>
@@ -841,9 +835,6 @@
     <t>7ssLh!Evz612</t>
   </si>
   <si>
-    <t>j:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
-  </si>
-  <si>
     <t>PREF</t>
   </si>
   <si>
@@ -1037,6 +1028,15 @@
   </si>
   <si>
     <t>vault.Cataleya</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\voiceTel\ip</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
+  </si>
+  <si>
+    <t>vault.Reve</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1350,6 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,6 +1363,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1587,9 +1587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="4" spans="1:22" ht="15">
       <c r="A4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="16">
         <v>3</v>
@@ -1836,19 +1836,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="J4" s="16">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="T4" s="16">
         <v>0</v>
@@ -1889,12 +1889,12 @@
         <v>0</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
       <c r="A5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="16">
         <v>3</v>
@@ -1906,19 +1906,19 @@
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="J5" s="16">
         <v>3</v>
@@ -1927,7 +1927,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T5" s="16">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15">
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A8" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="39">
         <v>4</v>
@@ -2114,19 +2114,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="G8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="I8" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="J8" s="39">
         <v>4</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T8" s="39">
         <v>0</v>
@@ -2167,12 +2167,12 @@
         <v>0</v>
       </c>
       <c r="V8" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15">
       <c r="A9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="16">
         <v>4</v>
@@ -2184,19 +2184,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="J9" s="16">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2238,12 +2238,12 @@
         <v>1</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15">
       <c r="A10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="27">
         <v>12</v>
@@ -2255,17 +2255,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T10" s="27">
         <v>0</v>
@@ -2307,12 +2307,12 @@
         <v>1</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15">
       <c r="A11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="27">
         <v>12</v>
@@ -2325,16 +2325,16 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -2343,7 +2343,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -2374,12 +2374,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="16">
         <v>12</v>
@@ -2391,19 +2391,19 @@
         <v>29</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J12" s="16">
         <v>12</v>
@@ -2412,7 +2412,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2443,82 +2443,82 @@
         <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="50" customFormat="1" ht="15">
-      <c r="A13" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="48" customFormat="1" ht="15">
+      <c r="A13" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="43">
+        <v>18</v>
+      </c>
+      <c r="C13" s="43">
+        <v>3</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="45">
+      <c r="F13" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="43">
         <v>18</v>
       </c>
-      <c r="C13" s="45">
-        <v>3</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="45">
-        <v>18</v>
-      </c>
-      <c r="K13" s="47">
+      <c r="K13" s="45">
         <v>40</v>
       </c>
-      <c r="L13" s="48" t="str">
+      <c r="L13" s="46" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="49" t="str">
+      <c r="M13" s="47" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="45">
-        <v>0</v>
-      </c>
-      <c r="P13" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="45">
-        <v>1</v>
-      </c>
-      <c r="R13" s="45">
-        <v>1</v>
-      </c>
-      <c r="S13" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="T13" s="45">
-        <v>0</v>
-      </c>
-      <c r="U13" s="45">
-        <v>0</v>
-      </c>
-      <c r="V13" s="44" t="s">
-        <v>171</v>
+      <c r="O13" s="43">
+        <v>0</v>
+      </c>
+      <c r="P13" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>1</v>
+      </c>
+      <c r="R13" s="43">
+        <v>1</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="T13" s="43">
+        <v>0</v>
+      </c>
+      <c r="U13" s="43">
+        <v>0</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="16">
         <v>18</v>
@@ -2530,19 +2530,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="J14" s="16">
         <v>18</v>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2584,12 +2584,12 @@
         <v>1</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="16">
         <v>18</v>
@@ -2601,19 +2601,19 @@
         <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="J15" s="16">
         <v>18</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2655,12 +2655,12 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="16">
         <v>6</v>
@@ -2672,19 +2672,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="J16" s="16">
         <v>6</v>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2725,12 +2725,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="16">
         <v>6</v>
@@ -2742,19 +2742,19 @@
         <v>29</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="J17" s="16">
         <v>6</v>
@@ -2763,7 +2763,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T17" s="16">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
@@ -2802,19 +2802,19 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="H18" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -2823,7 +2823,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M18" s="21" t="str">
         <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2854,12 +2854,12 @@
         <v>1</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="16">
         <v>6</v>
@@ -2871,19 +2871,19 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>332</v>
       </c>
       <c r="J19" s="16">
         <v>6</v>
@@ -2892,7 +2892,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M19" s="21" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2923,12 +2923,12 @@
         <v>1</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="16">
         <v>7</v>
@@ -2940,19 +2940,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="J20" s="16">
         <v>7</v>
@@ -2985,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -2994,12 +2994,12 @@
         <v>0</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="16">
         <v>7</v>
@@ -3011,19 +3011,19 @@
         <v>29</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="J21" s="16">
         <v>7</v>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -3065,12 +3065,12 @@
         <v>0</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="16">
         <v>8</v>
@@ -3082,19 +3082,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="G22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="J22" s="16">
         <v>8</v>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3136,12 +3136,12 @@
         <v>1</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15">
       <c r="A23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="16">
         <v>8</v>
@@ -3153,19 +3153,19 @@
         <v>29</v>
       </c>
       <c r="E23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J23" s="16">
         <v>8</v>
@@ -3175,7 +3175,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M23" s="21" t="str">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F35,0),1)</f>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T23" s="16">
         <v>0</v>
@@ -3206,12 +3206,12 @@
         <v>0</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A24" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="16">
         <v>9</v>
@@ -3223,19 +3223,19 @@
         <v>4</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="J24" s="16">
         <v>9</v>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3276,12 +3276,12 @@
         <v>0</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="16">
         <v>9</v>
@@ -3293,19 +3293,19 @@
         <v>29</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="G25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="J25" s="16">
         <v>9</v>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
@@ -3347,12 +3347,12 @@
         <v>0</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="16">
         <v>10</v>
@@ -3364,19 +3364,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="G26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="J26" s="16">
         <v>10</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3418,12 +3418,12 @@
         <v>1</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="16">
         <v>10</v>
@@ -3435,19 +3435,19 @@
         <v>29</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="J27" s="16">
         <v>10</v>
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T27" s="16">
         <v>0</v>
@@ -3489,12 +3489,12 @@
         <v>1</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="16">
         <v>11</v>
@@ -3506,19 +3506,19 @@
         <v>4</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="J28" s="16">
         <v>11</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T28" s="16">
         <v>0</v>
@@ -3560,12 +3560,12 @@
         <v>1</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="16">
         <v>11</v>
@@ -3577,19 +3577,19 @@
         <v>29</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="J29" s="16">
         <v>11</v>
@@ -3598,7 +3598,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M29" s="21" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3629,12 +3629,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="16">
         <v>24</v>
@@ -3646,19 +3646,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T30" s="16">
         <v>1</v>
@@ -3700,12 +3700,12 @@
         <v>1</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="16">
         <v>24</v>
@@ -3717,19 +3717,19 @@
         <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="G31" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J31" s="16">
         <v>24</v>
@@ -3738,7 +3738,7 @@
         <v>74</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M31" s="21" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3769,12 +3769,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="16">
         <v>23</v>
@@ -3786,19 +3786,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="J32" s="16">
         <v>23</v>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -3840,12 +3840,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="16">
         <v>23</v>
@@ -3857,19 +3857,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="J33" s="16">
         <v>23</v>
@@ -3878,7 +3878,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M33" s="21" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3909,12 +3909,12 @@
         <v>0</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="16">
         <v>15</v>
@@ -3926,19 +3926,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="J34" s="16">
         <v>15</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T34" s="16">
         <v>0</v>
@@ -3980,12 +3980,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="16">
         <v>15</v>
@@ -3997,19 +3997,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="J35" s="16">
         <v>15</v>
@@ -4019,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4050,12 +4050,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="16">
         <v>16</v>
@@ -4067,19 +4067,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="G36" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="I36" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="J36" s="16">
         <v>16</v>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4121,12 +4121,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="16">
         <v>16</v>
@@ -4138,19 +4138,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="J37" s="16">
         <v>16</v>
@@ -4160,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F47,0),1)</f>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4191,12 +4191,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -4208,19 +4208,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="G38" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="H38" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="I38" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="J38" s="16">
         <v>17</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4259,12 +4259,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -4276,19 +4276,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="G39" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="15" t="s">
+      <c r="I39" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="J39" s="16">
         <v>17</v>
@@ -4298,7 +4298,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M39" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4329,12 +4329,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="16">
         <v>20</v>
@@ -4346,19 +4346,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="J40" s="16">
         <v>20</v>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4400,12 +4400,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="16">
         <v>20</v>
@@ -4417,19 +4417,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="J41" s="16">
         <v>20</v>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M41" s="21" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4470,12 +4470,12 @@
         <v>0</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="16">
         <v>21</v>
@@ -4487,19 +4487,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="G42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="J42" s="16">
         <v>21</v>
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4541,12 +4541,12 @@
         <v>0</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="16">
         <v>21</v>
@@ -4558,19 +4558,19 @@
         <v>29</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="J43" s="16">
         <v>21</v>
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4612,12 +4612,12 @@
         <v>0</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="16">
         <v>19</v>
@@ -4629,19 +4629,19 @@
         <v>4</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="J44" s="16">
         <v>19</v>
@@ -4683,12 +4683,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="16">
         <v>19</v>
@@ -4700,19 +4700,19 @@
         <v>29</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="J45" s="16">
         <v>19</v>
@@ -4722,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M45" s="21" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -4753,12 +4753,12 @@
         <v>0</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" s="16">
         <v>26</v>
@@ -4770,19 +4770,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
@@ -4824,12 +4824,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B47" s="16">
         <v>26</v>
@@ -4841,19 +4841,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="G47" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="J47" s="16">
         <v>26</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4895,12 +4895,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A48" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" s="39">
         <v>22</v>
@@ -4912,19 +4912,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="G48" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="38" t="s">
+      <c r="I48" s="38" t="s">
         <v>218</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>219</v>
       </c>
       <c r="J48" s="39">
         <v>22</v>
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="T48" s="39">
         <v>0</v>
@@ -4965,12 +4965,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" s="16">
         <v>22</v>
@@ -4982,19 +4982,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="J49" s="16">
         <v>22</v>
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -5036,12 +5036,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="16">
         <v>22</v>
@@ -5053,19 +5053,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="G50" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="J50" s="16">
         <v>22</v>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5107,12 +5107,12 @@
         <v>1</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B51" s="16">
         <v>25</v>
@@ -5124,19 +5124,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5173,12 +5173,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B52" s="16">
         <v>25</v>
@@ -5190,19 +5190,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J52" s="16">
         <v>25</v>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5243,12 +5243,12 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5260,26 +5260,25 @@
         <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
       </c>
       <c r="K53" s="19">
-        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I55,0),1)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L53" s="20" t="str">
         <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
@@ -5293,10 +5292,10 @@
         <v>27</v>
       </c>
       <c r="O53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="16">
         <v>1</v>
@@ -5305,21 +5304,21 @@
         <v>1</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
       </c>
       <c r="U53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15">
       <c r="A54" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" s="16">
         <v>27</v>
@@ -5331,19 +5330,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="J54" s="16">
         <v>27</v>
@@ -5363,10 +5362,10 @@
         <v>27</v>
       </c>
       <c r="O54" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="16">
         <v>1</v>
@@ -5375,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="T54" s="16">
         <v>0</v>
@@ -5384,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5414,24 +5413,24 @@
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5453,14 +5452,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5475,14 +5474,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5497,58 +5496,58 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8">
         <v>25</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5">
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5563,36 +5562,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5607,24 +5606,24 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
@@ -5632,41 +5631,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5773,27 +5772,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="C25" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="338">
   <si>
     <t>operator</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>g:\telcobright\vault\resources\cdr\mnh\ip</t>
-  </si>
-  <si>
-    <t>mnh_10.255.200.25_CATALEYA</t>
   </si>
   <si>
     <t>10.154.150.25</t>
@@ -1043,7 +1040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1149,8 +1146,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,6 +1206,11 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1249,13 +1258,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1367,9 +1377,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
@@ -1587,33 +1606,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1">
+    <row r="2" spans="1:22" ht="15" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1751,7 +1770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22" ht="14.4">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1822,7 +1841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" ht="14.4">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T4" s="16">
         <v>0</v>
@@ -1892,7 +1911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22" ht="14.4">
       <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1946,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
@@ -1958,7 +1977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22" ht="14.4">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15">
+    <row r="7" spans="1:22" ht="14.4">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2088,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2100,7 +2119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="13.8">
       <c r="A8" s="38" t="s">
         <v>60</v>
       </c>
@@ -2170,7 +2189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15">
+    <row r="9" spans="1:22" ht="14.4">
       <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
@@ -2229,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2241,9 +2260,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22" ht="14.4">
       <c r="A10" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="27">
         <v>12</v>
@@ -2255,17 +2274,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>136</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>138</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -2298,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T10" s="27">
         <v>0</v>
@@ -2307,12 +2326,12 @@
         <v>1</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.4">
       <c r="A11" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="27">
         <v>12</v>
@@ -2325,16 +2344,16 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>318</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>319</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -2343,7 +2362,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2365,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -2374,12 +2393,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.4">
       <c r="A12" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="16">
         <v>12</v>
@@ -2391,19 +2410,19 @@
         <v>29</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J12" s="16">
         <v>12</v>
@@ -2412,7 +2431,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2434,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2443,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="48" customFormat="1" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="48" customFormat="1" ht="14.4">
       <c r="A13" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="43">
         <v>18</v>
@@ -2460,19 +2479,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>172</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>173</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>174</v>
       </c>
       <c r="J13" s="43">
         <v>18</v>
@@ -2504,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T13" s="43">
         <v>0</v>
@@ -2513,12 +2532,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.4">
       <c r="A14" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="16">
         <v>18</v>
@@ -2530,19 +2549,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="J14" s="16">
         <v>18</v>
@@ -2575,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T14" s="16">
         <v>0</v>
@@ -2584,12 +2603,12 @@
         <v>1</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.4">
       <c r="A15" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="16">
         <v>18</v>
@@ -2601,19 +2620,19 @@
         <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="J15" s="16">
         <v>18</v>
@@ -2646,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" s="16">
         <v>0</v>
@@ -2655,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.4">
       <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
@@ -2716,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2728,7 +2747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22" ht="14.4">
       <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
@@ -2763,7 +2782,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
@@ -2794,7 +2813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.4">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2805,7 +2824,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>80</v>
@@ -2814,7 +2833,7 @@
         <v>81</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -2823,7 +2842,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M18" s="21" t="str">
         <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
@@ -2845,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2857,7 +2876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22" ht="14.4">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -2871,19 +2890,19 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J19" s="16">
         <v>6</v>
@@ -2892,7 +2911,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M19" s="21" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
@@ -2914,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2926,7 +2945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15">
+    <row r="20" spans="1:22" ht="14.4">
       <c r="A20" s="15" t="s">
         <v>82</v>
       </c>
@@ -2997,7 +3016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15">
+    <row r="21" spans="1:22" ht="14.4">
       <c r="A21" s="15" t="s">
         <v>82</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15">
+    <row r="22" spans="1:22" ht="14.4">
       <c r="A22" s="15" t="s">
         <v>93</v>
       </c>
@@ -3139,7 +3158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15">
+    <row r="23" spans="1:22" ht="14.4">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M23" s="21" t="str">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F35,0),1)</f>
@@ -3209,7 +3228,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="14.4">
       <c r="A24" s="15" t="s">
         <v>103</v>
       </c>
@@ -3279,7 +3298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
+    <row r="25" spans="1:22" s="32" customFormat="1" ht="14.4">
       <c r="A25" s="15" t="s">
         <v>103</v>
       </c>
@@ -3350,7 +3369,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15">
+    <row r="26" spans="1:22" ht="14.4">
       <c r="A26" s="15" t="s">
         <v>114</v>
       </c>
@@ -3421,7 +3440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15">
+    <row r="27" spans="1:22" ht="14.4">
       <c r="A27" s="15" t="s">
         <v>114</v>
       </c>
@@ -3492,78 +3511,77 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:22" s="51" customFormat="1" ht="13.8">
+      <c r="A28" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="52">
         <v>11</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="52">
         <v>2</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="52">
         <v>11</v>
       </c>
-      <c r="K28" s="19">
-        <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I25,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L28" s="20" t="str">
+      <c r="K28" s="52">
+        <v>730</v>
+      </c>
+      <c r="L28" s="53" t="str">
         <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M28" s="21" t="str">
+      <c r="M28" s="54" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="16">
-        <v>1</v>
-      </c>
-      <c r="P28" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="16">
-        <v>1</v>
-      </c>
-      <c r="R28" s="16">
-        <v>1</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="T28" s="16">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16">
-        <v>1</v>
-      </c>
-      <c r="V28" s="15" t="s">
+      <c r="O28" s="52">
+        <v>0</v>
+      </c>
+      <c r="P28" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>1</v>
+      </c>
+      <c r="R28" s="52">
+        <v>1</v>
+      </c>
+      <c r="S28" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="T28" s="52">
+        <v>0</v>
+      </c>
+      <c r="U28" s="52">
+        <v>0</v>
+      </c>
+      <c r="V28" s="51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15">
+    <row r="29" spans="1:22" ht="14.4">
       <c r="A29" s="15" t="s">
         <v>124</v>
       </c>
@@ -3577,19 +3595,19 @@
         <v>29</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="J29" s="16">
         <v>11</v>
@@ -3598,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M29" s="21" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -3620,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3632,9 +3650,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15">
+    <row r="30" spans="1:22" ht="14.4">
       <c r="A30" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="16">
         <v>24</v>
@@ -3646,19 +3664,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -3691,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T30" s="16">
         <v>1</v>
@@ -3700,12 +3718,12 @@
         <v>1</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="14.4">
       <c r="A31" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="16">
         <v>24</v>
@@ -3717,19 +3735,19 @@
         <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="G31" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>247</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J31" s="16">
         <v>24</v>
@@ -3738,7 +3756,7 @@
         <v>74</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M31" s="21" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
@@ -3760,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3769,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="14.4">
       <c r="A32" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="16">
         <v>23</v>
@@ -3786,19 +3804,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="J32" s="16">
         <v>23</v>
@@ -3840,12 +3858,12 @@
         <v>1</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="14.4">
       <c r="A33" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="16">
         <v>23</v>
@@ -3857,19 +3875,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="J33" s="16">
         <v>23</v>
@@ -3878,7 +3896,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M33" s="21" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
@@ -3900,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3909,12 +3927,12 @@
         <v>0</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.4">
       <c r="A34" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="16">
         <v>15</v>
@@ -3926,19 +3944,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="J34" s="16">
         <v>15</v>
@@ -3971,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T34" s="16">
         <v>0</v>
@@ -3980,12 +3998,12 @@
         <v>1</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="14.4">
       <c r="A35" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="16">
         <v>15</v>
@@ -3997,19 +4015,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="J35" s="16">
         <v>15</v>
@@ -4019,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -4041,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4050,12 +4068,12 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.4">
       <c r="A36" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="16">
         <v>16</v>
@@ -4067,19 +4085,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="J36" s="16">
         <v>16</v>
@@ -4121,12 +4139,12 @@
         <v>1</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="14.4">
       <c r="A37" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="16">
         <v>16</v>
@@ -4138,19 +4156,19 @@
         <v>29</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="J37" s="16">
         <v>16</v>
@@ -4160,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M37" s="21" t="str">
         <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F47,0),1)</f>
@@ -4182,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4191,12 +4209,12 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="14.4">
       <c r="A38" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -4208,19 +4226,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="G38" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="H38" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="I38" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="J38" s="16">
         <v>17</v>
@@ -4232,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
@@ -4250,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4259,12 +4277,12 @@
         <v>0</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="14.4">
       <c r="A39" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -4276,19 +4294,19 @@
         <v>29</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>100</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="J39" s="16">
         <v>17</v>
@@ -4298,7 +4316,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M39" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -4320,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4329,12 +4347,12 @@
         <v>0</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="14.4">
       <c r="A40" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="16">
         <v>20</v>
@@ -4346,19 +4364,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="J40" s="16">
         <v>20</v>
@@ -4391,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
@@ -4400,12 +4418,12 @@
         <v>1</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="14.4">
       <c r="A41" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="16">
         <v>20</v>
@@ -4417,19 +4435,19 @@
         <v>29</v>
       </c>
       <c r="E41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="J41" s="16">
         <v>20</v>
@@ -4439,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M41" s="21" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -4461,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4470,12 +4488,12 @@
         <v>0</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="14.4">
       <c r="A42" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="16">
         <v>21</v>
@@ -4487,19 +4505,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="J42" s="16">
         <v>21</v>
@@ -4532,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4541,12 +4559,12 @@
         <v>0</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="14.4">
       <c r="A43" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="16">
         <v>21</v>
@@ -4558,19 +4576,19 @@
         <v>29</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="J43" s="16">
         <v>21</v>
@@ -4603,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4612,12 +4630,12 @@
         <v>0</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="14.4">
       <c r="A44" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="16">
         <v>19</v>
@@ -4629,19 +4647,19 @@
         <v>4</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H44" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="J44" s="16">
         <v>19</v>
@@ -4683,12 +4701,12 @@
         <v>1</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="14.4">
       <c r="A45" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="16">
         <v>19</v>
@@ -4700,19 +4718,19 @@
         <v>29</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H45" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="J45" s="16">
         <v>19</v>
@@ -4722,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M45" s="21" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -4753,12 +4771,12 @@
         <v>0</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="14.4">
       <c r="A46" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" s="16">
         <v>26</v>
@@ -4770,19 +4788,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
@@ -4824,12 +4842,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.4">
       <c r="A47" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B47" s="16">
         <v>26</v>
@@ -4841,19 +4859,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="J47" s="16">
         <v>26</v>
@@ -4886,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4895,12 +4913,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="38" customFormat="1" ht="14.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="38" customFormat="1" ht="13.8">
       <c r="A48" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="39">
         <v>22</v>
@@ -4912,19 +4930,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>216</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H48" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="38" t="s">
         <v>217</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>218</v>
       </c>
       <c r="J48" s="39">
         <v>22</v>
@@ -4956,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T48" s="39">
         <v>0</v>
@@ -4965,12 +4983,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="14.4">
       <c r="A49" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" s="16">
         <v>22</v>
@@ -4982,19 +5000,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="J49" s="16">
         <v>22</v>
@@ -5027,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -5036,12 +5054,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="14.4">
       <c r="A50" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="16">
         <v>22</v>
@@ -5053,19 +5071,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="J50" s="16">
         <v>22</v>
@@ -5098,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5107,12 +5125,12 @@
         <v>1</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="14.4">
       <c r="A51" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B51" s="16">
         <v>25</v>
@@ -5124,19 +5142,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
@@ -5164,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5173,12 +5191,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="14.4">
       <c r="A52" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B52" s="16">
         <v>25</v>
@@ -5190,19 +5208,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J52" s="16">
         <v>25</v>
@@ -5234,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5243,12 +5261,12 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="14.4">
       <c r="A53" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5260,19 +5278,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5304,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
@@ -5313,12 +5331,12 @@
         <v>0</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="14.4">
       <c r="A54" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54" s="16">
         <v>27</v>
@@ -5330,19 +5348,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J54" s="16">
         <v>27</v>
@@ -5374,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T54" s="16">
         <v>0</v>
@@ -5383,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5403,34 +5421,34 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>272</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5452,14 +5470,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5474,14 +5492,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5496,14 +5514,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>52</v>
@@ -5518,14 +5536,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>100</v>
@@ -5540,14 +5558,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5562,36 +5580,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5606,14 +5624,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>80</v>
@@ -5631,41 +5649,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
@@ -5773,7 +5791,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1373,10 +1373,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,6 +1381,10 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1606,9 +1606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3511,73 +3511,73 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="51" customFormat="1" ht="13.8">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:22" s="49" customFormat="1" ht="13.8">
+      <c r="A28" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="50">
         <v>11</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="50">
         <v>2</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="50">
         <v>11</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="50">
         <v>730</v>
       </c>
-      <c r="L28" s="53" t="str">
+      <c r="L28" s="51" t="str">
         <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M28" s="54" t="str">
+      <c r="M28" s="52" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="52">
-        <v>0</v>
-      </c>
-      <c r="P28" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="52">
-        <v>1</v>
-      </c>
-      <c r="R28" s="52">
-        <v>1</v>
-      </c>
-      <c r="S28" s="51" t="s">
+      <c r="O28" s="50">
+        <v>0</v>
+      </c>
+      <c r="P28" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="50">
+        <v>1</v>
+      </c>
+      <c r="R28" s="50">
+        <v>1</v>
+      </c>
+      <c r="S28" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="T28" s="52">
-        <v>0</v>
-      </c>
-      <c r="U28" s="52">
-        <v>0</v>
-      </c>
-      <c r="V28" s="51" t="s">
+      <c r="T28" s="50">
+        <v>0</v>
+      </c>
+      <c r="U28" s="50">
+        <v>0</v>
+      </c>
+      <c r="V28" s="49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3790,74 +3790,73 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.4">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:22" s="49" customFormat="1" ht="13.8">
+      <c r="A32" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="50">
         <v>23</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="50">
         <v>2</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="50">
         <v>23</v>
       </c>
-      <c r="K32" s="19">
-        <f t="array" ref="K32">INDEX(Sheet2!$H$2:$I$21,MATCH(G32,Sheet2!$I$2:I47,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L32" s="20" t="str">
+      <c r="K32" s="50">
+        <v>29</v>
+      </c>
+      <c r="L32" s="51" t="str">
         <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M32" s="21" t="str">
+      <c r="M32" s="52" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="16">
-        <v>1</v>
-      </c>
-      <c r="P32" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="16">
-        <v>1</v>
-      </c>
-      <c r="R32" s="16">
-        <v>1</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="T32" s="16">
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
-        <v>1</v>
-      </c>
-      <c r="V32" s="15" t="s">
+      <c r="O32" s="50">
+        <v>0</v>
+      </c>
+      <c r="P32" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="50">
+        <v>1</v>
+      </c>
+      <c r="R32" s="50">
+        <v>1</v>
+      </c>
+      <c r="S32" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="T32" s="50">
+        <v>0</v>
+      </c>
+      <c r="U32" s="50">
+        <v>0</v>
+      </c>
+      <c r="V32" s="49" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5790,27 +5789,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -646,9 +649,6 @@
     <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
   </si>
   <si>
-    <t>softex_10.255.200.52_CATALEYA</t>
-  </si>
-  <si>
     <t>10.154.150.52</t>
   </si>
   <si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>vault.Reve</t>
+  </si>
+  <si>
+    <t>Vault.Zte</t>
   </si>
 </sst>
 </file>
@@ -1406,6 +1409,224 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NE automation data"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>b</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>HUWAEI</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>.dat</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>HUWAEI</v>
+          </cell>
+          <cell r="H2">
+            <v>3</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>HUWAEI</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>VCDR</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>GENBAND</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>.gz</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>GENBAND</v>
+          </cell>
+          <cell r="H3">
+            <v>31</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>GENBAND</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>esdr</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>CATALEYA</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>.txt</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>CATALEYA</v>
+          </cell>
+          <cell r="H4">
+            <v>25</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>CATALEYA</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>ICX</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>ZTE</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>.DAT</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>ZTE</v>
+          </cell>
+          <cell r="H5">
+            <v>17</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>ZTE</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>cdr</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>REVE</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>.csv</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>REVE</v>
+          </cell>
+          <cell r="H6">
+            <v>28</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>REVE</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>CF</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>NOKIA</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>.DAT</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>NOKIA</v>
+          </cell>
+          <cell r="H7">
+            <v>36</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>NOKIA</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>sdr</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>DIALOGIC</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>.gz</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>DIALOGIC</v>
+          </cell>
+          <cell r="H8">
+            <v>27</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>DIALOGIC</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>cdr</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>TELCOBRIDGE</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>.log</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>TELCOBRIDGE</v>
+          </cell>
+          <cell r="H9">
+            <v>37</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>TELCOBRIDGE</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>2</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>WTL</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>WTL</v>
+          </cell>
+          <cell r="H10">
+            <v>38</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>WTL</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>CDR</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>GNEW</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>.csv</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>GNEW</v>
+          </cell>
+          <cell r="H11">
+            <v>39</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>GNEW</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>PLEASE DO NOT MODIFY ANYTHING IN THIS SHEET</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1607,32 +1828,32 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1">
+    <row r="2" spans="1:22" ht="15.75" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1770,7 +1991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.4">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -1841,7 +2062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -1899,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T4" s="16">
         <v>0</v>
@@ -1911,7 +2132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.4">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
@@ -1946,7 +2167,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="15" t="s">
@@ -1977,7 +2198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.4">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4">
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T7" s="16">
         <v>0</v>
@@ -2119,7 +2340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="13.8">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A8" s="38" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
@@ -2248,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2260,7 +2481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="26" t="s">
         <v>133</v>
       </c>
@@ -2329,7 +2550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.4">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="26" t="s">
         <v>133</v>
       </c>
@@ -2344,16 +2565,16 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>318</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -2362,7 +2583,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2384,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -2396,7 +2617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.4">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
         <v>133</v>
       </c>
@@ -2410,10 +2631,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>46</v>
@@ -2422,7 +2643,7 @@
         <v>139</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J12" s="16">
         <v>12</v>
@@ -2431,7 +2652,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2453,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T12" s="16">
         <v>0</v>
@@ -2465,7 +2686,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="48" customFormat="1" ht="14.4">
+    <row r="13" spans="1:22" s="48" customFormat="1" ht="15">
       <c r="A13" s="42" t="s">
         <v>169</v>
       </c>
@@ -2523,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T13" s="43">
         <v>0</v>
@@ -2535,7 +2756,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
         <v>169</v>
       </c>
@@ -2606,7 +2827,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.4">
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
         <v>169</v>
       </c>
@@ -2677,7 +2898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.4">
+    <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
@@ -2735,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T16" s="16">
         <v>0</v>
@@ -2747,7 +2968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
@@ -2782,7 +3003,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
@@ -2813,7 +3034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.4">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2824,7 +3045,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>80</v>
@@ -2833,7 +3054,7 @@
         <v>81</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -2842,7 +3063,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M18" s="21" t="str">
         <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
@@ -2864,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -2876,7 +3097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4">
+    <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -2890,19 +3111,19 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J19" s="16">
         <v>6</v>
@@ -2911,7 +3132,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M19" s="21" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
@@ -2933,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
@@ -2945,7 +3166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.4">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
         <v>82</v>
       </c>
@@ -3016,7 +3237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.4">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
         <v>82</v>
       </c>
@@ -3087,7 +3308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.4">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
         <v>93</v>
       </c>
@@ -3119,25 +3340,25 @@
         <v>8</v>
       </c>
       <c r="K22" s="19">
-        <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I19,0),1)</f>
+        <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
       <c r="L22" s="20" t="str">
-        <f t="array" ref="L22">INDEX(Sheet2!$B$2:$C$21,MATCH(G22,Sheet2!$C$2:C34,0),1)</f>
+        <f t="array" ref="L22">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G22,[1]Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
       <c r="M22" s="21" t="str">
-        <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F34,0),1)</f>
+        <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="16">
         <v>1</v>
@@ -3146,19 +3367,19 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
       </c>
       <c r="U22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.4">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
@@ -3190,14 +3411,14 @@
         <v>8</v>
       </c>
       <c r="K23" s="19">
-        <f t="array" ref="K23">INDEX(Sheet2!$H$2:$I$21,MATCH(G23,Sheet2!$I$2:I20,0),1)</f>
+        <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M23" s="21" t="str">
-        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F35,0),1)</f>
+        <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N23" s="15" t="s">
@@ -3216,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="T23" s="16">
         <v>0</v>
@@ -3228,7 +3449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="14.4">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A24" s="15" t="s">
         <v>103</v>
       </c>
@@ -3298,7 +3519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="32" customFormat="1" ht="14.4">
+    <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A25" s="15" t="s">
         <v>103</v>
       </c>
@@ -3369,7 +3590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.4">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
         <v>114</v>
       </c>
@@ -3440,7 +3661,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.4">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="15" t="s">
         <v>114</v>
       </c>
@@ -3511,7 +3732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="49" customFormat="1" ht="13.8">
+    <row r="28" spans="1:22" s="49" customFormat="1" ht="14.25">
       <c r="A28" s="49" t="s">
         <v>124</v>
       </c>
@@ -3569,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T28" s="50">
         <v>0</v>
@@ -3581,7 +3802,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.4">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
         <v>124</v>
       </c>
@@ -3616,7 +3837,7 @@
         <v>68</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M29" s="21" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
@@ -3638,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -3650,9 +3871,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.4">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="16">
         <v>24</v>
@@ -3664,19 +3885,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -3709,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T30" s="16">
         <v>1</v>
@@ -3718,12 +3939,12 @@
         <v>1</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="14.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15">
       <c r="A31" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="16">
         <v>24</v>
@@ -3735,19 +3956,19 @@
         <v>29</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="G31" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J31" s="16">
         <v>24</v>
@@ -3756,7 +3977,7 @@
         <v>74</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M31" s="21" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
@@ -3778,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T31" s="16">
         <v>0</v>
@@ -3787,12 +4008,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="49" customFormat="1" ht="13.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="49" customFormat="1" ht="14.25">
       <c r="A32" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="50">
         <v>23</v>
@@ -3804,19 +4025,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="49" t="s">
         <v>229</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>230</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="49" t="s">
         <v>231</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>232</v>
       </c>
       <c r="J32" s="50">
         <v>23</v>
@@ -3848,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T32" s="50">
         <v>0</v>
@@ -3857,12 +4078,12 @@
         <v>0</v>
       </c>
       <c r="V32" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="14.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="16">
         <v>23</v>
@@ -3874,19 +4095,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="J33" s="16">
         <v>23</v>
@@ -3895,7 +4116,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M33" s="21" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
@@ -3917,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
@@ -3926,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="14.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
         <v>140</v>
       </c>
@@ -4000,7 +4221,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.4">
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
         <v>140</v>
       </c>
@@ -4036,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M35" s="21" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
@@ -4058,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4070,7 +4291,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.4">
+    <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
         <v>150</v>
       </c>
@@ -4102,25 +4323,24 @@
         <v>16</v>
       </c>
       <c r="K36" s="19">
-        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I31,0),1)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L36" s="20" t="str">
-        <f t="array" ref="L36">INDEX(Sheet2!$B$2:$C$21,MATCH(G36,Sheet2!$C$2:C46,0),1)</f>
+        <f t="array" ref="L36">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G36,[1]Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F46,0),1)</f>
+        <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="16">
         <v>1</v>
@@ -4129,19 +4349,19 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
       </c>
       <c r="U36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.4">
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
         <v>150</v>
       </c>
@@ -4173,14 +4393,14 @@
         <v>16</v>
       </c>
       <c r="K37" s="19">
-        <f t="array" ref="K37">INDEX(Sheet2!$H$2:$I$21,MATCH(G37,Sheet2!$I$2:I32,0),1)</f>
+        <f t="array" ref="K37">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G37,[1]Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M37" s="21" t="str">
-        <f t="array" ref="M37">INDEX(Sheet2!$E$2:$F$21,MATCH(G37,Sheet2!$F$2:F47,0),1)</f>
+        <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N37" s="15" t="s">
@@ -4199,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4211,7 +4431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.4">
+    <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
         <v>159</v>
       </c>
@@ -4249,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
@@ -4267,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4279,7 +4499,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.4">
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
         <v>159</v>
       </c>
@@ -4315,7 +4535,7 @@
         <v>17</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M39" s="21" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
@@ -4337,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
@@ -4349,7 +4569,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.4">
+    <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
         <v>193</v>
       </c>
@@ -4420,7 +4640,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.4">
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
         <v>193</v>
       </c>
@@ -4456,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M41" s="21" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
@@ -4478,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4490,7 +4710,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.4">
+    <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
         <v>203</v>
       </c>
@@ -4522,25 +4742,24 @@
         <v>21</v>
       </c>
       <c r="K42" s="19">
-        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I42,0),1)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L42" s="20" t="str">
-        <f t="array" ref="L42">INDEX(Sheet2!$B$2:$C$21,MATCH(G42,Sheet2!$C$2:C57,0),1)</f>
+        <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F57,0),1)</f>
+        <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="16">
         <v>1</v>
@@ -4549,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4561,7 +4780,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="14.4">
+    <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
         <v>203</v>
       </c>
@@ -4575,33 +4794,33 @@
         <v>29</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="J43" s="16">
         <v>21</v>
       </c>
       <c r="K43" s="19">
-        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I43,0),1)</f>
+        <f t="array" ref="K43">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G43,[1]Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
       <c r="L43" s="20" t="str">
-        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C58,0),1)</f>
+        <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F58,0),1)</f>
+        <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N43" s="15" t="s">
@@ -4620,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
@@ -4632,7 +4851,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="14.4">
+    <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
         <v>184</v>
       </c>
@@ -4703,7 +4922,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="14.4">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
         <v>184</v>
       </c>
@@ -4739,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M45" s="21" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
@@ -4773,9 +4992,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="14.4">
+    <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B46" s="16">
         <v>26</v>
@@ -4787,19 +5006,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
@@ -4841,12 +5060,12 @@
         <v>1</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="14.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B47" s="16">
         <v>26</v>
@@ -4858,19 +5077,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="J47" s="16">
         <v>26</v>
@@ -4903,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T47" s="16">
         <v>0</v>
@@ -4912,12 +5131,12 @@
         <v>0</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="38" customFormat="1" ht="13.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A48" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" s="39">
         <v>22</v>
@@ -4929,19 +5148,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>214</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>215</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" s="38" t="s">
         <v>216</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>217</v>
       </c>
       <c r="J48" s="39">
         <v>22</v>
@@ -4973,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T48" s="39">
         <v>0</v>
@@ -4982,12 +5201,12 @@
         <v>0</v>
       </c>
       <c r="V48" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="14.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="16">
         <v>22</v>
@@ -4999,19 +5218,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="J49" s="16">
         <v>22</v>
@@ -5044,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -5053,12 +5272,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="14.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="16">
         <v>22</v>
@@ -5070,19 +5289,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="J50" s="16">
         <v>22</v>
@@ -5115,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
@@ -5124,12 +5343,12 @@
         <v>1</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="14.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B51" s="16">
         <v>25</v>
@@ -5141,19 +5360,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>250</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
@@ -5181,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5190,12 +5409,12 @@
         <v>0</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="14.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="16">
         <v>25</v>
@@ -5207,19 +5426,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J52" s="16">
         <v>25</v>
@@ -5251,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5260,12 +5479,12 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="14.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="16">
         <v>27</v>
@@ -5277,19 +5496,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5321,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
@@ -5330,12 +5549,12 @@
         <v>0</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="14.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15">
       <c r="A54" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="16">
         <v>27</v>
@@ -5347,19 +5566,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J54" s="16">
         <v>27</v>
@@ -5391,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T54" s="16">
         <v>0</v>
@@ -5400,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5420,34 +5639,34 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5469,14 +5688,14 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>46</v>
@@ -5491,14 +5710,14 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -5513,14 +5732,14 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>52</v>
@@ -5535,14 +5754,14 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>100</v>
@@ -5557,14 +5776,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>24</v>
@@ -5579,36 +5798,36 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>40</v>
@@ -5623,14 +5842,14 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>80</v>
@@ -5648,31 +5867,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>162</v>
@@ -5790,7 +6009,7 @@
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
       <c r="C25" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="333">
   <si>
     <t>operator</t>
   </si>
@@ -997,30 +997,12 @@
     <t>Vault.cataleya</t>
   </si>
   <si>
-    <t>10.154.150.15</t>
-  </si>
-  <si>
     <t>gaziNetworks_Bogra</t>
   </si>
   <si>
-    <t>gaziNetworks_Khulna</t>
-  </si>
-  <si>
-    <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\Khulna</t>
-  </si>
-  <si>
-    <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\Bogra</t>
-  </si>
-  <si>
-    <t>jqAMaTHZvniOH3D</t>
-  </si>
-  <si>
     <t>Vault.TelcobridgeBogra</t>
   </si>
   <si>
-    <t>Vault.TelcobridgeKhulna</t>
-  </si>
-  <si>
     <t>Vault.Nokia</t>
   </si>
   <si>
@@ -1037,6 +1019,9 @@
   </si>
   <si>
     <t>Vault.Zte</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\tdmKhlBogra</t>
   </si>
 </sst>
 </file>
@@ -1825,35 +1810,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1">
+    <row r="2" spans="1:22" ht="15" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1991,7 +1976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22" ht="14.5">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -2062,7 +2047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" ht="14.5">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -2132,7 +2117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22" ht="14.5">
       <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
@@ -2198,7 +2183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22" ht="14.5">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -2269,7 +2254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15">
+    <row r="7" spans="1:22" ht="14.5">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2340,7 +2325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="14">
       <c r="A8" s="38" t="s">
         <v>60</v>
       </c>
@@ -2410,7 +2395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15">
+    <row r="9" spans="1:22" ht="14.5">
       <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +2466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22" ht="14.5">
       <c r="A10" s="26" t="s">
         <v>133</v>
       </c>
@@ -2550,7 +2535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15">
+    <row r="11" spans="1:22" ht="14.5">
       <c r="A11" s="26" t="s">
         <v>133</v>
       </c>
@@ -2617,7 +2602,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15">
+    <row r="12" spans="1:22" ht="14.5">
       <c r="A12" s="15" t="s">
         <v>133</v>
       </c>
@@ -2686,7 +2671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="48" customFormat="1" ht="15">
+    <row r="13" spans="1:22" s="48" customFormat="1" ht="14.5">
       <c r="A13" s="42" t="s">
         <v>169</v>
       </c>
@@ -2744,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="T13" s="43">
         <v>0</v>
@@ -2756,7 +2741,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15">
+    <row r="14" spans="1:22" ht="14.5">
       <c r="A14" s="15" t="s">
         <v>169</v>
       </c>
@@ -2827,7 +2812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15">
+    <row r="15" spans="1:22" ht="14.5">
       <c r="A15" s="15" t="s">
         <v>169</v>
       </c>
@@ -2898,7 +2883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15">
+    <row r="16" spans="1:22" ht="14.5">
       <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
@@ -2968,7 +2953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15">
+    <row r="17" spans="1:22" ht="14.5">
       <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
@@ -3034,9 +3019,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.5">
+      <c r="A18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="16">
+        <v>6</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
         <v>29</v>
@@ -3045,7 +3034,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>80</v>
@@ -3054,7 +3043,7 @@
         <v>81</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -3085,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -3097,46 +3086,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15">
+    <row r="19" spans="1:22" ht="14.5">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B19" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>326</v>
+        <v>83</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>327</v>
+        <v>24</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="J19" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19" s="19">
-        <v>57</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>309</v>
+        <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I17,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C32,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M19" s="21" t="str">
-        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F31,0),1)</f>
-        <v>.log</v>
+        <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F32,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>27</v>
@@ -3154,19 +3145,19 @@
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
       </c>
       <c r="U19" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.5">
       <c r="A20" s="15" t="s">
         <v>82</v>
       </c>
@@ -3174,40 +3165,40 @@
         <v>7</v>
       </c>
       <c r="C20" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J20" s="16">
         <v>7</v>
       </c>
       <c r="K20" s="19">
-        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I17,0),1)</f>
-        <v>28</v>
+        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I18,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L20" s="20" t="str">
-        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C32,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C33,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M20" s="21" t="str">
-        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F32,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F33,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>27</v>
@@ -3225,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T20" s="16">
         <v>0</v>
@@ -3237,57 +3228,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15">
+    <row r="21" spans="1:22" ht="14.5">
       <c r="A21" s="15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B21" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J21" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" s="19">
-        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I18,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K21">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G21,[1]Sheet2!$I$2:I19,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L21" s="20" t="str">
-        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C33,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L21">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G21,[1]Sheet2!$C$2:C34,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F33,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M21">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G21,[1]Sheet2!$F$2:F34,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="16">
         <v>1</v>
@@ -3296,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
@@ -3305,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.5">
       <c r="A22" s="15" t="s">
         <v>93</v>
       </c>
@@ -3316,40 +3307,39 @@
         <v>8</v>
       </c>
       <c r="C22" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J22" s="16">
         <v>8</v>
       </c>
       <c r="K22" s="19">
-        <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I19,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L22" s="20" t="str">
-        <f t="array" ref="L22">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G22,[1]Sheet2!$C$2:C34,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I20,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="M22" s="21" t="str">
-        <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F34,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F35,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>27</v>
@@ -3367,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3379,56 +3369,56 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15">
+    <row r="23" spans="1:22" s="32" customFormat="1" ht="14.5">
       <c r="A23" s="15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B23" s="16">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="25">
+        <v>18</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J23" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23" s="19">
-        <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I20,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>296</v>
+        <v>30</v>
+      </c>
+      <c r="L23" s="20" t="str">
+        <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C36,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M23" s="21" t="str">
-        <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F36,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="16">
         <v>1</v>
@@ -3437,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="T23" s="16">
         <v>0</v>
@@ -3446,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="14.5">
       <c r="A24" s="15" t="s">
         <v>103</v>
       </c>
@@ -3457,48 +3447,49 @@
         <v>9</v>
       </c>
       <c r="C24" s="25">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J24" s="16">
         <v>9</v>
       </c>
       <c r="K24" s="19">
-        <v>30</v>
+        <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I22,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L24" s="20" t="str">
-        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C36,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C37,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M24" s="21" t="str">
-        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F36,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F37,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="16">
         <v>1</v>
@@ -3507,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="T24" s="16">
         <v>0</v>
@@ -3519,57 +3510,57 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="32" customFormat="1" ht="15">
+    <row r="25" spans="1:22" ht="14.5">
       <c r="A25" s="15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B25" s="16">
-        <v>9</v>
-      </c>
-      <c r="C25" s="25">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C25" s="16">
+        <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J25" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K25" s="19">
-        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I22,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I23,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L25" s="20" t="str">
-        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C37,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C38,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F37,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F38,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="16">
         <v>1</v>
@@ -3578,19 +3569,19 @@
         <v>1</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="T25" s="16">
         <v>0</v>
       </c>
       <c r="U25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="14.5">
       <c r="A26" s="15" t="s">
         <v>114</v>
       </c>
@@ -3598,40 +3589,40 @@
         <v>10</v>
       </c>
       <c r="C26" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>115</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J26" s="16">
         <v>10</v>
       </c>
       <c r="K26" s="19">
-        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I23,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I24,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L26" s="20" t="str">
-        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C38,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C39,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F38,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F39,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>27</v>
@@ -3649,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T26" s="16">
         <v>0</v>
@@ -3661,196 +3652,196 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15">
-      <c r="A27" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="16">
-        <v>10</v>
-      </c>
-      <c r="C27" s="16">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="s">
+    <row r="27" spans="1:22" s="49" customFormat="1" ht="14">
+      <c r="A27" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="50">
+        <v>11</v>
+      </c>
+      <c r="C27" s="50">
+        <v>2</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" s="50">
+        <v>11</v>
+      </c>
+      <c r="K27" s="50">
+        <v>730</v>
+      </c>
+      <c r="L27" s="51" t="str">
+        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C40,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M27" s="52" t="str">
+        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F40,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="50">
+        <v>0</v>
+      </c>
+      <c r="P27" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="50">
+        <v>1</v>
+      </c>
+      <c r="R27" s="50">
+        <v>1</v>
+      </c>
+      <c r="S27" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="T27" s="50">
+        <v>0</v>
+      </c>
+      <c r="U27" s="50">
+        <v>0</v>
+      </c>
+      <c r="V27" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14.5">
+      <c r="A28" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="16">
+        <v>11</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="16">
-        <v>10</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I24,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L27" s="20" t="str">
-        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C39,0),1)</f>
-        <v>ICX</v>
-      </c>
-      <c r="M27" s="21" t="str">
-        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F39,0),1)</f>
-        <v>.DAT</v>
-      </c>
-      <c r="N27" s="15" t="s">
+      <c r="E28" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="16">
+        <v>11</v>
+      </c>
+      <c r="K28" s="19">
+        <v>68</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="M28" s="21" t="str">
+        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="16">
-        <v>1</v>
-      </c>
-      <c r="P27" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>1</v>
-      </c>
-      <c r="R27" s="16">
-        <v>1</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="T27" s="16">
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
-        <v>1</v>
-      </c>
-      <c r="V27" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="49" customFormat="1" ht="14.25">
-      <c r="A28" s="49" t="s">
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>1</v>
+      </c>
+      <c r="R28" s="16">
+        <v>1</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="50">
-        <v>11</v>
-      </c>
-      <c r="C28" s="50">
+    </row>
+    <row r="29" spans="1:22" ht="14.5">
+      <c r="A29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="16">
+        <v>24</v>
+      </c>
+      <c r="C29" s="16">
         <v>2</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="50">
-        <v>11</v>
-      </c>
-      <c r="K28" s="50">
-        <v>730</v>
-      </c>
-      <c r="L28" s="51" t="str">
-        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M28" s="52" t="str">
-        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
-        <v>.txt</v>
-      </c>
-      <c r="N28" s="49" t="s">
+      <c r="E29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" s="16">
+        <v>24</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I49,0),1)</f>
         <v>27</v>
       </c>
-      <c r="O28" s="50">
-        <v>0</v>
-      </c>
-      <c r="P28" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="50">
-        <v>1</v>
-      </c>
-      <c r="R28" s="50">
-        <v>1</v>
-      </c>
-      <c r="S28" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="T28" s="50">
-        <v>0</v>
-      </c>
-      <c r="U28" s="50">
-        <v>0</v>
-      </c>
-      <c r="V28" s="49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15">
-      <c r="A29" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="16">
-        <v>11</v>
-      </c>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="16">
-        <v>11</v>
-      </c>
-      <c r="K29" s="19">
-        <v>68</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>295</v>
+      <c r="L29" s="20" t="str">
+        <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C64,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M29" s="21" t="str">
-        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F64,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="16">
         <v>1</v>
@@ -3859,19 +3850,19 @@
         <v>1</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="T29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="14.5">
       <c r="A30" s="15" t="s">
         <v>237</v>
       </c>
@@ -3879,49 +3870,47 @@
         <v>24</v>
       </c>
       <c r="C30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
       </c>
       <c r="K30" s="19">
-        <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L30" s="20" t="str">
-        <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
+        <v>74</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="M30" s="21" t="str">
-        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="16">
         <v>1</v>
@@ -3930,206 +3919,208 @@
         <v>1</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="T30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15">
-      <c r="A31" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" s="16">
+    <row r="31" spans="1:22" s="49" customFormat="1" ht="14">
+      <c r="A31" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="50">
+        <v>23</v>
+      </c>
+      <c r="C31" s="50">
+        <v>2</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="16">
-        <v>1</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="H31" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="50">
+        <v>23</v>
+      </c>
+      <c r="K31" s="50">
         <v>29</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="L31" s="51" t="str">
+        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C62,0),1)</f>
+        <v>cdr</v>
+      </c>
+      <c r="M31" s="52" t="str">
+        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F62,0),1)</f>
+        <v>.csv</v>
+      </c>
+      <c r="N31" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="50">
+        <v>0</v>
+      </c>
+      <c r="P31" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="50">
+        <v>1</v>
+      </c>
+      <c r="R31" s="50">
+        <v>1</v>
+      </c>
+      <c r="S31" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="T31" s="50">
+        <v>0</v>
+      </c>
+      <c r="U31" s="50">
+        <v>0</v>
+      </c>
+      <c r="V31" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="14.5">
+      <c r="A32" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="16">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="J31" s="16">
-        <v>24</v>
-      </c>
-      <c r="K31" s="19">
+      <c r="H32" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" s="16">
+        <v>23</v>
+      </c>
+      <c r="K32" s="19">
         <v>74</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L32" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="M31" s="21" t="str">
-        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
+      <c r="M32" s="21" t="str">
+        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="16">
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>1</v>
-      </c>
-      <c r="R31" s="16">
-        <v>1</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="T31" s="16">
-        <v>0</v>
-      </c>
-      <c r="U31" s="16">
-        <v>0</v>
-      </c>
-      <c r="V31" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="49" customFormat="1" ht="14.25">
-      <c r="A32" s="49" t="s">
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>1</v>
+      </c>
+      <c r="R32" s="16">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="50">
-        <v>23</v>
-      </c>
-      <c r="C32" s="50">
+    </row>
+    <row r="33" spans="1:22" ht="14.5">
+      <c r="A33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="16">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16">
         <v>2</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="50">
-        <v>23</v>
-      </c>
-      <c r="K32" s="50">
-        <v>29</v>
-      </c>
-      <c r="L32" s="51" t="str">
-        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M32" s="52" t="str">
-        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
-        <v>.csv</v>
-      </c>
-      <c r="N32" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="50">
-        <v>0</v>
-      </c>
-      <c r="P32" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="50">
-        <v>1</v>
-      </c>
-      <c r="R32" s="50">
-        <v>1</v>
-      </c>
-      <c r="S32" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="T32" s="50">
-        <v>0</v>
-      </c>
-      <c r="U32" s="50">
-        <v>0</v>
-      </c>
-      <c r="V32" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15">
-      <c r="A33" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" s="16">
-        <v>23</v>
-      </c>
-      <c r="C33" s="16">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="J33" s="16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K33" s="19">
-        <v>74</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>318</v>
+        <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I29,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L33" s="20" t="str">
+        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C44,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F44,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="16">
         <v>1</v>
@@ -4138,19 +4129,19 @@
         <v>1</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>332</v>
+        <v>145</v>
       </c>
       <c r="T33" s="16">
         <v>0</v>
       </c>
       <c r="U33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.5">
       <c r="A34" s="15" t="s">
         <v>140</v>
       </c>
@@ -4158,49 +4149,48 @@
         <v>15</v>
       </c>
       <c r="C34" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J34" s="16">
         <v>15</v>
       </c>
       <c r="K34" s="19">
-        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I29,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L34" s="20" t="str">
-        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C44,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I30,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="M34" s="21" t="str">
-        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F44,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="16">
         <v>1</v>
@@ -4209,59 +4199,59 @@
         <v>1</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="T34" s="16">
         <v>0</v>
       </c>
       <c r="U34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15">
+    <row r="35" spans="1:22" ht="14.5">
       <c r="A35" s="15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B35" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J35" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K35" s="19">
-        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I30,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>303</v>
+        <v>30</v>
+      </c>
+      <c r="L35" s="20" t="str">
+        <f t="array" ref="L35">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G35,[1]Sheet2!$C$2:C46,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M35" s="21" t="str">
-        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M35">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G35,[1]Sheet2!$F$2:F46,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N35" s="15" t="s">
         <v>27</v>
@@ -4279,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4288,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.5">
       <c r="A36" s="15" t="s">
         <v>150</v>
       </c>
@@ -4299,39 +4289,39 @@
         <v>16</v>
       </c>
       <c r="C36" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J36" s="16">
         <v>16</v>
       </c>
       <c r="K36" s="19">
-        <v>30</v>
-      </c>
-      <c r="L36" s="20" t="str">
-        <f t="array" ref="L36">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G36,[1]Sheet2!$C$2:C46,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K36">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G36,[1]Sheet2!$I$2:I32,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F46,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F47,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>27</v>
@@ -4349,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="T36" s="16">
         <v>0</v>
@@ -4361,47 +4351,45 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15">
+    <row r="37" spans="1:22" ht="14.5">
       <c r="A37" s="15" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B37" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J37" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K37" s="19">
-        <f t="array" ref="K37">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G37,[1]Sheet2!$I$2:I32,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="M37" s="21" t="str">
-        <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
-        <v>.dat</v>
+        <v>56</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>27</v>
@@ -4419,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="T37" s="16">
         <v>0</v>
@@ -4428,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="V37" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="14.5">
       <c r="A38" s="15" t="s">
         <v>159</v>
       </c>
@@ -4439,46 +4427,48 @@
         <v>17</v>
       </c>
       <c r="C38" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J38" s="16">
         <v>17</v>
       </c>
       <c r="K38" s="19">
-        <v>56</v>
-      </c>
-      <c r="L38" s="20">
-        <v>0</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>307</v>
+        <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I34,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="M38" s="21" t="str">
+        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="16">
         <v>1</v>
@@ -4487,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
@@ -4499,47 +4489,48 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15">
+    <row r="39" spans="1:22" ht="14.5">
       <c r="A39" s="15" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B39" s="16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C39" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="J39" s="16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K39" s="19">
-        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I34,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>290</v>
+        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I40,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L39" s="20" t="str">
+        <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C55,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F55,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>27</v>
@@ -4557,19 +4548,19 @@
         <v>1</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="T39" s="16">
         <v>0</v>
       </c>
       <c r="U39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="14.5">
       <c r="A40" s="15" t="s">
         <v>193</v>
       </c>
@@ -4577,49 +4568,48 @@
         <v>20</v>
       </c>
       <c r="C40" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J40" s="16">
         <v>20</v>
       </c>
       <c r="K40" s="19">
-        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I40,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L40" s="20" t="str">
-        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C55,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I41,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="M40" s="21" t="str">
-        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F55,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="16">
         <v>1</v>
@@ -4628,59 +4618,59 @@
         <v>1</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="T40" s="16">
         <v>0</v>
       </c>
       <c r="U40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15">
+    <row r="41" spans="1:22" ht="14.5">
       <c r="A41" s="15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B41" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J41" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41" s="19">
-        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I41,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>279</v>
+        <v>30</v>
+      </c>
+      <c r="L41" s="20" t="str">
+        <f t="array" ref="L41">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G41,[1]Sheet2!$C$2:C57,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M41" s="21" t="str">
-        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M41">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G41,[1]Sheet2!$F$2:F57,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>27</v>
@@ -4698,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="T41" s="16">
         <v>0</v>
@@ -4707,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="14.5">
       <c r="A42" s="15" t="s">
         <v>203</v>
       </c>
@@ -4718,39 +4708,40 @@
         <v>21</v>
       </c>
       <c r="C42" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J42" s="16">
         <v>21</v>
       </c>
       <c r="K42" s="19">
-        <v>30</v>
+        <f t="array" ref="K42">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G42,[1]Sheet2!$I$2:I43,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L42" s="20" t="str">
-        <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C57,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C58,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F57,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F58,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>27</v>
@@ -4768,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="T42" s="16">
         <v>0</v>
@@ -4780,57 +4771,57 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15">
+    <row r="43" spans="1:22" ht="14.5">
       <c r="A43" s="15" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B43" s="16">
-        <v>21</v>
-      </c>
-      <c r="C43" s="16">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C43" s="25">
+        <v>18</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J43" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K43" s="19">
-        <f t="array" ref="K43">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G43,[1]Sheet2!$I$2:I43,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I38,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L43" s="20" t="str">
-        <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C58,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C53,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F58,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F53,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="16">
         <v>1</v>
@@ -4839,19 +4830,19 @@
         <v>1</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="T43" s="16">
         <v>0</v>
       </c>
       <c r="U43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="14.5">
       <c r="A44" s="15" t="s">
         <v>184</v>
       </c>
@@ -4859,49 +4850,48 @@
         <v>19</v>
       </c>
       <c r="C44" s="25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J44" s="16">
         <v>19</v>
       </c>
       <c r="K44" s="19">
-        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I38,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L44" s="20" t="str">
-        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C53,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I39,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="M44" s="21" t="str">
-        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F53,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O44" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="16">
         <v>1</v>
@@ -4910,68 +4900,69 @@
         <v>1</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T44" s="16">
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15">
+    <row r="45" spans="1:22" ht="14.5">
       <c r="A45" s="15" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B45" s="16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C45" s="25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="J45" s="16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K45" s="19">
-        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I39,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>287</v>
+        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I53,0),1)</f>
+        <v>27</v>
+      </c>
+      <c r="L45" s="20" t="str">
+        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C68,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M45" s="21" t="str">
-        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F68,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="16">
         <v>1</v>
@@ -4980,19 +4971,19 @@
         <v>1</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="14.5">
       <c r="A46" s="15" t="s">
         <v>253</v>
       </c>
@@ -5000,49 +4991,49 @@
         <v>26</v>
       </c>
       <c r="C46" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J46" s="16">
         <v>26</v>
       </c>
       <c r="K46" s="19">
-        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I53,0),1)</f>
-        <v>27</v>
+        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I54,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L46" s="20" t="str">
-        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C68,0),1)</f>
-        <v>sdr</v>
+        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C69,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M46" s="21" t="str">
-        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F68,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F69,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="16">
         <v>1</v>
@@ -5051,160 +5042,160 @@
         <v>1</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="T46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15">
-      <c r="A47" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B47" s="16">
-        <v>26</v>
-      </c>
-      <c r="C47" s="25">
-        <v>9</v>
-      </c>
-      <c r="D47" s="15" t="s">
+    <row r="47" spans="1:22" s="38" customFormat="1" ht="14">
+      <c r="A47" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="39">
+        <v>22</v>
+      </c>
+      <c r="C47" s="39">
+        <v>3</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J47" s="39">
+        <v>22</v>
+      </c>
+      <c r="K47" s="39">
+        <v>72</v>
+      </c>
+      <c r="L47" s="40" t="str">
+        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C59,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M47" s="41" t="str">
+        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F59,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" s="39">
+        <v>0</v>
+      </c>
+      <c r="P47" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="39">
+        <v>1</v>
+      </c>
+      <c r="R47" s="39">
+        <v>1</v>
+      </c>
+      <c r="S47" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="T47" s="39">
+        <v>0</v>
+      </c>
+      <c r="U47" s="39">
+        <v>0</v>
+      </c>
+      <c r="V47" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="14.5">
+      <c r="A48" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="16">
+        <v>22</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="J47" s="16">
-        <v>26</v>
-      </c>
-      <c r="K47" s="19">
-        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I54,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L47" s="20" t="str">
-        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C69,0),1)</f>
-        <v>ICX</v>
-      </c>
-      <c r="M47" s="21" t="str">
-        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F69,0),1)</f>
-        <v>.DAT</v>
-      </c>
-      <c r="N47" s="15" t="s">
+      <c r="E48" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="16">
+        <v>22</v>
+      </c>
+      <c r="K48" s="19">
+        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I45,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L48" s="20" t="str">
+        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C60,0),1)</f>
+        <v>b</v>
+      </c>
+      <c r="M48" s="21" t="str">
+        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F60,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O47" s="16">
-        <v>0</v>
-      </c>
-      <c r="P47" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="16">
-        <v>1</v>
-      </c>
-      <c r="R47" s="16">
-        <v>1</v>
-      </c>
-      <c r="S47" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="T47" s="16">
-        <v>0</v>
-      </c>
-      <c r="U47" s="16">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="38" customFormat="1" ht="14.25">
-      <c r="A48" s="38" t="s">
+      <c r="O48" s="16">
+        <v>1</v>
+      </c>
+      <c r="P48" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>1</v>
+      </c>
+      <c r="R48" s="16">
+        <v>1</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="T48" s="16">
+        <v>0</v>
+      </c>
+      <c r="U48" s="16">
+        <v>1</v>
+      </c>
+      <c r="V48" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="39">
-        <v>22</v>
-      </c>
-      <c r="C48" s="39">
-        <v>3</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="J48" s="39">
-        <v>22</v>
-      </c>
-      <c r="K48" s="39">
-        <v>72</v>
-      </c>
-      <c r="L48" s="40" t="str">
-        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M48" s="41" t="str">
-        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
-        <v>.txt</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="O48" s="39">
-        <v>0</v>
-      </c>
-      <c r="P48" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="39">
-        <v>1</v>
-      </c>
-      <c r="R48" s="39">
-        <v>1</v>
-      </c>
-      <c r="S48" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="T48" s="39">
-        <v>0</v>
-      </c>
-      <c r="U48" s="39">
-        <v>0</v>
-      </c>
-      <c r="V48" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="15">
+    </row>
+    <row r="49" spans="1:22" ht="14.5">
       <c r="A49" s="15" t="s">
         <v>212</v>
       </c>
@@ -5212,42 +5203,42 @@
         <v>22</v>
       </c>
       <c r="C49" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J49" s="16">
         <v>22</v>
       </c>
       <c r="K49" s="19">
-        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I45,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I46,0),1)</f>
+        <v>37</v>
       </c>
       <c r="L49" s="20" t="str">
-        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C60,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C61,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M49" s="21" t="str">
-        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F60,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N49" s="15" t="s">
+        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F61,0),1)</f>
+        <v>.log</v>
+      </c>
+      <c r="N49" s="18" t="s">
         <v>27</v>
       </c>
       <c r="O49" s="16">
@@ -5263,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="T49" s="16">
         <v>0</v>
@@ -5275,57 +5266,52 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15">
+    <row r="50" spans="1:22" ht="14.5">
       <c r="A50" s="15" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="B50" s="16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C50" s="16">
         <v>2</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="J50" s="16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K50" s="19">
-        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I46,0),1)</f>
-        <v>37</v>
-      </c>
-      <c r="L50" s="20" t="str">
-        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C61,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M50" s="21" t="str">
-        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F61,0),1)</f>
-        <v>.log</v>
-      </c>
-      <c r="N50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="20">
+        <v>2</v>
+      </c>
+      <c r="M50" s="21"/>
+      <c r="N50" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="16">
         <v>1</v>
@@ -5334,19 +5320,19 @@
         <v>1</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="T50" s="16">
         <v>0</v>
       </c>
       <c r="U50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="14.5">
       <c r="A51" s="15" t="s">
         <v>298</v>
       </c>
@@ -5354,36 +5340,40 @@
         <v>25</v>
       </c>
       <c r="C51" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J51" s="16">
         <v>25</v>
       </c>
       <c r="K51" s="19">
-        <v>55</v>
+        <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I52,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L51" s="20">
         <v>2</v>
       </c>
-      <c r="M51" s="21"/>
+      <c r="M51" s="21" t="str">
+        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F67,0),1)</f>
+        <v>.dat</v>
+      </c>
       <c r="N51" s="15" t="s">
         <v>27</v>
       </c>
@@ -5400,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="T51" s="16">
         <v>0</v>
@@ -5412,47 +5402,47 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15">
+    <row r="52" spans="1:22" ht="14.5">
       <c r="A52" s="15" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="B52" s="16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="16">
+        <v>27</v>
+      </c>
+      <c r="K52" s="19">
         <v>29</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J52" s="16">
-        <v>25</v>
-      </c>
-      <c r="K52" s="19">
-        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I52,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L52" s="20">
-        <v>2</v>
+      <c r="L52" s="20" t="str">
+        <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C70,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M52" s="21" t="str">
-        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F67,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F70,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>27</v>
@@ -5470,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5479,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="14.5">
       <c r="A53" s="15" t="s">
         <v>262</v>
       </c>
@@ -5490,57 +5480,57 @@
         <v>27</v>
       </c>
       <c r="C53" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
       </c>
       <c r="K53" s="19">
-        <v>29</v>
-      </c>
-      <c r="L53" s="20" t="str">
-        <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I56,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L53" s="33">
+        <v>2</v>
       </c>
       <c r="M53" s="21" t="str">
-        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F70,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F71,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N53" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="16">
         <v>1</v>
       </c>
       <c r="R53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="T53" s="16">
         <v>0</v>
@@ -5549,76 +5539,6 @@
         <v>0</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15">
-      <c r="A54" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B54" s="16">
-        <v>27</v>
-      </c>
-      <c r="C54" s="16">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="J54" s="16">
-        <v>27</v>
-      </c>
-      <c r="K54" s="19">
-        <f t="array" ref="K54">INDEX(Sheet2!$H$2:$I$21,MATCH(G54,Sheet2!$I$2:I56,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L54" s="33">
-        <v>2</v>
-      </c>
-      <c r="M54" s="21" t="str">
-        <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F71,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O54" s="16">
-        <v>1</v>
-      </c>
-      <c r="P54" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="16">
-        <v>1</v>
-      </c>
-      <c r="R54" s="16">
-        <v>0</v>
-      </c>
-      <c r="S54" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="T54" s="16">
-        <v>0</v>
-      </c>
-      <c r="U54" s="16">
-        <v>0</v>
-      </c>
-      <c r="V54" s="15" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5639,11 +5559,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -997,9 +997,6 @@
     <t>Vault.cataleya</t>
   </si>
   <si>
-    <t>gaziNetworks_Bogra</t>
-  </si>
-  <si>
     <t>Vault.TelcobridgeBogra</t>
   </si>
   <si>
@@ -1022,6 +1019,9 @@
   </si>
   <si>
     <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\tdmKhlBogra</t>
+  </si>
+  <si>
+    <t>gaziNetworks_tdm1</t>
   </si>
 </sst>
 </file>
@@ -1039,16 +1039,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1060,27 +1063,32 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1132,6 +1140,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1814,31 +1823,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1">
+    <row r="2" spans="1:22" ht="15.75" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.5">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.5">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.5">
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.5">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.5">
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2325,7 +2334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="14">
+    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A8" s="38" t="s">
         <v>60</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.5">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.5">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="26" t="s">
         <v>133</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.5">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="26" t="s">
         <v>133</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.5">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="15" t="s">
         <v>133</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="48" customFormat="1" ht="14.5">
+    <row r="13" spans="1:22" s="48" customFormat="1" ht="15">
       <c r="A13" s="42" t="s">
         <v>169</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T13" s="43">
         <v>0</v>
@@ -2741,7 +2750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.5">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="15" t="s">
         <v>169</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.5">
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="15" t="s">
         <v>169</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.5">
+    <row r="16" spans="1:22" ht="15">
       <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.5">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.5">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
       <c r="A18" s="15" t="s">
         <v>70</v>
       </c>
@@ -3034,7 +3043,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>80</v>
@@ -3043,7 +3052,7 @@
         <v>81</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J18" s="16">
         <v>6</v>
@@ -3074,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T18" s="16">
         <v>0</v>
@@ -3086,7 +3095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.5">
+    <row r="19" spans="1:22" ht="15">
       <c r="A19" s="15" t="s">
         <v>82</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.5">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="15" t="s">
         <v>82</v>
       </c>
@@ -3228,7 +3237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.5">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="15" t="s">
         <v>93</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.5">
+    <row r="22" spans="1:22" ht="15">
       <c r="A22" s="15" t="s">
         <v>93</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T22" s="16">
         <v>0</v>
@@ -3369,7 +3378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="32" customFormat="1" ht="14.5">
+    <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A23" s="15" t="s">
         <v>103</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="14.5">
+    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
       <c r="A24" s="15" t="s">
         <v>103</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.5">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.5">
+    <row r="26" spans="1:22" ht="15">
       <c r="A26" s="15" t="s">
         <v>114</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="49" customFormat="1" ht="14">
+    <row r="27" spans="1:22" s="49" customFormat="1" ht="14.25">
       <c r="A27" s="49" t="s">
         <v>124</v>
       </c>
@@ -3722,7 +3731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.5">
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="15" t="s">
         <v>124</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.5">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="15" t="s">
         <v>237</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.5">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="15" t="s">
         <v>237</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="49" customFormat="1" ht="14">
+    <row r="31" spans="1:22" s="49" customFormat="1" ht="14.25">
       <c r="A31" s="49" t="s">
         <v>227</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T31" s="50">
         <v>0</v>
@@ -4001,7 +4010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.5">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="15" t="s">
         <v>227</v>
       </c>
@@ -4058,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T32" s="16">
         <v>0</v>
@@ -4070,7 +4079,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="14.5">
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="15" t="s">
         <v>140</v>
       </c>
@@ -4141,7 +4150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.5">
+    <row r="34" spans="1:22" ht="15">
       <c r="A34" s="15" t="s">
         <v>140</v>
       </c>
@@ -4211,7 +4220,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.5">
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="15" t="s">
         <v>150</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T35" s="16">
         <v>0</v>
@@ -4281,7 +4290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.5">
+    <row r="36" spans="1:22" ht="15">
       <c r="A36" s="15" t="s">
         <v>150</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.5">
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="15" t="s">
         <v>159</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.5">
+    <row r="38" spans="1:22" ht="15">
       <c r="A38" s="15" t="s">
         <v>159</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.5">
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="15" t="s">
         <v>193</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.5">
+    <row r="40" spans="1:22" ht="15">
       <c r="A40" s="15" t="s">
         <v>193</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.5">
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="15" t="s">
         <v>203</v>
       </c>
@@ -4700,7 +4709,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.5">
+    <row r="42" spans="1:22" ht="15">
       <c r="A42" s="15" t="s">
         <v>203</v>
       </c>
@@ -4771,7 +4780,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="14.5">
+    <row r="43" spans="1:22" ht="15">
       <c r="A43" s="15" t="s">
         <v>184</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="14.5">
+    <row r="44" spans="1:22" ht="15">
       <c r="A44" s="15" t="s">
         <v>184</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="14.5">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="15" t="s">
         <v>253</v>
       </c>
@@ -4983,7 +4992,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="14.5">
+    <row r="46" spans="1:22" ht="15">
       <c r="A46" s="15" t="s">
         <v>253</v>
       </c>
@@ -5054,7 +5063,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="38" customFormat="1" ht="14">
+    <row r="47" spans="1:22" s="38" customFormat="1" ht="14.25">
       <c r="A47" s="38" t="s">
         <v>212</v>
       </c>
@@ -5124,7 +5133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="14.5">
+    <row r="48" spans="1:22" ht="15">
       <c r="A48" s="15" t="s">
         <v>212</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="14.5">
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="15" t="s">
         <v>212</v>
       </c>
@@ -5266,7 +5275,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="14.5">
+    <row r="50" spans="1:22" ht="15">
       <c r="A50" s="15" t="s">
         <v>298</v>
       </c>
@@ -5332,7 +5341,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="14.5">
+    <row r="51" spans="1:22" ht="15">
       <c r="A51" s="15" t="s">
         <v>298</v>
       </c>
@@ -5402,7 +5411,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="14.5">
+    <row r="52" spans="1:22" ht="15">
       <c r="A52" s="15" t="s">
         <v>262</v>
       </c>
@@ -5428,7 +5437,7 @@
         <v>265</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J52" s="16">
         <v>27</v>
@@ -5460,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T52" s="16">
         <v>0</v>
@@ -5472,7 +5481,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="14.5">
+    <row r="53" spans="1:22" ht="15">
       <c r="A53" s="15" t="s">
         <v>262</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>268</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J53" s="16">
         <v>27</v>
@@ -5559,11 +5568,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1028,7 +1028,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1150,6 +1150,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1262,7 +1269,7 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1376,6 +1383,14 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1821,9 +1836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5275,69 +5290,69 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:22" s="53" customFormat="1" ht="14.25">
+      <c r="A50" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="54">
         <v>25</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="54">
         <v>2</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="54">
         <v>25</v>
       </c>
-      <c r="K50" s="19">
-        <v>55</v>
-      </c>
-      <c r="L50" s="20">
-        <v>2</v>
-      </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="15" t="s">
+      <c r="K50" s="54">
+        <v>73</v>
+      </c>
+      <c r="L50" s="55">
+        <v>20</v>
+      </c>
+      <c r="M50" s="56"/>
+      <c r="N50" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O50" s="16">
-        <v>0</v>
-      </c>
-      <c r="P50" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="16">
-        <v>1</v>
-      </c>
-      <c r="R50" s="16">
-        <v>1</v>
-      </c>
-      <c r="S50" s="15" t="s">
+      <c r="O50" s="54">
+        <v>0</v>
+      </c>
+      <c r="P50" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="54">
+        <v>1</v>
+      </c>
+      <c r="R50" s="54">
+        <v>1</v>
+      </c>
+      <c r="S50" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="T50" s="16">
-        <v>0</v>
-      </c>
-      <c r="U50" s="16">
-        <v>0</v>
-      </c>
-      <c r="V50" s="15" t="s">
+      <c r="T50" s="54">
+        <v>0</v>
+      </c>
+      <c r="U50" s="54">
+        <v>0</v>
+      </c>
+      <c r="V50" s="53" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5405,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="15" t="s">
         <v>246</v>
@@ -5937,27 +5952,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanvi\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1836,9 +1836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U53" sqref="U53"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2117,10 +2117,10 @@
         <v>27</v>
       </c>
       <c r="O4" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="16">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>49</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanvi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telcobright\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8EB556-DFBE-426A-9980-08BB9B58D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,18 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1027,7 +1039,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="10"/>
@@ -1269,8 +1281,8 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="54">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1293,12 +1305,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1308,22 +1314,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1"/>
@@ -1336,11 +1336,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,14 +1348,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,7 +1395,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1419,7 +1418,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NE automation data"/>
@@ -1833,12 +1832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1863,3711 +1862,3711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19">
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
         <v>29</v>
       </c>
-      <c r="L2" s="20" t="str">
+      <c r="L2" s="16" t="str">
         <f t="array" ref="L2">INDEX(Sheet2!$B$2:$C$21,MATCH(G2,Sheet2!$C$2:C21,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M2" s="21" t="str">
+      <c r="M2" s="17" t="str">
         <f t="array" ref="M2">INDEX(Sheet2!$E$2:$F$21,MATCH(G2,Sheet2!$F$2:F21,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="16">
-        <v>1</v>
-      </c>
-      <c r="P2" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>1</v>
-      </c>
-      <c r="R2" s="16">
-        <v>1</v>
-      </c>
-      <c r="S2" s="15" t="s">
+      <c r="O2" s="13">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1</v>
+      </c>
+      <c r="R2" s="13">
+        <v>1</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="16">
-        <v>0</v>
-      </c>
-      <c r="U2" s="16">
-        <v>0</v>
-      </c>
-      <c r="V2" s="15" t="s">
+      <c r="T2" s="13">
+        <v>0</v>
+      </c>
+      <c r="U2" s="13">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
         <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L3" s="20" t="str">
+      <c r="L3" s="16" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M3" s="21" t="str">
+      <c r="M3" s="17" t="str">
         <f t="array" ref="M3">INDEX(Sheet2!$E$2:$F$21,MATCH(G3,Sheet2!$F$2:F22,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="16">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>1</v>
-      </c>
-      <c r="R3" s="16">
-        <v>1</v>
-      </c>
-      <c r="S3" s="15" t="s">
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>1</v>
+      </c>
+      <c r="R3" s="13">
+        <v>1</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="T3" s="16">
-        <v>0</v>
-      </c>
-      <c r="U3" s="16">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15" t="s">
+      <c r="T3" s="13">
+        <v>0</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>3</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <v>690</v>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L4" s="16" t="str">
         <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C25,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M4" s="21" t="str">
+      <c r="M4" s="17" t="str">
         <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F25,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="16">
-        <v>1</v>
-      </c>
-      <c r="P4" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>1</v>
-      </c>
-      <c r="R4" s="16">
-        <v>1</v>
-      </c>
-      <c r="S4" s="15" t="s">
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1</v>
+      </c>
+      <c r="R4" s="13">
+        <v>1</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="T4" s="16">
-        <v>0</v>
-      </c>
-      <c r="U4" s="16">
-        <v>0</v>
-      </c>
-      <c r="V4" s="15" t="s">
+      <c r="T4" s="13">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>3</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <v>49</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>1</v>
-      </c>
-      <c r="R5" s="16">
-        <v>1</v>
-      </c>
-      <c r="S5" s="15" t="s">
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="15" t="s">
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I8,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L6" s="20" t="str">
+      <c r="L6" s="16" t="str">
         <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C23,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M6" s="21" t="str">
+      <c r="M6" s="17" t="str">
         <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F23,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="16">
-        <v>1</v>
-      </c>
-      <c r="P6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>1</v>
-      </c>
-      <c r="R6" s="16">
-        <v>1</v>
-      </c>
-      <c r="S6" s="15" t="s">
+      <c r="O6" s="13">
+        <v>1</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>1</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="16">
-        <v>1</v>
-      </c>
-      <c r="U6" s="16">
-        <v>0</v>
-      </c>
-      <c r="V6" s="15" t="s">
+      <c r="T6" s="13">
+        <v>1</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>9</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>2</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I9,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" s="16" t="str">
         <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C24,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="17" t="str">
         <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F24,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>1</v>
-      </c>
-      <c r="R7" s="16">
-        <v>1</v>
-      </c>
-      <c r="S7" s="15" t="s">
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="15" t="s">
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="38" customFormat="1" ht="14.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:22" s="33" customFormat="1" ht="14.25">
+      <c r="A8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <v>2</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="34">
         <v>4</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="34">
         <v>71</v>
       </c>
-      <c r="L8" s="40" t="str">
+      <c r="L8" s="35" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M8" s="36" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="39">
-        <v>0</v>
-      </c>
-      <c r="P8" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>1</v>
-      </c>
-      <c r="R8" s="39">
-        <v>1</v>
-      </c>
-      <c r="S8" s="38" t="s">
+      <c r="O8" s="34">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>1</v>
+      </c>
+      <c r="R8" s="34">
+        <v>1</v>
+      </c>
+      <c r="S8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="39">
-        <v>0</v>
-      </c>
-      <c r="U8" s="39">
-        <v>0</v>
-      </c>
-      <c r="V8" s="38" t="s">
+      <c r="T8" s="34">
+        <v>0</v>
+      </c>
+      <c r="U8" s="34">
+        <v>0</v>
+      </c>
+      <c r="V8" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <v>4</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <f t="array" ref="K9">INDEX(Sheet2!$H$2:$I$21,MATCH(G9,Sheet2!$I$2:I13,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" s="16" t="str">
         <f t="array" ref="L9">INDEX(Sheet2!$B$2:$C$21,MATCH(G9,Sheet2!$C$2:C28,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="M9" s="17" t="str">
         <f t="array" ref="M9">INDEX(Sheet2!$E$2:$F$21,MATCH(G9,Sheet2!$F$2:F28,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>1</v>
-      </c>
-      <c r="R9" s="16">
-        <v>1</v>
-      </c>
-      <c r="S9" s="15" t="s">
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>1</v>
+      </c>
+      <c r="R9" s="13">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T9" s="16">
-        <v>1</v>
-      </c>
-      <c r="U9" s="16">
-        <v>1</v>
-      </c>
-      <c r="V9" s="15" t="s">
+      <c r="T9" s="13">
+        <v>1</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="23">
         <v>12</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="23">
         <v>12</v>
       </c>
-      <c r="K10" s="29" t="e">
+      <c r="K10" s="25" t="e">
         <f t="array" ref="K10">INDEX(Sheet2!$H$2:$I$21,MATCH(G10,Sheet2!$I$2:I27,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="30" t="e">
+      <c r="L10" s="26" t="e">
         <f t="array" ref="L10">INDEX(Sheet2!$B$2:$C$21,MATCH(G10,Sheet2!$C$2:C42,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="M10" s="31" t="e">
+      <c r="M10" s="27" t="e">
         <f t="array" ref="M10">INDEX(Sheet2!$E$2:$F$21,MATCH(G10,Sheet2!$F$2:F42,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="16">
-        <v>1</v>
-      </c>
-      <c r="P10" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>1</v>
-      </c>
-      <c r="R10" s="27">
-        <v>1</v>
-      </c>
-      <c r="S10" s="26" t="s">
+      <c r="O10" s="13">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>1</v>
+      </c>
+      <c r="R10" s="23">
+        <v>1</v>
+      </c>
+      <c r="S10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="T10" s="27">
-        <v>0</v>
-      </c>
-      <c r="U10" s="16">
-        <v>1</v>
-      </c>
-      <c r="V10" s="26" t="s">
+      <c r="T10" s="23">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+      <c r="V10" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="23">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="23">
         <v>12</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="25">
         <v>68</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="M11" s="21" t="str">
+      <c r="M11" s="17" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>1</v>
-      </c>
-      <c r="R11" s="27">
-        <v>1</v>
-      </c>
-      <c r="S11" s="15" t="s">
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="T11" s="27">
-        <v>0</v>
-      </c>
-      <c r="U11" s="16">
-        <v>0</v>
-      </c>
-      <c r="V11" s="26" t="s">
+      <c r="T11" s="23">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>12</v>
       </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>12</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="15">
         <v>68</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="M12" s="21" t="str">
+      <c r="M12" s="17" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>1</v>
-      </c>
-      <c r="R12" s="16">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15" t="s">
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>1</v>
+      </c>
+      <c r="R12" s="13">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="T12" s="16">
-        <v>0</v>
-      </c>
-      <c r="U12" s="16">
-        <v>0</v>
-      </c>
-      <c r="V12" s="15" t="s">
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="48" customFormat="1" ht="15">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:22" s="43" customFormat="1" ht="15">
+      <c r="A13" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="38">
         <v>18</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="38">
         <v>3</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="38">
         <v>18</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="40">
         <v>40</v>
       </c>
-      <c r="L13" s="46" t="str">
+      <c r="L13" s="41" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="47" t="str">
+      <c r="M13" s="42" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="43">
-        <v>0</v>
-      </c>
-      <c r="P13" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>1</v>
-      </c>
-      <c r="R13" s="43">
-        <v>1</v>
-      </c>
-      <c r="S13" s="42" t="s">
+      <c r="O13" s="38">
+        <v>0</v>
+      </c>
+      <c r="P13" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>1</v>
+      </c>
+      <c r="R13" s="38">
+        <v>1</v>
+      </c>
+      <c r="S13" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="T13" s="43">
-        <v>0</v>
-      </c>
-      <c r="U13" s="43">
-        <v>0</v>
-      </c>
-      <c r="V13" s="42" t="s">
+      <c r="T13" s="38">
+        <v>0</v>
+      </c>
+      <c r="U13" s="38">
+        <v>0</v>
+      </c>
+      <c r="V13" s="37" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>18</v>
       </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <v>18</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="15">
         <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I36,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L14" s="20" t="str">
+      <c r="L14" s="16" t="str">
         <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C51,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M14" s="17" t="str">
         <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F51,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="16">
-        <v>1</v>
-      </c>
-      <c r="P14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>1</v>
-      </c>
-      <c r="R14" s="16">
-        <v>1</v>
-      </c>
-      <c r="S14" s="15" t="s">
+      <c r="O14" s="13">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>1</v>
+      </c>
+      <c r="R14" s="13">
+        <v>1</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="T14" s="16">
-        <v>0</v>
-      </c>
-      <c r="U14" s="16">
-        <v>1</v>
-      </c>
-      <c r="V14" s="15" t="s">
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>1</v>
+      </c>
+      <c r="V14" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>18</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>18</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="15">
         <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I37,0),1)</f>
         <v>37</v>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" s="16" t="str">
         <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C52,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M15" s="21" t="str">
+      <c r="M15" s="17" t="str">
         <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F52,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="16">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>1</v>
-      </c>
-      <c r="R15" s="16">
-        <v>1</v>
-      </c>
-      <c r="S15" s="15" t="s">
+      <c r="O15" s="13">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1</v>
+      </c>
+      <c r="R15" s="13">
+        <v>1</v>
+      </c>
+      <c r="S15" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="T15" s="16">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16">
-        <v>1</v>
-      </c>
-      <c r="V15" s="15" t="s">
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>6</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>3</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>6</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="15">
         <v>32</v>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L16" s="16" t="str">
         <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C29,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M16" s="21" t="str">
+      <c r="M16" s="17" t="str">
         <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F29,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>1</v>
-      </c>
-      <c r="R16" s="16">
-        <v>1</v>
-      </c>
-      <c r="S16" s="15" t="s">
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>1</v>
+      </c>
+      <c r="R16" s="13">
+        <v>1</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="T16" s="16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="16">
-        <v>0</v>
-      </c>
-      <c r="V16" s="15" t="s">
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>6</v>
       </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="13">
         <v>6</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="15">
         <v>70</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="15" t="s">
+      <c r="M17" s="17"/>
+      <c r="N17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="16">
-        <v>1</v>
-      </c>
-      <c r="P17" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>1</v>
-      </c>
-      <c r="R17" s="16">
-        <v>1</v>
-      </c>
-      <c r="S17" s="15" t="s">
+      <c r="O17" s="13">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1</v>
+      </c>
+      <c r="R17" s="13">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="16">
-        <v>0</v>
-      </c>
-      <c r="U17" s="16">
-        <v>1</v>
-      </c>
-      <c r="V17" s="15" t="s">
+      <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="36" customFormat="1" ht="15">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:22" ht="15">
+      <c r="A18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="13">
         <v>6</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="15">
         <v>57</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="M18" s="21" t="str">
+      <c r="M18" s="17" t="str">
         <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="16">
-        <v>1</v>
-      </c>
-      <c r="P18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>1</v>
-      </c>
-      <c r="R18" s="16">
-        <v>1</v>
-      </c>
-      <c r="S18" s="15" t="s">
+      <c r="O18" s="13">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+      <c r="R18" s="13">
+        <v>1</v>
+      </c>
+      <c r="S18" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="T18" s="16">
-        <v>0</v>
-      </c>
-      <c r="U18" s="16">
-        <v>1</v>
-      </c>
-      <c r="V18" s="15" t="s">
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>1</v>
+      </c>
+      <c r="V18" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>7</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="13">
         <v>7</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="15">
         <f t="array" ref="K19">INDEX(Sheet2!$H$2:$I$21,MATCH(G19,Sheet2!$I$2:I17,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L19" s="20" t="str">
+      <c r="L19" s="16" t="str">
         <f t="array" ref="L19">INDEX(Sheet2!$B$2:$C$21,MATCH(G19,Sheet2!$C$2:C32,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M19" s="21" t="str">
+      <c r="M19" s="17" t="str">
         <f t="array" ref="M19">INDEX(Sheet2!$E$2:$F$21,MATCH(G19,Sheet2!$F$2:F32,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="16">
-        <v>1</v>
-      </c>
-      <c r="P19" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>1</v>
-      </c>
-      <c r="R19" s="16">
-        <v>1</v>
-      </c>
-      <c r="S19" s="15" t="s">
+      <c r="O19" s="13">
+        <v>1</v>
+      </c>
+      <c r="P19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1</v>
+      </c>
+      <c r="R19" s="13">
+        <v>1</v>
+      </c>
+      <c r="S19" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="T19" s="16">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16">
-        <v>0</v>
-      </c>
-      <c r="V19" s="15" t="s">
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>7</v>
       </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="13">
         <v>7</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="15">
         <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I18,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L20" s="20" t="str">
+      <c r="L20" s="16" t="str">
         <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C33,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M20" s="21" t="str">
+      <c r="M20" s="17" t="str">
         <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F33,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="16">
-        <v>1</v>
-      </c>
-      <c r="P20" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>1</v>
-      </c>
-      <c r="R20" s="16">
-        <v>1</v>
-      </c>
-      <c r="S20" s="15" t="s">
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1</v>
+      </c>
+      <c r="R20" s="13">
+        <v>1</v>
+      </c>
+      <c r="S20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="T20" s="16">
-        <v>0</v>
-      </c>
-      <c r="U20" s="16">
-        <v>0</v>
-      </c>
-      <c r="V20" s="15" t="s">
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="13">
         <v>8</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="13">
         <v>8</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="15">
         <f t="array" ref="K21">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G21,[1]Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L21" s="20" t="str">
+      <c r="L21" s="16" t="str">
         <f t="array" ref="L21">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G21,[1]Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M21" s="21" t="str">
+      <c r="M21" s="17" t="str">
         <f t="array" ref="M21">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G21,[1]Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="16">
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>1</v>
-      </c>
-      <c r="R21" s="16">
-        <v>1</v>
-      </c>
-      <c r="S21" s="15" t="s">
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>1</v>
+      </c>
+      <c r="R21" s="13">
+        <v>1</v>
+      </c>
+      <c r="S21" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="T21" s="16">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16">
-        <v>0</v>
-      </c>
-      <c r="V21" s="15" t="s">
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="13">
         <v>8</v>
       </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="13">
         <v>8</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="15">
         <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="M22" s="21" t="str">
+      <c r="M22" s="17" t="str">
         <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="16">
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>1</v>
-      </c>
-      <c r="R22" s="16">
-        <v>1</v>
-      </c>
-      <c r="S22" s="15" t="s">
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>1</v>
+      </c>
+      <c r="R22" s="13">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="T22" s="16">
-        <v>0</v>
-      </c>
-      <c r="U22" s="16">
-        <v>0</v>
-      </c>
-      <c r="V22" s="15" t="s">
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="32" customFormat="1" ht="15">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:22" s="28" customFormat="1" ht="15">
+      <c r="A23" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="13">
         <v>9</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>18</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="13">
         <v>9</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="15">
         <v>30</v>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L23" s="16" t="str">
         <f t="array" ref="L23">INDEX(Sheet2!$B$2:$C$21,MATCH(G23,Sheet2!$C$2:C36,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M23" s="21" t="str">
+      <c r="M23" s="17" t="str">
         <f t="array" ref="M23">INDEX(Sheet2!$E$2:$F$21,MATCH(G23,Sheet2!$F$2:F36,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="16">
-        <v>1</v>
-      </c>
-      <c r="P23" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>1</v>
-      </c>
-      <c r="R23" s="16">
-        <v>1</v>
-      </c>
-      <c r="S23" s="15" t="s">
+      <c r="O23" s="13">
+        <v>1</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13">
+        <v>1</v>
+      </c>
+      <c r="S23" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="T23" s="16">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16">
-        <v>0</v>
-      </c>
-      <c r="V23" s="15" t="s">
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="32" customFormat="1" ht="15">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:22" s="28" customFormat="1" ht="15">
+      <c r="A24" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="13">
         <v>9</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="21">
         <v>7</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <v>9</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="15">
         <f t="array" ref="K24">INDEX(Sheet2!$H$2:$I$21,MATCH(G24,Sheet2!$I$2:I22,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L24" s="16" t="str">
         <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C37,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M24" s="21" t="str">
+      <c r="M24" s="17" t="str">
         <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F37,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>1</v>
-      </c>
-      <c r="R24" s="16">
-        <v>1</v>
-      </c>
-      <c r="S24" s="15" t="s">
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>1</v>
+      </c>
+      <c r="R24" s="13">
+        <v>1</v>
+      </c>
+      <c r="S24" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="T24" s="16">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16">
-        <v>0</v>
-      </c>
-      <c r="V24" s="15" t="s">
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="13">
         <v>10</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>2</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="13">
         <v>10</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="15">
         <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I23,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L25" s="16" t="str">
         <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C38,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M25" s="21" t="str">
+      <c r="M25" s="17" t="str">
         <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F38,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="16">
-        <v>1</v>
-      </c>
-      <c r="P25" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="16">
-        <v>1</v>
-      </c>
-      <c r="R25" s="16">
-        <v>1</v>
-      </c>
-      <c r="S25" s="15" t="s">
+      <c r="O25" s="13">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>1</v>
+      </c>
+      <c r="R25" s="13">
+        <v>1</v>
+      </c>
+      <c r="S25" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="T25" s="16">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16">
-        <v>1</v>
-      </c>
-      <c r="V25" s="15" t="s">
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>1</v>
+      </c>
+      <c r="V25" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>10</v>
       </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="13">
         <v>10</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="15">
         <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I24,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L26" s="16" t="str">
         <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C39,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M26" s="21" t="str">
+      <c r="M26" s="17" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F39,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="16">
-        <v>1</v>
-      </c>
-      <c r="P26" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>1</v>
-      </c>
-      <c r="R26" s="16">
-        <v>1</v>
-      </c>
-      <c r="S26" s="15" t="s">
+      <c r="O26" s="13">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13">
+        <v>1</v>
+      </c>
+      <c r="S26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="16">
-        <v>0</v>
-      </c>
-      <c r="U26" s="16">
-        <v>1</v>
-      </c>
-      <c r="V26" s="15" t="s">
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <v>1</v>
+      </c>
+      <c r="V26" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="49" customFormat="1" ht="14.25">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:22" s="44" customFormat="1" ht="14.25">
+      <c r="A27" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="45">
         <v>11</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="45">
         <v>2</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="45">
         <v>11</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="45">
         <v>730</v>
       </c>
-      <c r="L27" s="51" t="str">
+      <c r="L27" s="46" t="str">
         <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M27" s="52" t="str">
+      <c r="M27" s="47" t="str">
         <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N27" s="49" t="s">
+      <c r="N27" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="50">
-        <v>0</v>
-      </c>
-      <c r="P27" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="50">
-        <v>1</v>
-      </c>
-      <c r="R27" s="50">
-        <v>1</v>
-      </c>
-      <c r="S27" s="49" t="s">
+      <c r="O27" s="45">
+        <v>0</v>
+      </c>
+      <c r="P27" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="45">
+        <v>1</v>
+      </c>
+      <c r="R27" s="45">
+        <v>1</v>
+      </c>
+      <c r="S27" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="T27" s="50">
-        <v>0</v>
-      </c>
-      <c r="U27" s="50">
-        <v>0</v>
-      </c>
-      <c r="V27" s="49" t="s">
+      <c r="T27" s="45">
+        <v>0</v>
+      </c>
+      <c r="U27" s="45">
+        <v>0</v>
+      </c>
+      <c r="V27" s="44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>11</v>
       </c>
-      <c r="C28" s="16">
-        <v>1</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="13">
         <v>11</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="15">
         <v>68</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="M28" s="21" t="str">
+      <c r="M28" s="17" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="16">
-        <v>0</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="16">
-        <v>1</v>
-      </c>
-      <c r="R28" s="16">
-        <v>1</v>
-      </c>
-      <c r="S28" s="15" t="s">
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>1</v>
+      </c>
+      <c r="R28" s="13">
+        <v>1</v>
+      </c>
+      <c r="S28" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T28" s="16">
-        <v>0</v>
-      </c>
-      <c r="U28" s="16">
-        <v>0</v>
-      </c>
-      <c r="V28" s="15" t="s">
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>24</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="13">
         <v>24</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="15">
         <f t="array" ref="K29">INDEX(Sheet2!$H$2:$I$21,MATCH(G29,Sheet2!$I$2:I49,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L29" s="20" t="str">
+      <c r="L29" s="16" t="str">
         <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C64,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M29" s="21" t="str">
+      <c r="M29" s="17" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F64,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="16">
-        <v>1</v>
-      </c>
-      <c r="P29" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>1</v>
-      </c>
-      <c r="R29" s="16">
-        <v>1</v>
-      </c>
-      <c r="S29" s="15" t="s">
+      <c r="O29" s="13">
+        <v>1</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>1</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1</v>
+      </c>
+      <c r="S29" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="T29" s="16">
-        <v>1</v>
-      </c>
-      <c r="U29" s="16">
-        <v>1</v>
-      </c>
-      <c r="V29" s="15" t="s">
+      <c r="T29" s="13">
+        <v>1</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1</v>
+      </c>
+      <c r="V29" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>24</v>
       </c>
-      <c r="C30" s="16">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="13">
         <v>24</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="15">
         <v>74</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="M30" s="21" t="str">
+      <c r="M30" s="17" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="16">
-        <v>0</v>
-      </c>
-      <c r="P30" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="16">
-        <v>1</v>
-      </c>
-      <c r="R30" s="16">
-        <v>1</v>
-      </c>
-      <c r="S30" s="15" t="s">
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>1</v>
+      </c>
+      <c r="R30" s="13">
+        <v>1</v>
+      </c>
+      <c r="S30" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="T30" s="16">
-        <v>0</v>
-      </c>
-      <c r="U30" s="16">
-        <v>0</v>
-      </c>
-      <c r="V30" s="15" t="s">
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="49" customFormat="1" ht="14.25">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:22" s="44" customFormat="1" ht="14.25">
+      <c r="A31" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="45">
         <v>23</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="45">
         <v>2</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="45">
         <v>23</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="45">
         <v>29</v>
       </c>
-      <c r="L31" s="51" t="str">
+      <c r="L31" s="46" t="str">
         <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C62,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M31" s="52" t="str">
+      <c r="M31" s="47" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N31" s="49" t="s">
+      <c r="N31" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="50">
-        <v>0</v>
-      </c>
-      <c r="P31" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="50">
-        <v>1</v>
-      </c>
-      <c r="R31" s="50">
-        <v>1</v>
-      </c>
-      <c r="S31" s="49" t="s">
+      <c r="O31" s="45">
+        <v>0</v>
+      </c>
+      <c r="P31" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>1</v>
+      </c>
+      <c r="R31" s="45">
+        <v>1</v>
+      </c>
+      <c r="S31" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="T31" s="50">
-        <v>0</v>
-      </c>
-      <c r="U31" s="50">
-        <v>0</v>
-      </c>
-      <c r="V31" s="49" t="s">
+      <c r="T31" s="45">
+        <v>0</v>
+      </c>
+      <c r="U31" s="45">
+        <v>0</v>
+      </c>
+      <c r="V31" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="13">
         <v>23</v>
       </c>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="13">
         <v>23</v>
       </c>
-      <c r="K32" s="19">
-        <v>74</v>
-      </c>
-      <c r="L32" s="20" t="s">
+      <c r="K32" s="15">
+        <v>75</v>
+      </c>
+      <c r="L32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="21" t="str">
+      <c r="M32" s="17" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="16">
-        <v>0</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
-        <v>1</v>
-      </c>
-      <c r="R32" s="16">
-        <v>1</v>
-      </c>
-      <c r="S32" s="15" t="s">
+      <c r="O32" s="13">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>1</v>
+      </c>
+      <c r="R32" s="13">
+        <v>1</v>
+      </c>
+      <c r="S32" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="T32" s="16">
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
-        <v>0</v>
-      </c>
-      <c r="V32" s="15" t="s">
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="13">
         <v>15</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>2</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="15">
         <f t="array" ref="K33">INDEX(Sheet2!$H$2:$I$21,MATCH(G33,Sheet2!$I$2:I29,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L33" s="20" t="str">
+      <c r="L33" s="16" t="str">
         <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C44,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M33" s="21" t="str">
+      <c r="M33" s="17" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F44,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="16">
-        <v>1</v>
-      </c>
-      <c r="P33" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="16">
-        <v>1</v>
-      </c>
-      <c r="R33" s="16">
-        <v>1</v>
-      </c>
-      <c r="S33" s="15" t="s">
+      <c r="O33" s="13">
+        <v>1</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1</v>
+      </c>
+      <c r="R33" s="13">
+        <v>1</v>
+      </c>
+      <c r="S33" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="T33" s="16">
-        <v>0</v>
-      </c>
-      <c r="U33" s="16">
-        <v>1</v>
-      </c>
-      <c r="V33" s="15" t="s">
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <v>1</v>
+      </c>
+      <c r="V33" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="13">
         <v>15</v>
       </c>
-      <c r="C34" s="16">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="13">
         <v>15</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="15">
         <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="M34" s="21" t="str">
+      <c r="M34" s="17" t="str">
         <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="16">
-        <v>0</v>
-      </c>
-      <c r="P34" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="16">
-        <v>1</v>
-      </c>
-      <c r="R34" s="16">
-        <v>1</v>
-      </c>
-      <c r="S34" s="15" t="s">
+      <c r="O34" s="13">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>1</v>
+      </c>
+      <c r="R34" s="13">
+        <v>1</v>
+      </c>
+      <c r="S34" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T34" s="16">
-        <v>0</v>
-      </c>
-      <c r="U34" s="16">
-        <v>0</v>
-      </c>
-      <c r="V34" s="15" t="s">
+      <c r="T34" s="13">
+        <v>0</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0</v>
+      </c>
+      <c r="V34" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="13">
         <v>16</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>3</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="13">
         <v>16</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="15">
         <v>30</v>
       </c>
-      <c r="L35" s="20" t="str">
+      <c r="L35" s="16" t="str">
         <f t="array" ref="L35">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G35,[1]Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M35" s="21" t="str">
+      <c r="M35" s="17" t="str">
         <f t="array" ref="M35">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G35,[1]Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="16">
-        <v>0</v>
-      </c>
-      <c r="P35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>1</v>
-      </c>
-      <c r="R35" s="16">
-        <v>1</v>
-      </c>
-      <c r="S35" s="15" t="s">
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>1</v>
+      </c>
+      <c r="R35" s="13">
+        <v>1</v>
+      </c>
+      <c r="S35" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="T35" s="16">
-        <v>0</v>
-      </c>
-      <c r="U35" s="16">
-        <v>0</v>
-      </c>
-      <c r="V35" s="15" t="s">
+      <c r="T35" s="13">
+        <v>0</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
+      <c r="V35" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="13">
         <v>16</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>2</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="13">
         <v>16</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="15">
         <f t="array" ref="K36">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G36,[1]Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="M36" s="21" t="str">
+      <c r="M36" s="17" t="str">
         <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="16">
-        <v>0</v>
-      </c>
-      <c r="P36" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="16">
-        <v>1</v>
-      </c>
-      <c r="R36" s="16">
-        <v>1</v>
-      </c>
-      <c r="S36" s="15" t="s">
+      <c r="O36" s="13">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>1</v>
+      </c>
+      <c r="R36" s="13">
+        <v>1</v>
+      </c>
+      <c r="S36" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="T36" s="16">
-        <v>0</v>
-      </c>
-      <c r="U36" s="16">
-        <v>0</v>
-      </c>
-      <c r="V36" s="15" t="s">
+      <c r="T36" s="13">
+        <v>0</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="V36" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="13">
         <v>17</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>2</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="13">
         <v>17</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="15">
         <v>56</v>
       </c>
-      <c r="L37" s="20">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21" t="s">
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O37" s="16">
-        <v>0</v>
-      </c>
-      <c r="P37" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="16">
-        <v>1</v>
-      </c>
-      <c r="R37" s="16">
-        <v>1</v>
-      </c>
-      <c r="S37" s="15" t="s">
+      <c r="O37" s="13">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>1</v>
+      </c>
+      <c r="R37" s="13">
+        <v>1</v>
+      </c>
+      <c r="S37" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="T37" s="16">
-        <v>0</v>
-      </c>
-      <c r="U37" s="16">
-        <v>0</v>
-      </c>
-      <c r="V37" s="15" t="s">
+      <c r="T37" s="13">
+        <v>0</v>
+      </c>
+      <c r="U37" s="13">
+        <v>0</v>
+      </c>
+      <c r="V37" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="13">
         <v>17</v>
       </c>
-      <c r="C38" s="16">
-        <v>1</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="13">
         <v>17</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="15">
         <f t="array" ref="K38">INDEX(Sheet2!$H$2:$I$21,MATCH(G38,Sheet2!$I$2:I34,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="M38" s="21" t="str">
+      <c r="M38" s="17" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G38,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="16">
-        <v>1</v>
-      </c>
-      <c r="P38" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="16">
-        <v>1</v>
-      </c>
-      <c r="R38" s="16">
-        <v>1</v>
-      </c>
-      <c r="S38" s="15" t="s">
+      <c r="O38" s="13">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>1</v>
+      </c>
+      <c r="R38" s="13">
+        <v>1</v>
+      </c>
+      <c r="S38" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="T38" s="16">
-        <v>0</v>
-      </c>
-      <c r="U38" s="16">
-        <v>0</v>
-      </c>
-      <c r="V38" s="15" t="s">
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38" s="13">
+        <v>0</v>
+      </c>
+      <c r="V38" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>20</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>2</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="13">
         <v>20</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="15">
         <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I40,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L39" s="20" t="str">
+      <c r="L39" s="16" t="str">
         <f t="array" ref="L39">INDEX(Sheet2!$B$2:$C$21,MATCH(G39,Sheet2!$C$2:C55,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M39" s="21" t="str">
+      <c r="M39" s="17" t="str">
         <f t="array" ref="M39">INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F55,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O39" s="16">
-        <v>1</v>
-      </c>
-      <c r="P39" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="16">
-        <v>1</v>
-      </c>
-      <c r="R39" s="16">
-        <v>1</v>
-      </c>
-      <c r="S39" s="15" t="s">
+      <c r="O39" s="13">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>1</v>
+      </c>
+      <c r="R39" s="13">
+        <v>1</v>
+      </c>
+      <c r="S39" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="T39" s="16">
-        <v>0</v>
-      </c>
-      <c r="U39" s="16">
-        <v>1</v>
-      </c>
-      <c r="V39" s="15" t="s">
+      <c r="T39" s="13">
+        <v>0</v>
+      </c>
+      <c r="U39" s="13">
+        <v>1</v>
+      </c>
+      <c r="V39" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="13">
         <v>20</v>
       </c>
-      <c r="C40" s="16">
-        <v>1</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="13">
         <v>20</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="15">
         <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="M40" s="21" t="str">
+      <c r="M40" s="17" t="str">
         <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="16">
-        <v>0</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="16">
-        <v>1</v>
-      </c>
-      <c r="R40" s="16">
-        <v>1</v>
-      </c>
-      <c r="S40" s="15" t="s">
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>1</v>
+      </c>
+      <c r="R40" s="13">
+        <v>1</v>
+      </c>
+      <c r="S40" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T40" s="16">
-        <v>0</v>
-      </c>
-      <c r="U40" s="16">
-        <v>0</v>
-      </c>
-      <c r="V40" s="15" t="s">
+      <c r="T40" s="13">
+        <v>0</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="13">
         <v>21</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="13">
         <v>2</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="13">
         <v>21</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="15">
         <v>30</v>
       </c>
-      <c r="L41" s="20" t="str">
+      <c r="L41" s="16" t="str">
         <f t="array" ref="L41">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G41,[1]Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M41" s="21" t="str">
+      <c r="M41" s="17" t="str">
         <f t="array" ref="M41">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G41,[1]Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O41" s="16">
-        <v>0</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="16">
-        <v>1</v>
-      </c>
-      <c r="R41" s="16">
-        <v>1</v>
-      </c>
-      <c r="S41" s="15" t="s">
+      <c r="O41" s="13">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>1</v>
+      </c>
+      <c r="R41" s="13">
+        <v>1</v>
+      </c>
+      <c r="S41" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="T41" s="16">
-        <v>0</v>
-      </c>
-      <c r="U41" s="16">
-        <v>0</v>
-      </c>
-      <c r="V41" s="15" t="s">
+      <c r="T41" s="13">
+        <v>0</v>
+      </c>
+      <c r="U41" s="13">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <v>21</v>
       </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="13">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="13">
         <v>21</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="15">
         <f t="array" ref="K42">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G42,[1]Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L42" s="20" t="str">
+      <c r="L42" s="16" t="str">
         <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M42" s="21" t="str">
+      <c r="M42" s="17" t="str">
         <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="16">
-        <v>0</v>
-      </c>
-      <c r="P42" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="16">
-        <v>1</v>
-      </c>
-      <c r="R42" s="16">
-        <v>1</v>
-      </c>
-      <c r="S42" s="15" t="s">
+      <c r="O42" s="13">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>1</v>
+      </c>
+      <c r="R42" s="13">
+        <v>1</v>
+      </c>
+      <c r="S42" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="T42" s="16">
-        <v>0</v>
-      </c>
-      <c r="U42" s="16">
-        <v>0</v>
-      </c>
-      <c r="V42" s="15" t="s">
+      <c r="T42" s="13">
+        <v>0</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="13">
         <v>19</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="21">
         <v>18</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="13">
         <v>19</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="15">
         <f t="array" ref="K43">INDEX(Sheet2!$H$2:$I$21,MATCH(G43,Sheet2!$I$2:I38,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L43" s="20" t="str">
+      <c r="L43" s="16" t="str">
         <f t="array" ref="L43">INDEX(Sheet2!$B$2:$C$21,MATCH(G43,Sheet2!$C$2:C53,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M43" s="21" t="str">
+      <c r="M43" s="17" t="str">
         <f t="array" ref="M43">INDEX(Sheet2!$E$2:$F$21,MATCH(G43,Sheet2!$F$2:F53,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O43" s="16">
-        <v>1</v>
-      </c>
-      <c r="P43" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="16">
-        <v>1</v>
-      </c>
-      <c r="R43" s="16">
-        <v>1</v>
-      </c>
-      <c r="S43" s="15" t="s">
+      <c r="O43" s="13">
+        <v>1</v>
+      </c>
+      <c r="P43" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>1</v>
+      </c>
+      <c r="R43" s="13">
+        <v>1</v>
+      </c>
+      <c r="S43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T43" s="16">
-        <v>0</v>
-      </c>
-      <c r="U43" s="16">
-        <v>1</v>
-      </c>
-      <c r="V43" s="15" t="s">
+      <c r="T43" s="13">
+        <v>0</v>
+      </c>
+      <c r="U43" s="13">
+        <v>1</v>
+      </c>
+      <c r="V43" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="13">
         <v>19</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="21">
         <v>8</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="13">
         <v>19</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="15">
         <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I39,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L44" s="20" t="s">
+      <c r="L44" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="M44" s="21" t="str">
+      <c r="M44" s="17" t="str">
         <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O44" s="16">
-        <v>0</v>
-      </c>
-      <c r="P44" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="16">
-        <v>1</v>
-      </c>
-      <c r="R44" s="16">
-        <v>1</v>
-      </c>
-      <c r="S44" s="15" t="s">
+      <c r="O44" s="13">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>1</v>
+      </c>
+      <c r="R44" s="13">
+        <v>1</v>
+      </c>
+      <c r="S44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="T44" s="16">
-        <v>0</v>
-      </c>
-      <c r="U44" s="16">
-        <v>0</v>
-      </c>
-      <c r="V44" s="15" t="s">
+      <c r="T44" s="13">
+        <v>0</v>
+      </c>
+      <c r="U44" s="13">
+        <v>0</v>
+      </c>
+      <c r="V44" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="13">
         <v>26</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="21">
         <v>10</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="13">
         <v>26</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="15">
         <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I53,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L45" s="20" t="str">
+      <c r="L45" s="16" t="str">
         <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C68,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M45" s="21" t="str">
+      <c r="M45" s="17" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F68,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O45" s="16">
-        <v>1</v>
-      </c>
-      <c r="P45" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="16">
-        <v>1</v>
-      </c>
-      <c r="R45" s="16">
-        <v>1</v>
-      </c>
-      <c r="S45" s="15" t="s">
+      <c r="O45" s="13">
+        <v>1</v>
+      </c>
+      <c r="P45" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>1</v>
+      </c>
+      <c r="R45" s="13">
+        <v>1</v>
+      </c>
+      <c r="S45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T45" s="16">
-        <v>1</v>
-      </c>
-      <c r="U45" s="16">
-        <v>1</v>
-      </c>
-      <c r="V45" s="15" t="s">
+      <c r="T45" s="13">
+        <v>1</v>
+      </c>
+      <c r="U45" s="13">
+        <v>1</v>
+      </c>
+      <c r="V45" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="13">
         <v>26</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="21">
         <v>9</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="13">
         <v>26</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="15">
         <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I54,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L46" s="20" t="str">
+      <c r="L46" s="16" t="str">
         <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C69,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M46" s="21" t="str">
+      <c r="M46" s="17" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F69,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O46" s="16">
-        <v>0</v>
-      </c>
-      <c r="P46" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="16">
-        <v>1</v>
-      </c>
-      <c r="R46" s="16">
-        <v>1</v>
-      </c>
-      <c r="S46" s="15" t="s">
+      <c r="O46" s="13">
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>1</v>
+      </c>
+      <c r="R46" s="13">
+        <v>1</v>
+      </c>
+      <c r="S46" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="T46" s="16">
-        <v>0</v>
-      </c>
-      <c r="U46" s="16">
-        <v>0</v>
-      </c>
-      <c r="V46" s="15" t="s">
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
+      <c r="U46" s="13">
+        <v>0</v>
+      </c>
+      <c r="V46" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="38" customFormat="1" ht="14.25">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:22" s="33" customFormat="1" ht="14.25">
+      <c r="A47" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="39">
+      <c r="B47" s="34">
         <v>22</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="34">
         <v>3</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="H47" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="I47" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="34">
         <v>22</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K47" s="34">
         <v>72</v>
       </c>
-      <c r="L47" s="40" t="str">
+      <c r="L47" s="35" t="str">
         <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M47" s="41" t="str">
+      <c r="M47" s="36" t="str">
         <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N47" s="38" t="s">
+      <c r="N47" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O47" s="39">
-        <v>0</v>
-      </c>
-      <c r="P47" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="39">
-        <v>1</v>
-      </c>
-      <c r="R47" s="39">
-        <v>1</v>
-      </c>
-      <c r="S47" s="38" t="s">
+      <c r="O47" s="34">
+        <v>0</v>
+      </c>
+      <c r="P47" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="34">
+        <v>1</v>
+      </c>
+      <c r="R47" s="34">
+        <v>1</v>
+      </c>
+      <c r="S47" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="T47" s="39">
-        <v>0</v>
-      </c>
-      <c r="U47" s="39">
-        <v>0</v>
-      </c>
-      <c r="V47" s="38" t="s">
+      <c r="T47" s="34">
+        <v>0</v>
+      </c>
+      <c r="U47" s="34">
+        <v>0</v>
+      </c>
+      <c r="V47" s="33" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="13">
         <v>22</v>
       </c>
-      <c r="C48" s="16">
-        <v>1</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="13">
         <v>22</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="15">
         <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I45,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L48" s="20" t="str">
+      <c r="L48" s="16" t="str">
         <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C60,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M48" s="21" t="str">
+      <c r="M48" s="17" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F60,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="N48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O48" s="16">
-        <v>1</v>
-      </c>
-      <c r="P48" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>1</v>
-      </c>
-      <c r="R48" s="16">
-        <v>1</v>
-      </c>
-      <c r="S48" s="15" t="s">
+      <c r="O48" s="13">
+        <v>1</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>1</v>
+      </c>
+      <c r="R48" s="13">
+        <v>1</v>
+      </c>
+      <c r="S48" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="T48" s="16">
-        <v>0</v>
-      </c>
-      <c r="U48" s="16">
-        <v>1</v>
-      </c>
-      <c r="V48" s="15" t="s">
+      <c r="T48" s="13">
+        <v>0</v>
+      </c>
+      <c r="U48" s="13">
+        <v>1</v>
+      </c>
+      <c r="V48" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="13">
         <v>22</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="13">
         <v>2</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="13">
         <v>22</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="15">
         <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I46,0),1)</f>
         <v>37</v>
       </c>
-      <c r="L49" s="20" t="str">
+      <c r="L49" s="16" t="str">
         <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C61,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M49" s="21" t="str">
+      <c r="M49" s="17" t="str">
         <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F61,0),1)</f>
         <v>.log</v>
       </c>
-      <c r="N49" s="18" t="s">
+      <c r="N49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O49" s="16">
-        <v>1</v>
-      </c>
-      <c r="P49" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>1</v>
-      </c>
-      <c r="R49" s="16">
-        <v>1</v>
-      </c>
-      <c r="S49" s="15" t="s">
+      <c r="O49" s="13">
+        <v>1</v>
+      </c>
+      <c r="P49" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>1</v>
+      </c>
+      <c r="R49" s="13">
+        <v>1</v>
+      </c>
+      <c r="S49" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="T49" s="16">
-        <v>0</v>
-      </c>
-      <c r="U49" s="16">
-        <v>1</v>
-      </c>
-      <c r="V49" s="15" t="s">
+      <c r="T49" s="13">
+        <v>0</v>
+      </c>
+      <c r="U49" s="13">
+        <v>1</v>
+      </c>
+      <c r="V49" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="53" customFormat="1" ht="14.25">
-      <c r="A50" s="53" t="s">
+    <row r="50" spans="1:22" s="48" customFormat="1" ht="14.25">
+      <c r="A50" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B50" s="54">
+      <c r="B50" s="49">
         <v>25</v>
       </c>
-      <c r="C50" s="54">
+      <c r="C50" s="49">
         <v>2</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="G50" s="53" t="s">
+      <c r="G50" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="54">
+      <c r="J50" s="49">
         <v>25</v>
       </c>
-      <c r="K50" s="54">
+      <c r="K50" s="49">
         <v>73</v>
       </c>
-      <c r="L50" s="55">
+      <c r="L50" s="50">
         <v>20</v>
       </c>
-      <c r="M50" s="56"/>
-      <c r="N50" s="53" t="s">
+      <c r="M50" s="51"/>
+      <c r="N50" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O50" s="54">
-        <v>0</v>
-      </c>
-      <c r="P50" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="54">
-        <v>1</v>
-      </c>
-      <c r="R50" s="54">
-        <v>1</v>
-      </c>
-      <c r="S50" s="53" t="s">
+      <c r="O50" s="49">
+        <v>0</v>
+      </c>
+      <c r="P50" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="49">
+        <v>1</v>
+      </c>
+      <c r="R50" s="49">
+        <v>1</v>
+      </c>
+      <c r="S50" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="T50" s="54">
-        <v>0</v>
-      </c>
-      <c r="U50" s="54">
-        <v>0</v>
-      </c>
-      <c r="V50" s="53" t="s">
+      <c r="T50" s="49">
+        <v>0</v>
+      </c>
+      <c r="U50" s="49">
+        <v>0</v>
+      </c>
+      <c r="V50" s="48" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="13">
         <v>25</v>
       </c>
-      <c r="C51" s="16">
-        <v>1</v>
-      </c>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="13">
         <v>25</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="15">
         <f t="array" ref="K51">INDEX(Sheet2!$H$2:$I$21,MATCH(G51,Sheet2!$I$2:I52,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="16">
         <v>2</v>
       </c>
-      <c r="M51" s="21" t="str">
+      <c r="M51" s="17" t="str">
         <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F67,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="N51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O51" s="16">
-        <v>0</v>
-      </c>
-      <c r="P51" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="16">
-        <v>1</v>
-      </c>
-      <c r="R51" s="16">
-        <v>1</v>
-      </c>
-      <c r="S51" s="15" t="s">
+      <c r="O51" s="13">
+        <v>0</v>
+      </c>
+      <c r="P51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>1</v>
+      </c>
+      <c r="R51" s="13">
+        <v>1</v>
+      </c>
+      <c r="S51" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="T51" s="16">
-        <v>0</v>
-      </c>
-      <c r="U51" s="16">
-        <v>1</v>
-      </c>
-      <c r="V51" s="15" t="s">
+      <c r="T51" s="13">
+        <v>0</v>
+      </c>
+      <c r="U51" s="13">
+        <v>1</v>
+      </c>
+      <c r="V51" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="13">
         <v>27</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="13">
         <v>2</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="13">
         <v>27</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="15">
         <v>29</v>
       </c>
-      <c r="L52" s="20" t="str">
+      <c r="L52" s="16" t="str">
         <f t="array" ref="L52">INDEX(Sheet2!$B$2:$C$21,MATCH(G52,Sheet2!$C$2:C70,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M52" s="21" t="str">
+      <c r="M52" s="17" t="str">
         <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F70,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O52" s="16">
-        <v>0</v>
-      </c>
-      <c r="P52" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>1</v>
-      </c>
-      <c r="R52" s="16">
-        <v>1</v>
-      </c>
-      <c r="S52" s="15" t="s">
+      <c r="O52" s="13">
+        <v>0</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>1</v>
+      </c>
+      <c r="R52" s="13">
+        <v>1</v>
+      </c>
+      <c r="S52" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="T52" s="16">
-        <v>0</v>
-      </c>
-      <c r="U52" s="16">
-        <v>0</v>
-      </c>
-      <c r="V52" s="15" t="s">
+      <c r="T52" s="13">
+        <v>0</v>
+      </c>
+      <c r="U52" s="13">
+        <v>0</v>
+      </c>
+      <c r="V52" s="12" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="13">
         <v>27</v>
       </c>
-      <c r="C53" s="16">
-        <v>1</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="13">
         <v>27</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="15">
         <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="29">
         <v>2</v>
       </c>
-      <c r="M53" s="21" t="str">
+      <c r="M53" s="17" t="str">
         <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F71,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="N53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O53" s="16">
-        <v>1</v>
-      </c>
-      <c r="P53" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>1</v>
-      </c>
-      <c r="R53" s="16">
-        <v>0</v>
-      </c>
-      <c r="S53" s="15" t="s">
+      <c r="O53" s="13">
+        <v>1</v>
+      </c>
+      <c r="P53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>1</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0</v>
+      </c>
+      <c r="S53" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="T53" s="16">
-        <v>0</v>
-      </c>
-      <c r="U53" s="16">
-        <v>0</v>
-      </c>
-      <c r="V53" s="15" t="s">
+      <c r="T53" s="13">
+        <v>0</v>
+      </c>
+      <c r="U53" s="13">
+        <v>0</v>
+      </c>
+      <c r="V53" s="12" t="s">
         <v>262</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:V53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V53">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5576,7 +5575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5592,24 +5591,24 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>270</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>270</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="19" t="s">
         <v>270</v>
       </c>
       <c r="J1" s="2"/>
@@ -5678,21 +5677,21 @@
       <c r="B4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8">
         <v>25</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5741,7 +5740,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -5766,213 +5765,213 @@
       <c r="B8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8">
         <v>27</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
         <v>37</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="9">
         <v>38</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11">
+      <c r="G11" s="10"/>
+      <c r="H11" s="9">
         <v>39</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telcobright\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8EB556-DFBE-426A-9980-08BB9B58D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1030,17 +1029,17 @@
     <t>Vault.Zte</t>
   </si>
   <si>
-    <t>D:\telcobright\vault\resources\cdr\gaziNetworks\tdm1\tdmKhlBogra</t>
-  </si>
-  <si>
     <t>gaziNetworks_tdm1</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1169,8 +1168,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,6 +1233,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1274,14 +1285,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1396,8 +1408,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1418,7 +1432,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NE automation data"/>
@@ -1832,12 +1846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2854,7 +2868,7 @@
       <c r="F15" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="54" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -2970,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>70</v>
@@ -3049,7 +3063,9 @@
       <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
       <c r="D18" s="12" t="s">
         <v>29</v>
       </c>
@@ -3057,16 +3073,16 @@
         <v>79</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="G18" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="54" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J18" s="13">
         <v>6</v>
@@ -3085,10 +3101,10 @@
         <v>27</v>
       </c>
       <c r="O18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="13">
         <v>1</v>
@@ -3103,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>70</v>
@@ -5237,7 +5253,7 @@
       <c r="F49" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="54" t="s">
         <v>80</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -5566,7 +5582,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V53">
+  <sortState ref="A2:V53">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5575,7 +5591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/_helper/casOperatorInfo.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="333">
   <si>
     <t>operator</t>
   </si>
@@ -963,9 +963,6 @@
     <t>GAZI</t>
   </si>
   <si>
-    <t>GNL</t>
-  </si>
-  <si>
     <t>btcl_Mohakhali</t>
   </si>
   <si>
@@ -1033,6 +1030,9 @@
   </si>
   <si>
     <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra</t>
+  </si>
+  <si>
+    <t>bt</t>
   </si>
 </sst>
 </file>
@@ -1404,11 +1404,11 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1849,9 +1849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T4" s="13">
         <v>0</v>
@@ -2587,16 +2587,16 @@
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>316</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>317</v>
       </c>
       <c r="J11" s="23">
         <v>12</v>
@@ -2605,7 +2605,7 @@
         <v>68</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T11" s="23">
         <v>0</v>
@@ -2653,10 +2653,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>46</v>
@@ -2665,7 +2665,7 @@
         <v>139</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J12" s="13">
         <v>12</v>
@@ -2674,7 +2674,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M12" s="17" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T12" s="13">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T13" s="38">
         <v>0</v>
@@ -2868,7 +2868,7 @@
       <c r="F15" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="52" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>79</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="G18" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="52" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J18" s="13">
         <v>6</v>
@@ -3090,12 +3090,11 @@
       <c r="K18" s="15">
         <v>57</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="M18" s="17" t="str">
-        <f t="array" ref="M18">INDEX(Sheet2!$E$2:$F$21,MATCH(G18,Sheet2!$F$2:F30,0),1)</f>
-        <v>.log</v>
+      <c r="L18" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>27</v>
@@ -3113,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T18" s="13">
         <v>0</v>
@@ -3326,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T21" s="13">
         <v>0</v>
@@ -3396,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T22" s="13">
         <v>0</v>
@@ -3749,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T27" s="45">
         <v>0</v>
@@ -3927,7 +3926,7 @@
         <v>245</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J30" s="13">
         <v>24</v>
@@ -3936,7 +3935,7 @@
         <v>74</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M30" s="17" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F65,0),1)</f>
@@ -3958,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T30" s="13">
         <v>0</v>
@@ -4028,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T31" s="45">
         <v>0</v>
@@ -4075,7 +4074,7 @@
         <v>75</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M32" s="17" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F63,0),1)</f>
@@ -4097,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T32" s="13">
         <v>0</v>
@@ -4308,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T35" s="13">
         <v>0</v>
@@ -4727,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T41" s="13">
         <v>0</v>
@@ -5151,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T47" s="34">
         <v>0</v>
@@ -5253,7 +5252,7 @@
       <c r="F49" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="52" t="s">
         <v>80</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -5467,7 +5466,7 @@
         <v>265</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J52" s="13">
         <v>27</v>
@@ -5499,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T52" s="13">
         <v>0</v>
@@ -5537,7 +5536,7 @@
         <v>268</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J53" s="13">
         <v>27</v>
@@ -5967,27 +5966,27 @@
     <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="25" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1">
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="12.75" customHeight="1"/>
